--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -7,6 +7,8 @@
     <sheet name="all" sheetId="2" r:id="rId2"/>
     <sheet name="sua-cho-be1726201926128" sheetId="3" r:id="rId3"/>
     <sheet name="all1726201926242" sheetId="4" r:id="rId4"/>
+    <sheet name="sua-cho-be1726300902653" sheetId="5" r:id="rId5"/>
+    <sheet name="all1726300902724" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -2878,4 +2880,232 @@
     <ignoredError numberStoredAsText="1" sqref="A1:P10"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1052890607</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/sua-meiji-so-0-1-tuoi-dang-hop-sat</v>
+      </c>
+      <c r="C2" t="str">
+        <v>MEIJI- Sữa số 0 cho bé từ 0-1 tuổi 800g</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Sữa Meiji</v>
+      </c>
+      <c r="E2">
+        <v>-2</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>150458</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4902705116542</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>MEIJI</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Sữa Meiji số 0 - 1 tuổi dạng hộp sắt có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi, không chê ti mẹ cùng thành phần chất xơ tự nhiên tránh táo bón.</v>
+      </c>
+      <c r="M2">
+        <v>48500000</v>
+      </c>
+      <c r="N2">
+        <v>55500000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>12.612612612612612%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>&lt;h2 class="section-title text-blue"&gt;&lt;span style="color:#ff0066"&gt;&lt;strong&gt;Thông số sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;&lt;div class="data-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Sản phẩm&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Sữa Meiji số 0-1 tuổi&lt;/span&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Xuất xứ&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Nhật Bản&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Hãng sản xuất&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Meiji&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Trọng lượng&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;800g&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Quy cách đóng gói&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Hộp sẳt&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; là sữa bột công thức hàng đầu cho trẻ sơ sinh được các mẹ bỉm sữa nội địa Nhật và cả Việt Nam tin dùng. Bởi sữa Meiji số 0 có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi với sữa bột, lại không chê ti mẹ. Đặc biệt, sữa có thành phần bổ sung chất xơ tự nhiên hạn chế bị táo bón hiệu quả.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;1. Thành phần dinh dưỡng sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;&lt;img alt="Bảng thành phần dinh dưỡng của sữa Meiji số 0" title="Bảng thành phần dinh dưỡng của sữa Meiji số 0" src="https://product.hstatic.net/200000833669/product/bang-dinh-duong-sua-meiji-so-0-1-tuoi_8e2ded54f4dc45559f2f45ecd320b440.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Bảng dinh dưỡng sữa Meiji số 0 cho bé 0 - 12 tháng tuổi&lt;/em&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;2. Thành phần nổi bật&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji số 0 hỗ trợ mẹ mang đến cho bé nguồn dinh dưỡng an toàn, đầy đủ để vững tin phát triển trong những năm tháng đầu đời. Cụ thể, sữa Meiji có những thành phần nổi bật đó là:&lt;/p&gt;&lt;h3&gt;Bổ sung chất xơ tự nhiên FOS (Fructo-Oligosaccharides)&lt;/h3&gt;&lt;p&gt;Các nghiên cứu cho thấy FOS là chất xơ hòa tan, có rất nhiều lợi ích đối với sức khỏe con người. Đây là người bạn tuyệt vời của hệ tiêu hóa, tim mạch, hệ miễn dịch,...&lt;/p&gt;&lt;h3&gt;Cung cấp nhiều vitamin và các khoáng chất thiết yếu&lt;/h3&gt;&lt;p&gt;Trong thành phần của sữa Meiji rất giàu vitamin như: A, C, D, vitamin nhóm B,... cùng các khoáng chất cần thiết (sắt, kẽm, photpho,...) hỗ trợ tối ưu sự phát triển toàn diện cho bé.&lt;/p&gt;&lt;h3&gt;Bổ sung các Nucleotides tự nhiên có trong sữa mẹ&lt;/h3&gt;&lt;p&gt;Meiji hiểu rằng ở giai đoạn đầu đời hệ miễn dịch của con còn rất non yếu, dễ bị vi khuẩn tấn công và nhiễm bệnh. Vì thế, công thức sữa cho trẻ sơ sinh của Meiji đã bổ sung thêm các Nucleotides tự nhiên có trong sữa mẹ giúp tăng cường đề kháng.&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0-2_16b8a8ff0726471c9a9833f51053862b.jpg"&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0_3da58f5faf6c4823b559a5d1ecdd4674.jpg"&gt;&lt;/p&gt;&lt;div&gt;&lt;div class="ace-line ace-line old-record-id-WDu1dC4sBowBjSxZhEDlYiHSgrh"&gt;&lt;em&gt;Thiết kế bao bì dễ sử dụng của sữa Meiji số 0 nội địa Nhật&lt;/em&gt;&lt;/div&gt;&lt;/div&gt;&lt;h2&gt;&lt;strong&gt;3. Đặc điểm nổi bật của sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Cẩm nang nuôi con khỏe mạnh - thông minh của nhiều mẹ bỉm sữa chia sẻ thường dành nhiều lời khen ngợi cho sữa Meiji số 0. Bởi sản phẩm có những đặc điểm nổi bật mà mẹ rất tâm đắc, cụ thể:&lt;/p&gt;&lt;h3&gt;Sữa có vị nhạt, mùi vị gần giống sữa mẹ&lt;/h3&gt;&lt;p&gt;Các mẹ thường có một nỗi lo lắng chung là sữa công thức thơm ngon hơn sữa mẹ, dễ khiến bé chê ti mẹ. Trong khi đó, sữa mẹ luôn là nguồn dinh dưỡng tốt nhất cho sự phát triển của trẻ sơ sinh và trẻ nhỏ. Hiểu được điều đó, sữa Meiji số 0 đã ra đời với hương thơm cùng mùi vị gần giống sữa mẹ nhất. Do vậy, mẹ cứ yên tâm sử dụng cả sữa mẹ lẫn sữa công thức cho bé nhé!&lt;/p&gt;&lt;h3&gt;Hỗ trợ bé tăng cân, chiều cao đều, không tăng nhanh, tránh béo phì&lt;/h3&gt;&lt;p&gt;Với thành phần dinh dưỡng cân bằng, hướng tới sự phát triển toàn diện, sữa Meiji số 0 là người bạn đồng hành lý tưởng hỗ trợ bé tăng cân và chiều cao đồng đều. Nhờ vậy, mẹ chẳng lo con bị béo phì, thừa cân mà có thể yên tâm nhìn con cao lớn từng chút một khỏe mạnh và ổn định.&lt;/p&gt;&lt;p&gt;&lt;img alt="Sữa Meiji số 0 giúp bé hạn chế táo bón" title="Sữa Meiji số 0 giúp bé hạn chế táo bón" src="https://product.hstatic.net/200000833669/product/sua-meiji-so-0-giup-be-han-che-tao-bon_ba6b62df8c574dacbd09e603cbf5624c.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Với sữa Meiji số 0 mẹ có thể an tâm con tiêu hóa tốt, ít bị táo bón&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Hạn chế táo bón, phân xốp cùng hệ tiêu hóa khỏe mạnh&lt;/h3&gt;&lt;p&gt;Sữa Meiji giúp bé củng cố sức khỏe đường ruột, tiêu hóa tốt hơn nhờ có thành phần chất xơ tự nhiên FOS. Bởi khi vào ruột, FOS sẽ hút nước trương nở tạo khối phân, làm mềm phân và giúp đào thải phân cùng các chất cặn bã nhanh chóng ra khỏi cơ thể.&lt;/p&gt;&lt;p&gt;Bên cạnh đó, FOS còn có tác dụng&lt;strong&gt; kích thích các lợi khuẩn trong đường ruột phát triển&lt;/strong&gt;, đồng thời giúp tăng cường hấp thu canxi cùng magie tại ruột già. Vì thế, bé uống sữa Meiji mẹ yên tâm lắm bởi bé ít bị táo bón và hấp thu dưỡng chất tốt hơn.&lt;/p&gt;&lt;h3&gt;Tăng cường sức đề kháng, nâng cao miễn dịch&lt;/h3&gt;&lt;p&gt;Chất xơ hòa tan FOS cùng với &lt;strong&gt;các Nucleotides tự nhiên&lt;/strong&gt; trong sữa Meiji có khả năng tăng cường miễn dịch, cho bé sức đề kháng tốt để chống chọi với vi khuẩn, bệnh tật.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;4. Hướng dẫn cách pha sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Nhiều mẹ bỉm sữa, nhất là những chị em làm mẹ lần đầu rất lúng túng trong việc pha sữa Meiji cho bé. Mẹ không biết 1 gạt thìa sữa pha khoảng bao nhiêu ml thì hợp lý. Dưới đây là hướng dẫn cách pha chuẩn theo hướng dẫn của nhà sản xuất các mẹ cần biết:&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Một thìa gạt ngang&lt;/strong&gt; sữa Meiji tương đương 2,7g bột sữa pha được&lt;strong&gt; 20ml sữa.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Cách pha:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng&lt;strong&gt; 3 - 5 phút&lt;/strong&gt; để khử trùng.&lt;/li&gt;&lt;li&gt;Bước 2: Lấy nước sôi&lt;strong&gt; để&lt;/strong&gt; &lt;strong&gt;nguội đến 70 độ C&lt;/strong&gt; pha sữa.&lt;/li&gt;&lt;li&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào &lt;strong&gt;⅔ lượng nước cần thiết&lt;/strong&gt; và lắc/ khuấy đều đến khi hòa tan sữa. (Do nước ở 70 độ C khá nóng nên bố mẹ cần cẩn thận tránh bị bỏng).&lt;/li&gt;&lt;li&gt;Bước 4: Đổ tiếp nước 70 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/li&gt;&lt;li&gt;Bước 5: Chờ sữa nguội khoảng &lt;strong&gt;38 độ C&lt;/strong&gt; thì cho bé bú.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Tham khảo:&amp;nbsp;&lt;a style="font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-size: 1.25rem; font-weight: 700; background-color: #ffffff; text-align: left;" href="/blogs/me-be/huong-dan-cach-pha-sua-meiji-so-0-9-chuan"&gt;&lt;span&gt;[HƯỚNG DẪN] Cách pha sữa Meiji số 0, 9 chuẩn hướng dẫn Nhà sản xuất&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;div style="outline: 0px; vertical-align: baseline; margin: 0px; border-width: 0px 0px 1px; border-top-style: initial; border-right-style: initial; border-bottom-style: solid; border-left-style: initial; border-top-color: initial; border-right-color: initial; border-bottom-color: #ebebeb; border-left-color: initial; border-image: initial; padding: 0px 0px 15px; font-variant-numeric: inherit; font-variant-east-asian: inherit; font-variant-alternates: inherit; font-variant-position: inherit; font-stretch: inherit; line-height: inherit; font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-optical-sizing: inherit; font-kerning: inherit; font-feature-settings: inherit; font-variation-settings: inherit; display: flex; -webkit-box-pack: justify; justify-content: space-between; -webkit-box-align: center; align-items: center; color: #333333;" class="news-detail-meta flex justify-between items-center"&gt;&amp;nbsp;&lt;/div&gt;&lt;p&gt;&lt;img alt="Pha sữa Meiji số 0 dùng nước 70 độ " title="Pha sữa Meiji số 0 dùng nước 70 độ " src="https://product.hstatic.net/200000833669/product/pha-sua-meiji-so-0_6192ae5cb53d48f7ac4e3ab0b0c52cb4.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Sữa Meiji số 0 khác với các loại sữa Nhật khác là sử dụng nước pha ở 70 độ C&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Mẹo khi pha sữa:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mẹ có thể&lt;strong&gt; cho bình sữa vào chậu nước mát, lạnh&lt;/strong&gt; để nguội nhanh hơn, tiết kiệm thời gian.&lt;/li&gt;&lt;li&gt;Trước khi cho bé bú, mẹ hãy &lt;strong&gt;kiểm tra nhiệt độ của sữa&lt;/strong&gt; tránh làm bỏng bé.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;img alt="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" title="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" src="https://product.hstatic.net/200000833669/product/lieu-luong-sua-meiji-so-0-theo-do-tuoi-cua-be_5ed9bd72449947e3bd19ac0f1138e626.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;em&gt;Tùy độ tuổi, cân nặng của bé mà mẹ sử dụng lượng sữa khác nhau&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;5. Hướng dẫn bảo quản&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Mẹ cần chú ý bảo quản sữa đúng cách như sau:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/li&gt;&lt;li&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/li&gt;&lt;li&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/li&gt;&lt;li&gt;Hạn sử dụng của sữa được in dưới đáy lon là 18 tháng kể từ ngày sản xuất.&lt;/li&gt;&lt;li&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể dụng nhưng chất lượng không bằng ban đầu.&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;strong&gt;6. Thông tin thương hiệu sữa Meiji&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/p&gt;&lt;p&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/p&gt;&lt;p&gt;Tại Việt Nam, sữa Meiji cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa. Với chất lượng đảm bảo, tốt cho sự phát triển của bé và mức giá không quá cao, &lt;strong&gt;sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; vẫn luôn là sự lựa chọn hàng đầu cho giai đoạn đầu đời của bé.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1052890607</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/sua-meiji-so-0-1-tuoi-dang-hop-sat</v>
+      </c>
+      <c r="C2" t="str">
+        <v>MEIJI- Sữa số 0 cho bé từ 0-1 tuổi 800g</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Sữa Meiji</v>
+      </c>
+      <c r="E2">
+        <v>-2</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>150458</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4902705116542</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>MEIJI</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Sữa Meiji số 0 - 1 tuổi dạng hộp sắt có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi, không chê ti mẹ cùng thành phần chất xơ tự nhiên tránh táo bón.</v>
+      </c>
+      <c r="M2">
+        <v>48500000</v>
+      </c>
+      <c r="N2">
+        <v>55500000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>12.612612612612612%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>&lt;h2 class="section-title text-blue"&gt;&lt;span style="color:#ff0066"&gt;&lt;strong&gt;Thông số sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;&lt;div class="data-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Sản phẩm&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Sữa Meiji số 0-1 tuổi&lt;/span&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Xuất xứ&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Nhật Bản&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Hãng sản xuất&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Meiji&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Trọng lượng&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;800g&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Quy cách đóng gói&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Hộp sẳt&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; là sữa bột công thức hàng đầu cho trẻ sơ sinh được các mẹ bỉm sữa nội địa Nhật và cả Việt Nam tin dùng. Bởi sữa Meiji số 0 có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi với sữa bột, lại không chê ti mẹ. Đặc biệt, sữa có thành phần bổ sung chất xơ tự nhiên hạn chế bị táo bón hiệu quả.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;1. Thành phần dinh dưỡng sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;&lt;img alt="Bảng thành phần dinh dưỡng của sữa Meiji số 0" title="Bảng thành phần dinh dưỡng của sữa Meiji số 0" src="https://product.hstatic.net/200000833669/product/bang-dinh-duong-sua-meiji-so-0-1-tuoi_8e2ded54f4dc45559f2f45ecd320b440.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Bảng dinh dưỡng sữa Meiji số 0 cho bé 0 - 12 tháng tuổi&lt;/em&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;2. Thành phần nổi bật&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji số 0 hỗ trợ mẹ mang đến cho bé nguồn dinh dưỡng an toàn, đầy đủ để vững tin phát triển trong những năm tháng đầu đời. Cụ thể, sữa Meiji có những thành phần nổi bật đó là:&lt;/p&gt;&lt;h3&gt;Bổ sung chất xơ tự nhiên FOS (Fructo-Oligosaccharides)&lt;/h3&gt;&lt;p&gt;Các nghiên cứu cho thấy FOS là chất xơ hòa tan, có rất nhiều lợi ích đối với sức khỏe con người. Đây là người bạn tuyệt vời của hệ tiêu hóa, tim mạch, hệ miễn dịch,...&lt;/p&gt;&lt;h3&gt;Cung cấp nhiều vitamin và các khoáng chất thiết yếu&lt;/h3&gt;&lt;p&gt;Trong thành phần của sữa Meiji rất giàu vitamin như: A, C, D, vitamin nhóm B,... cùng các khoáng chất cần thiết (sắt, kẽm, photpho,...) hỗ trợ tối ưu sự phát triển toàn diện cho bé.&lt;/p&gt;&lt;h3&gt;Bổ sung các Nucleotides tự nhiên có trong sữa mẹ&lt;/h3&gt;&lt;p&gt;Meiji hiểu rằng ở giai đoạn đầu đời hệ miễn dịch của con còn rất non yếu, dễ bị vi khuẩn tấn công và nhiễm bệnh. Vì thế, công thức sữa cho trẻ sơ sinh của Meiji đã bổ sung thêm các Nucleotides tự nhiên có trong sữa mẹ giúp tăng cường đề kháng.&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0-2_16b8a8ff0726471c9a9833f51053862b.jpg"&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0_3da58f5faf6c4823b559a5d1ecdd4674.jpg"&gt;&lt;/p&gt;&lt;div&gt;&lt;div class="ace-line ace-line old-record-id-WDu1dC4sBowBjSxZhEDlYiHSgrh"&gt;&lt;em&gt;Thiết kế bao bì dễ sử dụng của sữa Meiji số 0 nội địa Nhật&lt;/em&gt;&lt;/div&gt;&lt;/div&gt;&lt;h2&gt;&lt;strong&gt;3. Đặc điểm nổi bật của sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Cẩm nang nuôi con khỏe mạnh - thông minh của nhiều mẹ bỉm sữa chia sẻ thường dành nhiều lời khen ngợi cho sữa Meiji số 0. Bởi sản phẩm có những đặc điểm nổi bật mà mẹ rất tâm đắc, cụ thể:&lt;/p&gt;&lt;h3&gt;Sữa có vị nhạt, mùi vị gần giống sữa mẹ&lt;/h3&gt;&lt;p&gt;Các mẹ thường có một nỗi lo lắng chung là sữa công thức thơm ngon hơn sữa mẹ, dễ khiến bé chê ti mẹ. Trong khi đó, sữa mẹ luôn là nguồn dinh dưỡng tốt nhất cho sự phát triển của trẻ sơ sinh và trẻ nhỏ. Hiểu được điều đó, sữa Meiji số 0 đã ra đời với hương thơm cùng mùi vị gần giống sữa mẹ nhất. Do vậy, mẹ cứ yên tâm sử dụng cả sữa mẹ lẫn sữa công thức cho bé nhé!&lt;/p&gt;&lt;h3&gt;Hỗ trợ bé tăng cân, chiều cao đều, không tăng nhanh, tránh béo phì&lt;/h3&gt;&lt;p&gt;Với thành phần dinh dưỡng cân bằng, hướng tới sự phát triển toàn diện, sữa Meiji số 0 là người bạn đồng hành lý tưởng hỗ trợ bé tăng cân và chiều cao đồng đều. Nhờ vậy, mẹ chẳng lo con bị béo phì, thừa cân mà có thể yên tâm nhìn con cao lớn từng chút một khỏe mạnh và ổn định.&lt;/p&gt;&lt;p&gt;&lt;img alt="Sữa Meiji số 0 giúp bé hạn chế táo bón" title="Sữa Meiji số 0 giúp bé hạn chế táo bón" src="https://product.hstatic.net/200000833669/product/sua-meiji-so-0-giup-be-han-che-tao-bon_ba6b62df8c574dacbd09e603cbf5624c.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Với sữa Meiji số 0 mẹ có thể an tâm con tiêu hóa tốt, ít bị táo bón&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Hạn chế táo bón, phân xốp cùng hệ tiêu hóa khỏe mạnh&lt;/h3&gt;&lt;p&gt;Sữa Meiji giúp bé củng cố sức khỏe đường ruột, tiêu hóa tốt hơn nhờ có thành phần chất xơ tự nhiên FOS. Bởi khi vào ruột, FOS sẽ hút nước trương nở tạo khối phân, làm mềm phân và giúp đào thải phân cùng các chất cặn bã nhanh chóng ra khỏi cơ thể.&lt;/p&gt;&lt;p&gt;Bên cạnh đó, FOS còn có tác dụng&lt;strong&gt; kích thích các lợi khuẩn trong đường ruột phát triển&lt;/strong&gt;, đồng thời giúp tăng cường hấp thu canxi cùng magie tại ruột già. Vì thế, bé uống sữa Meiji mẹ yên tâm lắm bởi bé ít bị táo bón và hấp thu dưỡng chất tốt hơn.&lt;/p&gt;&lt;h3&gt;Tăng cường sức đề kháng, nâng cao miễn dịch&lt;/h3&gt;&lt;p&gt;Chất xơ hòa tan FOS cùng với &lt;strong&gt;các Nucleotides tự nhiên&lt;/strong&gt; trong sữa Meiji có khả năng tăng cường miễn dịch, cho bé sức đề kháng tốt để chống chọi với vi khuẩn, bệnh tật.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;4. Hướng dẫn cách pha sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Nhiều mẹ bỉm sữa, nhất là những chị em làm mẹ lần đầu rất lúng túng trong việc pha sữa Meiji cho bé. Mẹ không biết 1 gạt thìa sữa pha khoảng bao nhiêu ml thì hợp lý. Dưới đây là hướng dẫn cách pha chuẩn theo hướng dẫn của nhà sản xuất các mẹ cần biết:&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Một thìa gạt ngang&lt;/strong&gt; sữa Meiji tương đương 2,7g bột sữa pha được&lt;strong&gt; 20ml sữa.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Cách pha:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng&lt;strong&gt; 3 - 5 phút&lt;/strong&gt; để khử trùng.&lt;/li&gt;&lt;li&gt;Bước 2: Lấy nước sôi&lt;strong&gt; để&lt;/strong&gt; &lt;strong&gt;nguội đến 70 độ C&lt;/strong&gt; pha sữa.&lt;/li&gt;&lt;li&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào &lt;strong&gt;⅔ lượng nước cần thiết&lt;/strong&gt; và lắc/ khuấy đều đến khi hòa tan sữa. (Do nước ở 70 độ C khá nóng nên bố mẹ cần cẩn thận tránh bị bỏng).&lt;/li&gt;&lt;li&gt;Bước 4: Đổ tiếp nước 70 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/li&gt;&lt;li&gt;Bước 5: Chờ sữa nguội khoảng &lt;strong&gt;38 độ C&lt;/strong&gt; thì cho bé bú.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Tham khảo:&amp;nbsp;&lt;a style="font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-size: 1.25rem; font-weight: 700; background-color: #ffffff; text-align: left;" href="/blogs/me-be/huong-dan-cach-pha-sua-meiji-so-0-9-chuan"&gt;&lt;span&gt;[HƯỚNG DẪN] Cách pha sữa Meiji số 0, 9 chuẩn hướng dẫn Nhà sản xuất&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;div style="outline: 0px; vertical-align: baseline; margin: 0px; border-width: 0px 0px 1px; border-top-style: initial; border-right-style: initial; border-bottom-style: solid; border-left-style: initial; border-top-color: initial; border-right-color: initial; border-bottom-color: #ebebeb; border-left-color: initial; border-image: initial; padding: 0px 0px 15px; font-variant-numeric: inherit; font-variant-east-asian: inherit; font-variant-alternates: inherit; font-variant-position: inherit; font-stretch: inherit; line-height: inherit; font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-optical-sizing: inherit; font-kerning: inherit; font-feature-settings: inherit; font-variation-settings: inherit; display: flex; -webkit-box-pack: justify; justify-content: space-between; -webkit-box-align: center; align-items: center; color: #333333;" class="news-detail-meta flex justify-between items-center"&gt;&amp;nbsp;&lt;/div&gt;&lt;p&gt;&lt;img alt="Pha sữa Meiji số 0 dùng nước 70 độ " title="Pha sữa Meiji số 0 dùng nước 70 độ " src="https://product.hstatic.net/200000833669/product/pha-sua-meiji-so-0_6192ae5cb53d48f7ac4e3ab0b0c52cb4.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Sữa Meiji số 0 khác với các loại sữa Nhật khác là sử dụng nước pha ở 70 độ C&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Mẹo khi pha sữa:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mẹ có thể&lt;strong&gt; cho bình sữa vào chậu nước mát, lạnh&lt;/strong&gt; để nguội nhanh hơn, tiết kiệm thời gian.&lt;/li&gt;&lt;li&gt;Trước khi cho bé bú, mẹ hãy &lt;strong&gt;kiểm tra nhiệt độ của sữa&lt;/strong&gt; tránh làm bỏng bé.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;img alt="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" title="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" src="https://product.hstatic.net/200000833669/product/lieu-luong-sua-meiji-so-0-theo-do-tuoi-cua-be_5ed9bd72449947e3bd19ac0f1138e626.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;em&gt;Tùy độ tuổi, cân nặng của bé mà mẹ sử dụng lượng sữa khác nhau&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;5. Hướng dẫn bảo quản&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Mẹ cần chú ý bảo quản sữa đúng cách như sau:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/li&gt;&lt;li&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/li&gt;&lt;li&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/li&gt;&lt;li&gt;Hạn sử dụng của sữa được in dưới đáy lon là 18 tháng kể từ ngày sản xuất.&lt;/li&gt;&lt;li&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể dụng nhưng chất lượng không bằng ban đầu.&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;strong&gt;6. Thông tin thương hiệu sữa Meiji&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/p&gt;&lt;p&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/p&gt;&lt;p&gt;Tại Việt Nam, sữa Meiji cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa. Với chất lượng đảm bảo, tốt cho sự phát triển của bé và mức giá không quá cao, &lt;strong&gt;sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; vẫn luôn là sự lựa chọn hàng đầu cho giai đoạn đầu đời của bé.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -9,6 +9,8 @@
     <sheet name="all1726201926242" sheetId="4" r:id="rId4"/>
     <sheet name="sua-cho-be1726300902653" sheetId="5" r:id="rId5"/>
     <sheet name="all1726300902724" sheetId="6" r:id="rId6"/>
+    <sheet name="me-be1726330049414" sheetId="7" r:id="rId7"/>
+    <sheet name="all1726330049590" sheetId="8" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -3108,4 +3110,1722 @@
     <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2">
+        <v>1052903934</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/ikimoto-bot-uong-canxi-kids-miruka-socola-30-goi</v>
+      </c>
+      <c r="C2" t="str">
+        <v>IKIMOTO- TPBS bột uống canxi Kids Miruka 30 gói</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Thực phẩm chức năng cho bé</v>
+      </c>
+      <c r="E2">
+        <v>3454</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>121519</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4595121193022</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/2_8c2f9451eb4347d0807634ffca259ba2.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/2_8c2f9451eb4347d0807634ffca259ba2.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>IKIMOTO</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Chứa Canxi sữa siêu hấp thụ thúc đẩy chiều cao  Nguồn Vitamin, khoáng chất dồi dào, quan trọng cho bé  Tăng cường hệ miễn dịch, sức đề kháng.  Đảm</v>
+      </c>
+      <c r="M2">
+        <v>21300000</v>
+      </c>
+      <c r="N2">
+        <v>48000000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>55.625%</v>
+      </c>
+      <c r="P2" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Thực phẩm bổ sung bột uống canxi Kids Miruka&lt;/strong&gt; có thành phần chính là canxi sữa, bột ca cao, cung cấp vitamin D, canxi, magie, bcaa và dinh dưỡng cho trẻ. Sản phẩm giúp tăng cường hệ miễn dịch, củng cố hệ xương và răng chắc khỏe phòng chống còi xương, suy dinh dưỡng ở trẻ nhỏ. Sản phẩm dạng bột có thể ăn trực tiếp hoặc pha với nước lọc, hương vị thơm ngon.&lt;/p&gt;
+   &lt;h2&gt;THÀNH PHẦN&lt;/h2&gt;
+   &lt;p&gt;Maltitol (sản xuất tại Nhật Bản), canxi sữa (chứa thành phần sữa), bột ca cao/L-leucine, magie oxit, L-valine, L-isoleucine, chất tạo màu (caramel), chất làm đặc (pullulan), hương liệu, chất tạo ngọt (stevia) , vitamin D.&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Hộp 30 gói&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Bổ sung Vitamin, khoáng chất cho trẻ, đặc biệt là Canxi.&lt;/h3&gt;
+   &lt;ul&gt; &lt;li&gt;Bột uống Kids Miruka chứa thành phần chính là canxi sữa, được tách ra từ sữa bò nguyên chất bằng phương pháp kết tủa và sấy khô. Theo nghiên cứu, canxi sữa có khả năng hấp thu cao nhất, giúp cung cấp canxi cho cơ thể, thúc đẩy hình thành hệ xương khớp, xương chắc khỏe, dẻo dài và nhanh dài. Từ đó hỗ trợ phát triển chiều cao tự nhiên cho bé.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Ngoài ra, L-valine trong sản phẩm là 1 loại axit amin thiết yếu có tác dụng tăng cường sức mạnh, kích thích ăn ngon miệng, hỗ trợ điều trị chứng chán ăn hiệu quả.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h3&gt;Đảm bảo sự phát triển toàn diện của mô, cơ, xương.&lt;/h3&gt;
+   &lt;p&gt;Canxi ,vitamin D, magie, bcaa trong sản phẩm hỗ trợ cho trẻ bồi dưỡng hệ xương và răng chắc khỏe. Vitamin D, magie giúp cơ thể hấp thụ canxi, phosphate từ ruột và làm chắc xương, ngăn ngừa còi xương, loãng xương. Canxi, bcaa giúp trẻ phát triển thể hình tốt, nhanh mọc răng, ngăn ngừa sâu răng và các bệnh nha chu.&lt;/p&gt;
+   &lt;h3&gt;Tăng cường sức đề kháng&lt;/h3&gt;
+   &lt;p&gt;Với công dụng kích thích ăn ngon miệng, hấp thu chất dinh dưỡng tốt hơn, bổ sung canxi, khoáng chất và L-valine, bột uống Kids Miruka hỗ trợ rất hiệu quả cho hoạt động của hệ miễn dịch, tăng cường sức đề kháng cho trẻ nhỏ.&amp;nbsp;&lt;/p&gt;
+   &lt;h2&gt;HƯỚNG DẪN SỬ DỤNG&lt;/h2&gt;
+   &lt;p&gt;Pha 1 gói với nước lọc hoặc nước ấm và uống, hoặc có thể ăn trực tiếp.&lt;/p&gt;
+   &lt;h2&gt;LƯU Ý&amp;nbsp;&lt;/h2&gt;
+   &lt;p&gt;Thực phẩm này không phải là thuốc, không có tác dụng thay thế thuốc chữa bệnh. Không dành cho đối tượng bị dị ứng với chế phẩm từ sữa bò.&lt;/p&gt;
+   &lt;h2&gt;BẢO QUẢN&lt;/h2&gt;
+   &lt;p&gt;Nơi khô ráo thoáng mát, tránh ánh nắng trực tiếp.&lt;/p&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;&lt;span&gt;Thực phẩm bổ sung bột uống canxi Kids Miruka&lt;/span&gt;&amp;nbsp;là sản phẩm đến từ thương hiệu BIZM Co.,LTD; 4-39-10-1105 Narita Higashi, Suginami-ku, Tokyo, Nhật Bản. BIZM là công ty dược phẩm hàng đầu Nhật Bản, nhà máy sản xuất của công ty được đặt tại tỉnh Shizuoka, đạt chuẩn GMP "Good Manufacturing Practices”. IKIMOTO - thương hiệu độc quyền được phân phối bởi Sakuko hệ thống cửa hàng chuyên phân phối các sản phẩm thực phẩm chức năng, thực phẩm bảo vệ sức khỏe Nhật Bản.&lt;br&gt;
+   &lt;strong&gt;&lt;span&gt;Thực phẩm bổ sung bột uống canxi Kids Miruka&lt;/span&gt;&lt;/strong&gt; hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3">
+        <v>1052903642</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://sakukostore.com.vn/products/anyzoo-bim-dan-nb-86-mieng</v>
+      </c>
+      <c r="C3" t="str">
+        <v>ANYZOO- Bỉm dán Premium size SS 86 miếng</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Bỉm Anyzoo</v>
+      </c>
+      <c r="E3">
+        <v>331</v>
+      </c>
+      <c r="F3" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G3" t="str">
+        <v>220054</v>
+      </c>
+      <c r="H3" t="str">
+        <v>4580784261317</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/anyzoo--bim-dan-premium-size-nb-86_d3f612cadf8c4e7dbb44bb5eff6da2a0.png</v>
+      </c>
+      <c r="J3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/anyzoo--bim-dan-premium-size-nb-86_d3f612cadf8c4e7dbb44bb5eff6da2a0.png,https://product.hstatic.net/200000833669/product/zoo--bim-dan-premium-size-s-80m_958bcbd8908a4a4183b4cd3d1acc2677_large_44eb4e14a8d94e4ab275bc4aecfeb395.png,https://product.hstatic.net/200000833669/product/zoo--bim-dan-premium-size-m-64m_8fa3d1e0a8a54f38a97acbe4d6ecd0d3_large_8267fbc249e9483aa21fa672093d6be7.png</v>
+      </c>
+      <c r="K3" t="str">
+        <v>ANYZOO</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Mỏng nhẹ, độ dày bỉm chưa tới 2mm  Đệm lưng từ sợi siêu mịn 1.5D mềm mại  Thấm nhanh, thoáng khí, chống trào ngược  Ngăn ngừa hăm da, mẩn đỏ  Vạch</v>
+      </c>
+      <c r="M3">
+        <v>26900000</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P3" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;ANYZOO- Bỉm tã cho bé&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CHẤT LIỆU&lt;/strong&gt; : Bông cotton 100%, hạt thấm hút SAP Sumitomo&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;QUY CÁCH&lt;/strong&gt; : Loại bỉm, cân nặng phù hợp, size, số miếng&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CÔNG DỤNG&lt;/strong&gt; : Bỉm Anyzoo với 4 đặc tính được cấp bằng sáng chế&lt;/p&gt;
+   &lt;p&gt;HDSD (Đối với bỉm tã dán)&lt;/p&gt;
+   &lt;p&gt;- Mở bỉm, nhẹ nhàng đặt bỉm xuống dưới mông bé.&lt;/p&gt;
+   &lt;p&gt;- Đảm bảo 2 vách chống tràn bên trong che phủ toàn bộ mông bé.&lt;/p&gt;
+   &lt;p&gt;- Ấn cạnh của bỉm xuống và kéo miếng băng dán qua, chỉnh cân đối 2 bên trước khi dán lại.&lt;/p&gt;
+   &lt;p&gt;- Ấn nhẹ miếng dán chắc chắn để cố định bỉm.&lt;/p&gt;
+   &lt;p&gt;- Điều chỉnh vách thun chống tràn 2 bên đùi sao cho ôm vừa vặn đùi bé để ngăn tràn.&lt;/p&gt;
+   &lt;p&gt;- Sau khi sử dụng, cuộn bỉm gọn lại và dán cố định bằng băng dính bỉm trước khi vứt.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;LƯU Ý&lt;/strong&gt; : Nên sử dụng sớm sau khi mở bao bì. Nên sử dụng bỉm trong vòng 3 năm kể từ ngày sản xuất.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;BẢO QUẢN&lt;/strong&gt; : Nơi khô thoáng, tránh ẩm ướt. &lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;Ngày SX&lt;/strong&gt; : Xem trên bao bì sản phẩm.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Koun Shouji Co., Ltd; 4-8-1 Hatchobori, Chuo-ku, Tokyo, Nhật Bản&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : SX tại Trung Quốc theo công nghệ Nhật Bản và giám sát chất lượng bởi chuyên gia Nhật Bản.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1052915807</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://sakukostore.com.vn/products/kao-ban-chai-clear-clean-cho-tre-tu-02-tuoi</v>
+      </c>
+      <c r="C4" t="str">
+        <v>KAO- Bàn chải Clear Clean cho trẻ từ 0~3 tuối</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Bàn chải Kao</v>
+      </c>
+      <c r="E4">
+        <v>234</v>
+      </c>
+      <c r="F4" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G4" t="str">
+        <v>120015</v>
+      </c>
+      <c r="H4" t="str">
+        <v>4901301281661</v>
+      </c>
+      <c r="I4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/kao-ban-chai-clear-clean-cho-tre-tu-0_2-tuoi-4901301281661-1_1d8aaf4c7024475aaa180fae433b151e.jpg</v>
+      </c>
+      <c r="J4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/kao-ban-chai-clear-clean-cho-tre-tu-0_2-tuoi-4901301281661-1_1d8aaf4c7024475aaa180fae433b151e.jpg,https://product.hstatic.net/200000833669/product/kao-ban-chai-clear-clean-cho-tre-tu-0_2-tuoi-4901301281661-2_83e7b76c166945a680edb52a249e117f.jpg</v>
+      </c>
+      <c r="K4" t="str">
+        <v>KAO</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Phù hợp với trẻ trong giai đoạn mọc răng sữa, giúp bé hình thành thói quen vệ sinh răng miệng ngay khi còn nhỏ.Chất liệu cao cấp, không chứa</v>
+      </c>
+      <c r="M4">
+        <v>9000000</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P4" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;div&gt; &lt;p&gt;&lt;span&gt;&lt;strong&gt;Xuất xứ:&lt;/strong&gt;&amp;nbsp;Nhật Bản&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Hãng sản xuất:&amp;nbsp;&lt;/strong&gt;KAO&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Quy cách sản phẩm:&lt;/strong&gt; Bộ sản phẩm gồm 2 chiếc&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mã vạch:&lt;/strong&gt;&amp;nbsp;4901301281661&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Chất liệu:&lt;/strong&gt; Sợi bàn chải làm từ nylon, phần cán bàn chải làm từ polypropylene và cao su EPDM.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Nhiệt độ chịu nhiệt:&lt;/strong&gt; 80 độ C&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Đối tượng sử dụng:&lt;/strong&gt; Dành cho bé từ 0-2 tuổi, đang trong giai đoạn mọc răng sữa&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Trong những giai đoạn mọc răng sữa, ba mẹ có thể đánh răng và hình thành cho bé thói quen vệ sinh răng miệng ngay từ những năm tháng đầu đời.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Bàn chải Clear Clean cho trẻ từ 0~2 tuối - Kao&lt;/strong&gt; là sản phẩm đến từ Nhật Bản, được các bậc cha mẹ trên toàn cầu tin chọn và sử dụng cho bé yêu. Trong bộ sản phẩm có 2 sản phẩm phù hợp với từng giai đoạn mọc răng của bé:&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Bàn chải dành cho bước 1&lt;/i&gt;&lt;/b&gt;&lt;span&gt; (bé trên 6 tháng tuổi với 2-3 răng sữa): Sản phẩm được thiết kế để cho bé dần thích ứng và làm quen với việc cầm bàn chải. Miếng chắn ngay ở tay cầm giúp bé dễ cầm nắm, không bị trơn trượt. Phần đầu bàn chải là cao xu mềm mại, đàn hồi, êm dịu nhẹ nhàng với nướu răng và lớp niêm mạc nhạy cảm của bé.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Bàn chải dành cho bước 2&lt;/i&gt;&lt;/b&gt;&lt;span&gt; (bé trên 8 tháng với 8-10 răng sữa): Sản phẩm được thiết kế để hỗ trợ bé chuyển đổi quá trình từ trải nướu sang đánh răng. Bàn chải có sợi nylo mềm, giúp bé có thể đánh răng hoàn chỉnh như người lớn, dần hình thành thói quen vệ sinh răng miệng cho trẻ ngay từ những tháng đầu đời.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/4901301281661-1_045737a30c804ec789830bc9e3232031_grande_db37b448e60841038b1b2f6a2af10007.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;Bàn chải Clear Clean cho trẻ từ 0-2 tuối Kao&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Bàn chải Clear Clean cho trẻ từ 0-2 tuổi&lt;/strong&gt; là sản phẩm đến từ tập đoàn Kao, được sản xuất trên dây chuyền hiện đại, công nghệ tiên tiến của Nhật, dựa trên những tiêu chuẩn kiểm định khắt khe tại đất nước này. Sản phẩm đã được kiểm nghiệm là an toàn cho sức khỏe của trẻ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/4901301281661-2_grande_29bc36a37ce4431f8c93bf12efba5d60.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;Ba mẹ cần giúp đỡ và để mắt tới trẻ khi đánh răng.&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lưu ý&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Trẻ có thể nghịch ngợm và gây ra nhiều tình huống bất ngờ, vì vậy bố mẹ luôn phải để mắt tới trẻ, đảm bảo an toàn cho con. Không được để trẻ tự sử dụng bàn chải.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Không dùng khi đầu bàn chải bị hư hỏng, biến dạng.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Tiệt trùng bàn chải trước khi sử dụng cho bé. Có thể dùng nước sôi hoặc máy tiệt trùng. Không cho vào lò vi sóng để tiệt trung.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Cọ rửa sạch bàn chải ngay sau khi sử dụng xong.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Để nơi khô ráo, thoáng mát. Tránh để lâu ngày trong nhà tắm. Điều này có thể khiến vi khuẩn, nấm mốc trú ngụ tại bàn chải.&lt;/span&gt;&lt;/p&gt; &lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5">
+        <v>1052915960</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://sakukostore.com.vn/products/wakodo-tra-lua-mach-cho-be-hop-08-goi</v>
+      </c>
+      <c r="C5" t="str">
+        <v>WAKODO- Trà lúa mạch cho bé hộp 08 gói</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Trà lúa mạch</v>
+      </c>
+      <c r="E5">
+        <v>173</v>
+      </c>
+      <c r="F5" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G5" t="str">
+        <v>120745</v>
+      </c>
+      <c r="H5" t="str">
+        <v>4987244183903</v>
+      </c>
+      <c r="I5" t="str">
+        <v>https://product.hstatic.net/200000833669/product/wakodo-tra-lua-mach-cho-be-hop-10-goi-4987244183903-1_89fa4823d3c04e79aee11b02217aef0d.jpg</v>
+      </c>
+      <c r="J5" t="str">
+        <v>https://product.hstatic.net/200000833669/product/wakodo-tra-lua-mach-cho-be-hop-10-goi-4987244183903-1_89fa4823d3c04e79aee11b02217aef0d.jpg,https://product.hstatic.net/200000833669/product/wakodo-tra-lua-mach-cho-be-hop-10-goi-4987244183903-2_0a640debd2d540029baafed2be91b00b.jpg</v>
+      </c>
+      <c r="K5" t="str">
+        <v>WAKODO</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Kích thích bé ăn ngon  Hạn chế các bệnh về đường tiêu hóa  Tăng cường hệ miễn dịch  Đóng gói tiện lợi</v>
+      </c>
+      <c r="M5">
+        <v>6900000</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P5" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Trà lúa mạch cho bé 1 tháng Wakodo &lt;/strong&gt;được chiết xuất hoàn toàn từ lúa mạch thiên nhiên, mang đến sản phẩm bổ sung dinh dưỡng tuyệt vời cho quá trình phát triển của bé yêu trong những năm tháng đầu đời.&lt;/p&gt;
+   &lt;h2&gt;Thành phần sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Lúa mạch, chiết xuất lúa mạch, dextrin.&lt;/p&gt;
+   &lt;h2&gt;Công dụng sản phẩm&lt;/h2&gt;
+   &lt;h3&gt;Kích thích bé ăn ngon&lt;/h3&gt;
+   &lt;p&gt;Trà lúa mạch Wakodo chiết xuất từ lúa mạch và dextrin, trong đó dextrin có tác dụng làm tăng giá trị dinh dưỡng các thực phẩm bé nạp vào hằng ngày cùng với hàm lượng enzim phong phú có trong lúa mạch, nhờ đó kích thích bé ăn ngon, mau lớn.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/e1_ba_a1ch-cho-b_c3_a9-1-th_c3_a1ng-_h_e1_bb_99p-1.2g_c3_978-g_c3_b3i__373862c40e104e77b9e5b035e5027739.png" alt="trà lúa mạch" title="trà lúa mạch"&gt;&lt;/p&gt;
+   &lt;h3&gt;Hạn chế các bệnh về đường tiêu hóa&lt;/h3&gt;
+   &lt;p&gt;Dextrin có trong trà lúa mạch Wakodo là nguồn chất xơ hòa tan cao, giúp bé hấp thụ các chất dinh dưỡng tốt hơn, nhuận tràng và phòng ngừa các bệnh về đường tiêu hóa.&lt;/p&gt;
+   &lt;h3&gt;Tăng cường sức đề kháng ở trẻ nhỏ&lt;/h3&gt;
+   &lt;p&gt;Sản phẩm có hương lúa mạch dễ uống, thuận lợi cho việc bổ sung nước, vitamin, khoáng chất cần thiết cho trẻ nhỏ, tăng cường sức đề kháng cho trẻ hằng ngày hoặc mỗi khi vận động nhiều.&lt;/p&gt;
+   &lt;h2&gt;Hướng dẫn sử dụng sản phẩm&lt;/h2&gt;
+   &lt;p&gt;1 gói trà cho khoảng 100ml nước sôi. Khuấy đều và sử dụng khi còn ấm. Ban đầu cho trẻ uống thử từ 1-2 thìa, sau đó tăng dần khi bé đã quen. Lưu ý màu sắc của trà có thể khác nhau là do đặc tính lúa mạch của từng vùng không ảnh hưởng đến chất lượng SP.&lt;/p&gt;
+   &lt;h2&gt;Bảo quản sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Bảo quản nơi khô ráo thoáng mát, tránh ánh nắng trực tiếp.&lt;/p&gt;
+   &lt;h2&gt;Thông tin thương hiệu&lt;/h2&gt;
+   &lt;p&gt;Wakodo là thương hiệu hàng đầu tại Nhật Bản về sữa công thức và thực phẩm dành cho trẻ em. Các sản phẩm của Wakodo luôn có chất lượng đồng nhất, đáp ứng mọi yêu cầu, tiêu chuẩn khắt khe nhất tại Nhật Bản cũng như các khu vực khác trên thế giới.&lt;br&gt;
+   &lt;strong&gt;Trà lúa mạch cho bé 1 tháng Wakodo&lt;/strong&gt; nên được mẹ lựa chọn để bổ sung dinh dưỡng cho quá trình phát triển của con yêu. Hãy tới ngay Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản để được tư vấn thêm về sản phẩm. Chúng tôi hân hạnh được đón tiếp bạn!&lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;
+   &lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6">
+        <v>1052904255</v>
+      </c>
+      <c r="B6" t="str">
+        <v>https://sakukostore.com.vn/products/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g</v>
+      </c>
+      <c r="C6" t="str">
+        <v>PIGEON- Bánh ăn dặm cà rốt và rau bina 6 tháng 25g</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Bánh Pigeon</v>
+      </c>
+      <c r="E6">
+        <v>112</v>
+      </c>
+      <c r="F6" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G6" t="str">
+        <v>174172</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4902508133913</v>
+      </c>
+      <c r="I6" t="str">
+        <v>https://product.hstatic.net/200000833669/product/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g-4902508133913-1_f3fe7c8d1da74a2a9aa0f1da4ae493fb.jpg</v>
+      </c>
+      <c r="J6" t="str">
+        <v>https://product.hstatic.net/200000833669/product/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g-4902508133913-1_f3fe7c8d1da74a2a9aa0f1da4ae493fb.jpg,https://product.hstatic.net/200000833669/product/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g-4902508133913-2_10107ad7bfc0459488ea423e543eb50a.jpg</v>
+      </c>
+      <c r="K6" t="str">
+        <v>PIGEON</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Bánh nướng xốp hương vị thơm ngon, cung cấp canxi và vitamin cho xương và răng phát triển.  Thiết kế nhỏ xinh vừa tay trẻ nhỏ, phù hợp cho trẻ từ 6</v>
+      </c>
+      <c r="M6">
+        <v>5500000</v>
+      </c>
+      <c r="N6">
+        <v>6500000</v>
+      </c>
+      <c r="O6" t="str">
+        <v>15.384615384615385%</v>
+      </c>
+      <c r="P6" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;Ở độ tuổi từ 6 tháng bé đã có thể bắt đầu tập ăn dặm, ba mẹ nên tìm hiểu và sử dụng các loại đồ ăn vặt bổ sung dinh dưỡng giúp trẻ phạt triển tốt hơn trong giai đoạn này. Bánh gạo Pegion là dòng sản phẩm nội địa của Nhật Bản, với cấu trúc xốp mềm và hương vị thơm ngon sẽ là lựa chọn hoàn hảo cho bé nhà bạn.&lt;/p&gt;
+   &lt;h3&gt;&lt;strong&gt;Công dụng&lt;/strong&gt;&lt;/h3&gt;
+   &lt;p&gt;&lt;strong&gt;&lt;em&gt;Bánh nhỏ vừa tay trẻ, xốp mềm thơm ngon.&lt;/em&gt;&lt;/strong&gt;&lt;br&gt;
+   Bánh gạo Pegion được nướng hoàn toàn không sử dụng dầu chiên, vừa đảm bảo dinh dưỡng vừa an toàn tuyệt đối cho bé, việc cầm nắm bánh dễ dàng và hương vị hấp dẫn sẽ giúp trẻ ham ăn, kích thích thói quen nhai sớm.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;&lt;em&gt;Thành phần dinh dưỡng từ gạo, rau bina và cà rốt, không sử dụng chất bảo quản.&lt;/em&gt;&lt;/strong&gt;&lt;br&gt;
+   Bánh ăn dặm Pegion giúp cung cấp canxi cho sự phát triển răng và xương cho trẻ, tăng sức đề kháng. Với thành phần không chưa chất bảo quản, sản phẩm được kiểm nghiệm theo tiêu chuẩn Nhật Bản và cam kết an toàn tuyệt đối cho trẻ nhỏ.&lt;/p&gt;
+   &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+   &lt;h3 style="font-family: 'Source Sans Pro', -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol'; color: #212529; text-align: justify;"&gt;&lt;span&gt;Hướng dẫn sử dụng&lt;/span&gt;&lt;/h3&gt;
+   &lt;ul&gt; &lt;li&gt;Dành cho trẻ từ 6 tháng tuổi trở lên.&lt;/li&gt; &lt;li&gt;Bóc và sử dụng ngay, đóng kín gói bánh còn lại để bảo quản được lâu hơn.&lt;/li&gt; &lt;li&gt;Ngâm bánh với nước ấm hoặc sữa để bánh mềm hơn, cho bé ăn lượng bánh vừa đủ tránh bị nghẹn.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h3 style="font-family: 'Source Sans Pro', -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol'; color: #212529; text-align: justify;"&gt;&lt;span&gt;Hướng dẫn bảo quản&lt;/span&gt;&lt;/h3&gt;
+   &lt;ul&gt; &lt;li&gt;Nơi thoáng mát, tránh ánh sáng trực tiếp.&lt;/li&gt; &lt;li&gt;Không bảo quản nơi có độ ẩm cao, đặc biệt sau khi bóc vỏ.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;p&gt;Sản phẩm được nhập khẩu trực tiếp từ Nhật Bản, được bầy bán tại siêu thị SAKUKO trên toàn quốc, hoặc bạn có thể đặt hàng trực tiếp tại Website và nhận hàng tại nhà.&lt;/p&gt;
+   &lt;div&gt;
+   &lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1052911556</v>
+      </c>
+      <c r="B7" t="str">
+        <v>https://sakukostore.com.vn/products/arau-baby-sua-tam-goi-thao-moc-dung-am-tui-400ml-2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ARAU BABY- SỮA TẮM GỘI THẢO MỘC DƯỠNG ẨM TÚI 400ML</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Sữa tắm Arau</v>
+      </c>
+      <c r="E7">
+        <v>89</v>
+      </c>
+      <c r="F7" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G7" t="str">
+        <v>121531</v>
+      </c>
+      <c r="H7" t="str">
+        <v>4973512259135</v>
+      </c>
+      <c r="I7" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973512259135_9756f65b22a6452e87818e7de272fc95.png</v>
+      </c>
+      <c r="J7" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973512259135_9756f65b22a6452e87818e7de272fc95.png</v>
+      </c>
+      <c r="K7" t="str">
+        <v>ARAU BABY</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Làm sạch bụi bẩn, mồ hôiAn toàn cho da béDưỡng ẩm tự nhiên cho da</v>
+      </c>
+      <c r="M7">
+        <v>16000000</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P7" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;div&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : ARAU BABY- Sữa tắm gội thảo mộc dưỡng ẩm túi 400ml&lt;p&gt;&lt;p&gt;&lt;strong&gt;ĐỊNH LƯỢNG&lt;/strong&gt; : Túi 400ml&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÀNH PHẦN&lt;/strong&gt; : Nước, axit oleic, glycerin, axit myristic, kali hydroxit, chiết xuất candida bombicola thủy phân, axit xitric, dầu hoa oải hương, dầu chanh, chiết xuất lá tía tô, chiết xuất lá lô hội, BG.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Không sử dụng nếu dị ứng với thành phần của sản phẩm ● Không dùng cho khu vực có bị thương, sưng tấy, chàm da,... ● Nếu có dấu hiệu bất thường sau khi sử dụng, vui lòng tham khảo ý kiến bác sĩ y khoa ● Vì thành phần từ tự nhiên nên mùi hương và màu sắc có thể thay đổi theo thời gian. ● Nếu bị dính vào vào mắt, rửa bằng nước sạch.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CÔNG DỤNG&lt;/strong&gt; : Nhẹ nhàng làm sạch da bé. Công thức bọt xà phòng toàn thân dành riêng cho trẻ em, kết hợp cùng chiết xuất thảo mộc an toàn và dịu nhẹ. Thành phần Oleic Acid (Omega 9) tăng cường khả năng làm sạch, bảo vệ và cấp độ ẩm cần thiết cho làn da mỏng manh của trẻ. Sản phẩm không chứa chất phụ gia.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HDSD&lt;/strong&gt; : Lấy 1 lượng thích hợp vào tay hoặc miếng tạo bọt, xoa đều và massage toàn thân bé. Sau đó nhẹ nhàng tắm lại bằng nước sạch.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;BẢO QUẢN&lt;/strong&gt; : Nơi khô ráo, thoáng mát. Để xa tầm tay trẻ em.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Tokyo Saraya Co.,Ltd, 1-25-8 Higashishinagawa, Shinagawa-ku 140-0002, Nhật Bản.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Nhật Bản.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4973512258794&lt;/p&gt;&lt;p&gt;&lt;strong&gt;SỐ LÔ VÀ NSX&lt;/strong&gt; : In trên bao bì sản phẩm&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HSD&lt;/strong&gt; : 3 năm từ ngày sản xuất.&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8">
+        <v>1052911541</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://sakukostore.com.vn/products/pigeon-binh-sua-mo-phong-tu-nhien-hinh-cay-160ml</v>
+      </c>
+      <c r="C8" t="str">
+        <v>PIGEON- Bình sữa mô phỏng tự nhiên hình cây 160ml</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Bình sữa Pigeon</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G8" t="str">
+        <v>121493</v>
+      </c>
+      <c r="H8" t="str">
+        <v>4902508024563</v>
+      </c>
+      <c r="I8" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b_c3_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml_c071b4ef3b6f4bfc8ba71636ff199dbc.png</v>
+      </c>
+      <c r="J8" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b_c3_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml_c071b4ef3b6f4bfc8ba71636ff199dbc.png,https://product.hstatic.net/200000833669/product/_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml-_3__7b1a6853458148f99cb12a7399d734c3.png,https://product.hstatic.net/200000833669/product/_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml-_2__5b9551836cae4939ade912385cd99056.png</v>
+      </c>
+      <c r="K8" t="str">
+        <v>PIGEON</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Chất liệu và thiết kế an toàn cho sức khỏe của bé.  Núm ti dày và siêu mềm, giúp phát triển cơ hàm của bé  Thiết kế núm vú điều chỉnh áp xuất và điều</v>
+      </c>
+      <c r="M8">
+        <v>39800000</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P8" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : PIGEON- Bình sữa nhựa cổ rộng hình cây 160ml&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;DUNG TÍCH&lt;/strong&gt; : 160ml&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CHẤT LIỆU&lt;/strong&gt; : Polypropylene, PPSU, silicone rubber.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Khả năng chịu nhiệt 120 độ C. Có thể khử trùng bằng nước sôi, lò vi sóng, dung dịch rửa chuyên dụng. Sau khi sử dụng, vệ sinh bằng bàn chải và hóa chất chuyên dụng. &lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Pigeon Co.,Ltd, 103-8480 Nihonbashi, Chuo-ku, Tokyo, Nhật Bản&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Thái Lan&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4902508024563&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9">
+        <v>1052911536</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://sakukostore.com.vn/products/pigeon-binh-sua-mo-phong-tu-nhien-hinh-gau-160ml</v>
+      </c>
+      <c r="C9" t="str">
+        <v>PIGEON- Bình sữa mô phỏng tự nhiên hình gấu 160ml</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Bình sữa Pigeon</v>
+      </c>
+      <c r="E9">
+        <v>58</v>
+      </c>
+      <c r="F9" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G9" t="str">
+        <v>121492</v>
+      </c>
+      <c r="H9" t="str">
+        <v>4902508024525</v>
+      </c>
+      <c r="I9" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b4-ph_e1_bb_8fng-t_e1_bb_b1-nhi_c3_aan-h_c3_acnh-g_e1_ba_a5u-160ml-_2__fd0bdfa242fd452c8b04bbf8a178ca3f.png</v>
+      </c>
+      <c r="J9" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b4-ph_e1_bb_8fng-t_e1_bb_b1-nhi_c3_aan-h_c3_acnh-g_e1_ba_a5u-160ml-_2__fd0bdfa242fd452c8b04bbf8a178ca3f.png,https://product.hstatic.net/200000833669/product/_c3_b4-ph_e1_bb_8fng-t_e1_bb_b1-nhi_c3_aan-h_c3_acnh-g_e1_ba_a5u-160ml_12fa508965a4499aba66cd8e57d47be0.png</v>
+      </c>
+      <c r="K9" t="str">
+        <v>PIGEON</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Chất liệu và thiết kế an toàn cho sức khỏe của bé.  Núm ti dày và siêu mềm, giúp phát triển cơ hàm của bé  Thiết kế núm vú điều chỉnh áp xuất và điều</v>
+      </c>
+      <c r="M9">
+        <v>39800000</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P9" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : PIGEON- Bình sữa nhựa cổ rộng hình gấu 160ml&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;DUNG TÍCH&lt;/strong&gt; : 160ml&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CHẤT LIỆU&lt;/strong&gt; : Polypropylene, PPSU, silicone rubber.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Khả năng chịu nhiệt 120 độ C. Có thể khử trùng bằng nước sôi, lò vi sóng, dung dịch rửa chuyên dụng. Sau khi sử dụng, vệ sinh bằng bàn chải và hóa chất chuyên dụng. &lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Pigeon Co.,Ltd, 103-8480 Nihonbashi, Chuo-ku, Tokyo, Nhật Bản&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Thái Lan&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4902508024525&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10">
+        <v>1052915892</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://sakukostore.com.vn/products/skater-ban-chai-rang-totoro-cho-be-3-5-tuoi-3pcs</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SKATER- Bàn chải răng Totoro cho bé 3-5 tuổi 3pcs</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Bàn chải Skater</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G10" t="str">
+        <v>121443</v>
+      </c>
+      <c r="H10" t="str">
+        <v>4973307419881</v>
+      </c>
+      <c r="I10" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307419881_d8495a455a854802bc6a82d88010e16f.png</v>
+      </c>
+      <c r="J10" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307419881_d8495a455a854802bc6a82d88010e16f.png</v>
+      </c>
+      <c r="K10" t="str">
+        <v>SKATER</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Thiết kế nhỏ vừa khuôn miệng bé 3-5 tuổi  Bàn chải lông mềm, an toàn cho nướu  Họa tiết đáng yêu</v>
+      </c>
+      <c r="M10">
+        <v>13000000</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P10" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Bàn chải răng Totoro được thiết kế đặc biệt dành cho bé từ 3 -5 tuổi&lt;/strong&gt; với đầu bàn chải nhỏ, lông mềm, dễ dàng làm sạch răng miệng. Với họa tiết totoro xinh xắn, đáng yêu, bàn chải răng tạo sự thích thú cho trẻ vệ sinh răng miệng hàng ngày.&lt;/p&gt;
+   &lt;h2&gt;CHẤT LIỆU&lt;/h2&gt;
+   &lt;p&gt;Polypropylene, Nylon&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Set 3 chiếc.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/c3_a0n-ch_e1_ba_a3i-r_c4_83ng-totoro-cho-b_c3_a9-3-5-tu_e1_bb_95i-3pcs_1a8fdf229e1a42c3a62c13802d1ecc86.png" alt="SKATER- Bàn chải răng Totoro cho bé 3-5 tuổi 3pcs" title="SKATER- Bàn chải răng Totoro cho bé 3-5 tuổi 3pcs"&gt;&lt;br&gt;
+   Set 3 chiếc bàn chải răng cho bé từ 3 - 5 tuổi&lt;/p&gt;
+   &lt;h2&gt;ĐỐI TƯỢNG SỬ DỤNG&lt;/h2&gt;
+   &lt;p&gt;Bé giai đoạn răng sữa, từ 3-5 tuổi&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Thiết kế nhỏ vừa khuôn miệng bé 3 -5 tuổi&lt;/h3&gt;
+   &lt;p&gt;Thiết kế phần chải răng nhỏ, phù hợp với khuôn miệng bé từ 3-5 tuổi, giúp bé vệ sinh răng miệng dễ dàng.&amp;nbsp;&lt;/p&gt;
+   &lt;h3&gt;Bàn chải lông mềm, an toàn cho nướu của bé&lt;/h3&gt;
+   &lt;p&gt;Lông bàn chải mềm, dịu nhẹ và không gây đau nướu.&lt;/p&gt;
+   &lt;h3&gt;Họa tiết đáng yêu&lt;/h3&gt;
+   &lt;p&gt;Họa tiết Totoro đáng yêu, 3 chiếc với 3 màu sắc xinh xắn, tạo sự thích thú cho bé mỗi lần vệ sinh răng miệng.&amp;nbsp;&lt;/p&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;Sản phẩm đến từ thương hiệu Skater Co.,Ltd; 216-1 Karamomocho, Nara-shi, Nara 630-8454, Nhật Bản. Skater được thành lập từ năm 1938, trụ sở chính đặt tại thành phố Nara với khởi nguồn là sản xuất và kinh doanh bút máy. Sau đó công ty phát triển lĩnh vực đồ gia dụng nhựa. Một trong những sản phẩm tiêu biểu của Skater là dụng cụ nấu ăn, bàn chải cho bé, cốc đựng cà phê, bình nhựa,...&amp;nbsp;&amp;nbsp;&lt;br&gt;
+   &lt;strong&gt;Bàn chải răng Totoro cho bé 3-5 tuổi &lt;/strong&gt;hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11">
+        <v>1052915899</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://sakukostore.com.vn/products/skater-ban-chai-hello-kitty-612-tuoi-3-chiec</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SKATER- Bàn chải Hello Kitty 6~12 tuổi (3 chiếc)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Bàn chải Skater</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G11" t="str">
+        <v>175358</v>
+      </c>
+      <c r="H11" t="str">
+        <v>4973307464188</v>
+      </c>
+      <c r="I11" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307464188-1_e50ea5e95a32472bb38ad0ab5923c006.jpg</v>
+      </c>
+      <c r="J11" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307464188-1_e50ea5e95a32472bb38ad0ab5923c006.jpg,https://product.hstatic.net/200000833669/product/4973307464188-2_d35449d1ae384b79a796f22deb7aa0bb.jpg</v>
+      </c>
+      <c r="K11" t="str">
+        <v>SKATER</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Thiết kế phù hợp cho trẻ từ 6-12 tuổi  Làm sạch, ngừa sâu răng  Chất liệu cao cấp, an toàn cho bé</v>
+      </c>
+      <c r="M11">
+        <v>13000000</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P11" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Set bàn chải răng cho bé hình Hello Kitty từ 6-12 tuổi &lt;/strong&gt;với thiết kế ngộ nghĩnh, họa tiết bắt mắt giúp các bé thích thú khi vệ sinh răng miệng, cho bé hàm răng chắc khỏe&lt;/p&gt;
+   &lt;h2&gt;Chất liệu sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Polypropylene, nylon&lt;br&gt;
+   Quy cách đóng gói sản phẩmSet 3 chiếc&lt;/p&gt;
+   &lt;h2&gt;Công dụng sản phẩm&lt;/h2&gt;
+   &lt;h3&gt;Thiết kế phù hợp cho bé từ 6-12 tuổi&lt;/h3&gt;
+   &lt;p&gt;Đầu bàn chải được thế thuôn, nhỏ, phù hợp với khoang miệng bé từ 6-12 tuổi, giúp bé dễ dàng vệ sinh khoang miệng.&lt;br&gt;
+   Họa tiết táo đỏ và Hello Kitty ngộ nghĩnh, đáng yêu mang lại cảm giác thích thú, vui vẻ cho các bé khi vệ sinh răng miệng.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/c4_83ng-cho-b_c3_a9-h_c3_acnh-hello-kitty-t_e1_bb_ab-6-12-tu_e1_bb_95i_65e384d0fa734368a93eea4f8d2ab215.jpg" alt="bàn chải răng" title="bàn chải răng"&gt;&lt;/p&gt;
+   &lt;h3&gt;Làm sạch, ngăn ngừa sâu răng&lt;/h3&gt;
+   &lt;p&gt;Lông bàn chải được thiết kế từ sợi nylon mảnh, mềm giúp dễ dàng chải sạch thức ăn thừa trong các kẽ chân răng, làm sạch răng hiệu quả.&lt;br&gt;
+   Lớp lông bàn chải mềm ngăn chặn sự phát triển của vi khuẩn gây sâu răng mà không làm tổn thương lợi, nướu, ngăn ngừa viêm nướu lợi và sâu răng.&lt;/p&gt;
+   &lt;h3&gt;Chất liệu cao cấp, an toàn cho bé&lt;/h3&gt;
+   &lt;p&gt;Chất liệu sản phẩm luôn là ưu tiên hàng đầu mà nhãn hàng Skater đề ra khi sản xuất bất cứ sản phẩm sản phẩm nào cho khách hàng. Bởi vậy set bàn chải răng cho bé hình Hello Kitty từ 6-12 với nguồn nguyên liệu cao cấp qua các bước kiểm tra nghiêm ngặt đảm bảo độ an toàn tuyệt đối cho người sử dụng.&lt;/p&gt;
+   &lt;h2&gt;Đối tượng sử dụng&lt;/h2&gt;
+   &lt;p&gt;Sản phẩm được sử dụng cho các bé giai đoạn thay răng từ 6-12 tuổi.&lt;/p&gt;
+   &lt;h2&gt;Lưu ý&lt;/h2&gt;
+   &lt;p&gt;Khi cho trẻ sử dụng, nên có người lớn hướng dẫn để trẻ sử dụng đúng cách.&lt;/p&gt;
+   &lt;h2&gt;Thương hiệu sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Sản phẩm được sản xuất bởi công ty Skater Co.,Ltd; 216-1 Karamomocho, Nara-shi, Nara 630-8454, Nhật Bản.&amp;nbsp;&lt;br&gt;
+   Bạn đang tìm kiếm một loại bàn chải phù hợp cho bé nhà mình mà không gây hại nướu cho bé?. Mời bạn thử ngay &lt;strong&gt;Set bàn chải răng cho bé hình Hello Kitty từ 6-12 tuổi của Skater&lt;/strong&gt; đến từ Nhật Bản. Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12">
+        <v>1052915891</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://sakukostore.com.vn/products/skater-set-ban-chai-cong-chua-3c</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SKATER- Set bàn chải công chúa (3c)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Bàn chải Skater</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G12" t="str">
+        <v>121475</v>
+      </c>
+      <c r="H12" t="str">
+        <v>4973307490606</v>
+      </c>
+      <c r="I12" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307490606_31d5b0437bb8449495fb7abb65bdb1f1.png</v>
+      </c>
+      <c r="J12" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307490606_31d5b0437bb8449495fb7abb65bdb1f1.png</v>
+      </c>
+      <c r="K12" t="str">
+        <v>SKATER</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Thiết kế phần chải răng nhỏ  Lông bàn chải mềm  Họa tiết nữ hoàng tuyết đáng yêu</v>
+      </c>
+      <c r="M12">
+        <v>13000000</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P12" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Set bàn chải răng cho bé hình nữ hoàng tuyết (3 chiếc)&lt;/strong&gt; có thiết kế vừa vặn với khuôn miệng của trẻ từ 3 - 5 tuổi, lông bàn chải mềm, không gây đau nướu. Họa tiết công chúa sinh động giúp bé có hứng thú với việc vệ sinh răng miệng.&lt;/p&gt;
+   &lt;h2&gt;CHẤT LIỆU&lt;/h2&gt;
+   &lt;p&gt;Polypropylen, nylon&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Set 3 chiếc&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Thiết kế phần chải răng nhỏ&lt;/h3&gt;
+   &lt;p&gt;Thiết kế phần chải răng nhỏ, phù hợp với khuôn miệng bé từ 3-5 tuổi, giúp bé vệ sinh răng miệng dễ dàng.&amp;nbsp;&lt;/p&gt;
+   &lt;h3&gt;Lông bàn chải mềm&lt;/h3&gt;
+   &lt;p&gt;Lông bàn chải mềm, không gây đau nướu, giúp bé vệ sinh răng an toàn.&lt;/p&gt;
+   &lt;h3&gt;Họa tiết nữ hoàng tuyết đáng yêu&lt;/h3&gt;
+   &lt;p&gt;Họa tiết hoạt hình nữ hoàng tuyết sinh động, đáng yêu, tạo hứng thú cho bé mỗi khi vệ sinh răng miệng.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/skater--set-b_c3_a0n-ch_e1_ba_a3i-c_c3_b4ng-ch_c3_baa-_3c__616bd2d21c55416697c24e5998196dd5.jpg" alt="SKATER- Set bàn chải công chúa (3c)" title="SKATER- Set bàn chải công chúa (3c)"&gt;&lt;br&gt;
+   Bộ 3 chiếc bàn chải răng cho bé từ 3 - 5 tuổi hình nữ hoàng tuyết đáng yêu&lt;/p&gt;
+   &lt;h2&gt;ĐỐI TƯỢNG SỬ DỤNG&lt;/h2&gt;
+   &lt;p&gt;Cho bé giai đoạn răng sữa, từ 3 - 5 tuổi.&lt;/p&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;Set bàn chải răng cho bé hình nữ hoàng tuyết được sản xuất bởi công ty Skater Co.,Ltd; 216-1 Karamomocho, Nara-shi, Nara 630-8454, Nhật Bản. Với hơn 70 năm kinh nghiệm trong lĩnh vực sản xuất và kinh doanh sản phẩm chăm sóc răng miệng, SKATER được biết đến là công ty hàng đầu trong việc cung cấp các sản phẩm bàn chải.&amp;nbsp;&lt;br&gt;
+   Các sản phẩm của SKATER luôn sử dụng những chất liệu thân thiện với môi trường, an toàn cho sức khỏe, đồng thời đáp ứng tốt nhất nhu cầu sử dụng của khách hàng.&lt;br&gt;
+   &lt;strong&gt;Set bàn chải răng cho bé hình nữ hoàng tuyết&lt;/strong&gt; hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1052904612</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://sakukostore.com.vn/products/chuchu-binh-sua-thuy-tinh-co-rong-160ml</v>
+      </c>
+      <c r="C13" t="str">
+        <v>CHUCHU- Bình sữa thủy tinh cổ rộng 160ml</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Bình sữa Chuchu</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>deny</v>
+      </c>
+      <c r="G13" t="str">
+        <v>120131</v>
+      </c>
+      <c r="H13" t="str">
+        <v>4973210994451</v>
+      </c>
+      <c r="I13" t="str">
+        <v>https://product.hstatic.net/200000833669/product/upload_b99dbbc653884970a15d6f76bc3ac668_master_0887d721f5424c369bc5a3d44392d5b8.jpg</v>
+      </c>
+      <c r="J13" t="str">
+        <v>https://product.hstatic.net/200000833669/product/upload_b99dbbc653884970a15d6f76bc3ac668_master_0887d721f5424c369bc5a3d44392d5b8.jpg</v>
+      </c>
+      <c r="K13" t="str">
+        <v>CHUCHU</v>
+      </c>
+      <c r="L13" t="str">
+        <v>- Thiết kế bình cổ rộng giúp cho việc pha sữa và vệ sinh bình được dễ dàng. - Bình sữa thủy tinh Chuchu G-160ml là dòng sản phẩm cao cấp của</v>
+      </c>
+      <c r="M13">
+        <v>40800000</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P13" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;&lt;strong&gt;TÌNH TRẠNG: HẾT HÀNG&lt;/strong&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;div&gt;&lt;p&gt;&lt;strong&gt;Xuất xứ&lt;/strong&gt;: Nhật Bản&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Hãng sản xuất&lt;/strong&gt;: Chuchu&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Thể tích: 160ml&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mã vạch&lt;/strong&gt;: 4973210994451&lt;/p&gt;&lt;div&gt;&lt;div&gt;&lt;p&gt;&lt;strong&gt;Đặc điểm sản phẩm bình sữa cổ rộng chuchu baby 160ml thuỷ tinh&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;+ Núm vú chuchubaby làm bằng Silicon, bình bằng thủy tinh, bé cầm dễ dàng mà không lo bị vỡ. Nắp đậy bằng polypropylen. Dù đổ cũng không sợ sữa tràn ra ngoài.&lt;/p&gt;&lt;p&gt;+ Thiết kế bình cổ rộng: Bình cổ rộng giúp cho việc pha sữa và vệ sinh bình được dễ dàng. Bình sữa thủy tinh Chuchu G-160ml là dòng sản phẩm cao cấp của chuchubaby, rất tiện sử dụng&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Chú ý sử dụng:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Trước khi sử dụng nên làm sạch bình sữa bằng các sản phẩm chuyên dùng.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Sau khi sử dụng nhanh chóng làm sạch bình sữa, chú ý làm sạch phần dẫn khí, hạn chế nguyên nhân gây nghẽn bình. Nhẹ nhàng khi rửa núm vú vì có thể làm rách núm vú.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÔNG TIN THƯƠNG HIỆU&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Chuchu là nhãn hiệu chất lượng hàng đầu tại Nhật Bản về các sản phẩm chăm sóc bé, bình sữa, núm ti, giúp bố mẹ an tâm hơn trong việc chăm sóc bé. Đây là thương hiệu nhận được sự tin tưởng của nhiều bà mẹ trên thế giới. Với các sản phẩm chủ yếu là dụng cụ ăn uống, bú sữa, và sản phẩm chăm sóc da dành cho bé, Chuchu Baby mang lại cho mẹ sự an tâm tuyệt đối trong việc chăm sóc con cái, và cho bé yêu sự an toàn về sức khỏe, giúp bé khỏe mạnh và phát triển toàn diện hơn.&lt;/p&gt;&lt;p&gt;Tất cả các sản phẩm của bình sữa Chuchu Baby đều được trải qua quy trình kiểm nghiệm rất nghiêm ngặt của Bộ Y tế Nhật Bản. Tại Chuchu, luôn có một đội ngũ bác sĩ và các chuyên gia về sức khỏe trẻ em hàng đầu làm việc và nghiên cứu những sản phẩm tốt nhất dành cho bé yêu trên khắp thế giới.&lt;/p&gt;&lt;p&gt;Sản phẩm được sản xuất tại Nhật Bản. &amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P13"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2">
+        <v>1052903934</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/ikimoto-bot-uong-canxi-kids-miruka-socola-30-goi</v>
+      </c>
+      <c r="C2" t="str">
+        <v>IKIMOTO- TPBS bột uống canxi Kids Miruka 30 gói</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Thực phẩm chức năng cho bé</v>
+      </c>
+      <c r="E2">
+        <v>3454</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>121519</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4595121193022</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/2_8c2f9451eb4347d0807634ffca259ba2.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/2_8c2f9451eb4347d0807634ffca259ba2.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>IKIMOTO</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Chứa Canxi sữa siêu hấp thụ thúc đẩy chiều cao  Nguồn Vitamin, khoáng chất dồi dào, quan trọng cho bé  Tăng cường hệ miễn dịch, sức đề kháng.  Đảm</v>
+      </c>
+      <c r="M2">
+        <v>21300000</v>
+      </c>
+      <c r="N2">
+        <v>48000000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>55.625%</v>
+      </c>
+      <c r="P2" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Thực phẩm bổ sung bột uống canxi Kids Miruka&lt;/strong&gt; có thành phần chính là canxi sữa, bột ca cao, cung cấp vitamin D, canxi, magie, bcaa và dinh dưỡng cho trẻ. Sản phẩm giúp tăng cường hệ miễn dịch, củng cố hệ xương và răng chắc khỏe phòng chống còi xương, suy dinh dưỡng ở trẻ nhỏ. Sản phẩm dạng bột có thể ăn trực tiếp hoặc pha với nước lọc, hương vị thơm ngon.&lt;/p&gt;
+   &lt;h2&gt;THÀNH PHẦN&lt;/h2&gt;
+   &lt;p&gt;Maltitol (sản xuất tại Nhật Bản), canxi sữa (chứa thành phần sữa), bột ca cao/L-leucine, magie oxit, L-valine, L-isoleucine, chất tạo màu (caramel), chất làm đặc (pullulan), hương liệu, chất tạo ngọt (stevia) , vitamin D.&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Hộp 30 gói&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Bổ sung Vitamin, khoáng chất cho trẻ, đặc biệt là Canxi.&lt;/h3&gt;
+   &lt;ul&gt; &lt;li&gt;Bột uống Kids Miruka chứa thành phần chính là canxi sữa, được tách ra từ sữa bò nguyên chất bằng phương pháp kết tủa và sấy khô. Theo nghiên cứu, canxi sữa có khả năng hấp thu cao nhất, giúp cung cấp canxi cho cơ thể, thúc đẩy hình thành hệ xương khớp, xương chắc khỏe, dẻo dài và nhanh dài. Từ đó hỗ trợ phát triển chiều cao tự nhiên cho bé.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Ngoài ra, L-valine trong sản phẩm là 1 loại axit amin thiết yếu có tác dụng tăng cường sức mạnh, kích thích ăn ngon miệng, hỗ trợ điều trị chứng chán ăn hiệu quả.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h3&gt;Đảm bảo sự phát triển toàn diện của mô, cơ, xương.&lt;/h3&gt;
+   &lt;p&gt;Canxi ,vitamin D, magie, bcaa trong sản phẩm hỗ trợ cho trẻ bồi dưỡng hệ xương và răng chắc khỏe. Vitamin D, magie giúp cơ thể hấp thụ canxi, phosphate từ ruột và làm chắc xương, ngăn ngừa còi xương, loãng xương. Canxi, bcaa giúp trẻ phát triển thể hình tốt, nhanh mọc răng, ngăn ngừa sâu răng và các bệnh nha chu.&lt;/p&gt;
+   &lt;h3&gt;Tăng cường sức đề kháng&lt;/h3&gt;
+   &lt;p&gt;Với công dụng kích thích ăn ngon miệng, hấp thu chất dinh dưỡng tốt hơn, bổ sung canxi, khoáng chất và L-valine, bột uống Kids Miruka hỗ trợ rất hiệu quả cho hoạt động của hệ miễn dịch, tăng cường sức đề kháng cho trẻ nhỏ.&amp;nbsp;&lt;/p&gt;
+   &lt;h2&gt;HƯỚNG DẪN SỬ DỤNG&lt;/h2&gt;
+   &lt;p&gt;Pha 1 gói với nước lọc hoặc nước ấm và uống, hoặc có thể ăn trực tiếp.&lt;/p&gt;
+   &lt;h2&gt;LƯU Ý&amp;nbsp;&lt;/h2&gt;
+   &lt;p&gt;Thực phẩm này không phải là thuốc, không có tác dụng thay thế thuốc chữa bệnh. Không dành cho đối tượng bị dị ứng với chế phẩm từ sữa bò.&lt;/p&gt;
+   &lt;h2&gt;BẢO QUẢN&lt;/h2&gt;
+   &lt;p&gt;Nơi khô ráo thoáng mát, tránh ánh nắng trực tiếp.&lt;/p&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;&lt;span&gt;Thực phẩm bổ sung bột uống canxi Kids Miruka&lt;/span&gt;&amp;nbsp;là sản phẩm đến từ thương hiệu BIZM Co.,LTD; 4-39-10-1105 Narita Higashi, Suginami-ku, Tokyo, Nhật Bản. BIZM là công ty dược phẩm hàng đầu Nhật Bản, nhà máy sản xuất của công ty được đặt tại tỉnh Shizuoka, đạt chuẩn GMP "Good Manufacturing Practices”. IKIMOTO - thương hiệu độc quyền được phân phối bởi Sakuko hệ thống cửa hàng chuyên phân phối các sản phẩm thực phẩm chức năng, thực phẩm bảo vệ sức khỏe Nhật Bản.&lt;br&gt;
+   &lt;strong&gt;&lt;span&gt;Thực phẩm bổ sung bột uống canxi Kids Miruka&lt;/span&gt;&lt;/strong&gt; hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3">
+        <v>1052903642</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://sakukostore.com.vn/products/anyzoo-bim-dan-nb-86-mieng</v>
+      </c>
+      <c r="C3" t="str">
+        <v>ANYZOO- Bỉm dán Premium size SS 86 miếng</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Bỉm Anyzoo</v>
+      </c>
+      <c r="E3">
+        <v>331</v>
+      </c>
+      <c r="F3" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G3" t="str">
+        <v>220054</v>
+      </c>
+      <c r="H3" t="str">
+        <v>4580784261317</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/anyzoo--bim-dan-premium-size-nb-86_d3f612cadf8c4e7dbb44bb5eff6da2a0.png</v>
+      </c>
+      <c r="J3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/anyzoo--bim-dan-premium-size-nb-86_d3f612cadf8c4e7dbb44bb5eff6da2a0.png,https://product.hstatic.net/200000833669/product/zoo--bim-dan-premium-size-s-80m_958bcbd8908a4a4183b4cd3d1acc2677_large_44eb4e14a8d94e4ab275bc4aecfeb395.png,https://product.hstatic.net/200000833669/product/zoo--bim-dan-premium-size-m-64m_8fa3d1e0a8a54f38a97acbe4d6ecd0d3_large_8267fbc249e9483aa21fa672093d6be7.png</v>
+      </c>
+      <c r="K3" t="str">
+        <v>ANYZOO</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Mỏng nhẹ, độ dày bỉm chưa tới 2mm  Đệm lưng từ sợi siêu mịn 1.5D mềm mại  Thấm nhanh, thoáng khí, chống trào ngược  Ngăn ngừa hăm da, mẩn đỏ  Vạch</v>
+      </c>
+      <c r="M3">
+        <v>26900000</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P3" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;ANYZOO- Bỉm tã cho bé&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CHẤT LIỆU&lt;/strong&gt; : Bông cotton 100%, hạt thấm hút SAP Sumitomo&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;QUY CÁCH&lt;/strong&gt; : Loại bỉm, cân nặng phù hợp, size, số miếng&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CÔNG DỤNG&lt;/strong&gt; : Bỉm Anyzoo với 4 đặc tính được cấp bằng sáng chế&lt;/p&gt;
+   &lt;p&gt;HDSD (Đối với bỉm tã dán)&lt;/p&gt;
+   &lt;p&gt;- Mở bỉm, nhẹ nhàng đặt bỉm xuống dưới mông bé.&lt;/p&gt;
+   &lt;p&gt;- Đảm bảo 2 vách chống tràn bên trong che phủ toàn bộ mông bé.&lt;/p&gt;
+   &lt;p&gt;- Ấn cạnh của bỉm xuống và kéo miếng băng dán qua, chỉnh cân đối 2 bên trước khi dán lại.&lt;/p&gt;
+   &lt;p&gt;- Ấn nhẹ miếng dán chắc chắn để cố định bỉm.&lt;/p&gt;
+   &lt;p&gt;- Điều chỉnh vách thun chống tràn 2 bên đùi sao cho ôm vừa vặn đùi bé để ngăn tràn.&lt;/p&gt;
+   &lt;p&gt;- Sau khi sử dụng, cuộn bỉm gọn lại và dán cố định bằng băng dính bỉm trước khi vứt.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;LƯU Ý&lt;/strong&gt; : Nên sử dụng sớm sau khi mở bao bì. Nên sử dụng bỉm trong vòng 3 năm kể từ ngày sản xuất.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;BẢO QUẢN&lt;/strong&gt; : Nơi khô thoáng, tránh ẩm ướt. &lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;Ngày SX&lt;/strong&gt; : Xem trên bao bì sản phẩm.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Koun Shouji Co., Ltd; 4-8-1 Hatchobori, Chuo-ku, Tokyo, Nhật Bản&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : SX tại Trung Quốc theo công nghệ Nhật Bản và giám sát chất lượng bởi chuyên gia Nhật Bản.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1052915807</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://sakukostore.com.vn/products/kao-ban-chai-clear-clean-cho-tre-tu-02-tuoi</v>
+      </c>
+      <c r="C4" t="str">
+        <v>KAO- Bàn chải Clear Clean cho trẻ từ 0~3 tuối</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Bàn chải Kao</v>
+      </c>
+      <c r="E4">
+        <v>234</v>
+      </c>
+      <c r="F4" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G4" t="str">
+        <v>120015</v>
+      </c>
+      <c r="H4" t="str">
+        <v>4901301281661</v>
+      </c>
+      <c r="I4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/kao-ban-chai-clear-clean-cho-tre-tu-0_2-tuoi-4901301281661-1_1d8aaf4c7024475aaa180fae433b151e.jpg</v>
+      </c>
+      <c r="J4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/kao-ban-chai-clear-clean-cho-tre-tu-0_2-tuoi-4901301281661-1_1d8aaf4c7024475aaa180fae433b151e.jpg,https://product.hstatic.net/200000833669/product/kao-ban-chai-clear-clean-cho-tre-tu-0_2-tuoi-4901301281661-2_83e7b76c166945a680edb52a249e117f.jpg</v>
+      </c>
+      <c r="K4" t="str">
+        <v>KAO</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Phù hợp với trẻ trong giai đoạn mọc răng sữa, giúp bé hình thành thói quen vệ sinh răng miệng ngay khi còn nhỏ.Chất liệu cao cấp, không chứa</v>
+      </c>
+      <c r="M4">
+        <v>9000000</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P4" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;div&gt; &lt;p&gt;&lt;span&gt;&lt;strong&gt;Xuất xứ:&lt;/strong&gt;&amp;nbsp;Nhật Bản&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Hãng sản xuất:&amp;nbsp;&lt;/strong&gt;KAO&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Quy cách sản phẩm:&lt;/strong&gt; Bộ sản phẩm gồm 2 chiếc&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mã vạch:&lt;/strong&gt;&amp;nbsp;4901301281661&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Chất liệu:&lt;/strong&gt; Sợi bàn chải làm từ nylon, phần cán bàn chải làm từ polypropylene và cao su EPDM.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Nhiệt độ chịu nhiệt:&lt;/strong&gt; 80 độ C&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Đối tượng sử dụng:&lt;/strong&gt; Dành cho bé từ 0-2 tuổi, đang trong giai đoạn mọc răng sữa&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Trong những giai đoạn mọc răng sữa, ba mẹ có thể đánh răng và hình thành cho bé thói quen vệ sinh răng miệng ngay từ những năm tháng đầu đời.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Bàn chải Clear Clean cho trẻ từ 0~2 tuối - Kao&lt;/strong&gt; là sản phẩm đến từ Nhật Bản, được các bậc cha mẹ trên toàn cầu tin chọn và sử dụng cho bé yêu. Trong bộ sản phẩm có 2 sản phẩm phù hợp với từng giai đoạn mọc răng của bé:&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Bàn chải dành cho bước 1&lt;/i&gt;&lt;/b&gt;&lt;span&gt; (bé trên 6 tháng tuổi với 2-3 răng sữa): Sản phẩm được thiết kế để cho bé dần thích ứng và làm quen với việc cầm bàn chải. Miếng chắn ngay ở tay cầm giúp bé dễ cầm nắm, không bị trơn trượt. Phần đầu bàn chải là cao xu mềm mại, đàn hồi, êm dịu nhẹ nhàng với nướu răng và lớp niêm mạc nhạy cảm của bé.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;&lt;i&gt;Bàn chải dành cho bước 2&lt;/i&gt;&lt;/b&gt;&lt;span&gt; (bé trên 8 tháng với 8-10 răng sữa): Sản phẩm được thiết kế để hỗ trợ bé chuyển đổi quá trình từ trải nướu sang đánh răng. Bàn chải có sợi nylo mềm, giúp bé có thể đánh răng hoàn chỉnh như người lớn, dần hình thành thói quen vệ sinh răng miệng cho trẻ ngay từ những tháng đầu đời.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/4901301281661-1_045737a30c804ec789830bc9e3232031_grande_db37b448e60841038b1b2f6a2af10007.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;Bàn chải Clear Clean cho trẻ từ 0-2 tuối Kao&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;strong&gt;Bàn chải Clear Clean cho trẻ từ 0-2 tuổi&lt;/strong&gt; là sản phẩm đến từ tập đoàn Kao, được sản xuất trên dây chuyền hiện đại, công nghệ tiên tiến của Nhật, dựa trên những tiêu chuẩn kiểm định khắt khe tại đất nước này. Sản phẩm đã được kiểm nghiệm là an toàn cho sức khỏe của trẻ.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/4901301281661-2_grande_29bc36a37ce4431f8c93bf12efba5d60.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;i&gt;&lt;span&gt;Ba mẹ cần giúp đỡ và để mắt tới trẻ khi đánh răng.&lt;/span&gt;&lt;/i&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Lưu ý&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Trẻ có thể nghịch ngợm và gây ra nhiều tình huống bất ngờ, vì vậy bố mẹ luôn phải để mắt tới trẻ, đảm bảo an toàn cho con. Không được để trẻ tự sử dụng bàn chải.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Không dùng khi đầu bàn chải bị hư hỏng, biến dạng.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Tiệt trùng bàn chải trước khi sử dụng cho bé. Có thể dùng nước sôi hoặc máy tiệt trùng. Không cho vào lò vi sóng để tiệt trung.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Cọ rửa sạch bàn chải ngay sau khi sử dụng xong.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;- Để nơi khô ráo, thoáng mát. Tránh để lâu ngày trong nhà tắm. Điều này có thể khiến vi khuẩn, nấm mốc trú ngụ tại bàn chải.&lt;/span&gt;&lt;/p&gt; &lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5">
+        <v>1052915960</v>
+      </c>
+      <c r="B5" t="str">
+        <v>https://sakukostore.com.vn/products/wakodo-tra-lua-mach-cho-be-hop-08-goi</v>
+      </c>
+      <c r="C5" t="str">
+        <v>WAKODO- Trà lúa mạch cho bé hộp 08 gói</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Trà lúa mạch</v>
+      </c>
+      <c r="E5">
+        <v>173</v>
+      </c>
+      <c r="F5" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G5" t="str">
+        <v>120745</v>
+      </c>
+      <c r="H5" t="str">
+        <v>4987244183903</v>
+      </c>
+      <c r="I5" t="str">
+        <v>https://product.hstatic.net/200000833669/product/wakodo-tra-lua-mach-cho-be-hop-10-goi-4987244183903-1_89fa4823d3c04e79aee11b02217aef0d.jpg</v>
+      </c>
+      <c r="J5" t="str">
+        <v>https://product.hstatic.net/200000833669/product/wakodo-tra-lua-mach-cho-be-hop-10-goi-4987244183903-1_89fa4823d3c04e79aee11b02217aef0d.jpg,https://product.hstatic.net/200000833669/product/wakodo-tra-lua-mach-cho-be-hop-10-goi-4987244183903-2_0a640debd2d540029baafed2be91b00b.jpg</v>
+      </c>
+      <c r="K5" t="str">
+        <v>WAKODO</v>
+      </c>
+      <c r="L5" t="str">
+        <v>Kích thích bé ăn ngon  Hạn chế các bệnh về đường tiêu hóa  Tăng cường hệ miễn dịch  Đóng gói tiện lợi</v>
+      </c>
+      <c r="M5">
+        <v>6900000</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P5" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Trà lúa mạch cho bé 1 tháng Wakodo &lt;/strong&gt;được chiết xuất hoàn toàn từ lúa mạch thiên nhiên, mang đến sản phẩm bổ sung dinh dưỡng tuyệt vời cho quá trình phát triển của bé yêu trong những năm tháng đầu đời.&lt;/p&gt;
+   &lt;h2&gt;Thành phần sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Lúa mạch, chiết xuất lúa mạch, dextrin.&lt;/p&gt;
+   &lt;h2&gt;Công dụng sản phẩm&lt;/h2&gt;
+   &lt;h3&gt;Kích thích bé ăn ngon&lt;/h3&gt;
+   &lt;p&gt;Trà lúa mạch Wakodo chiết xuất từ lúa mạch và dextrin, trong đó dextrin có tác dụng làm tăng giá trị dinh dưỡng các thực phẩm bé nạp vào hằng ngày cùng với hàm lượng enzim phong phú có trong lúa mạch, nhờ đó kích thích bé ăn ngon, mau lớn.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/e1_ba_a1ch-cho-b_c3_a9-1-th_c3_a1ng-_h_e1_bb_99p-1.2g_c3_978-g_c3_b3i__373862c40e104e77b9e5b035e5027739.png" alt="trà lúa mạch" title="trà lúa mạch"&gt;&lt;/p&gt;
+   &lt;h3&gt;Hạn chế các bệnh về đường tiêu hóa&lt;/h3&gt;
+   &lt;p&gt;Dextrin có trong trà lúa mạch Wakodo là nguồn chất xơ hòa tan cao, giúp bé hấp thụ các chất dinh dưỡng tốt hơn, nhuận tràng và phòng ngừa các bệnh về đường tiêu hóa.&lt;/p&gt;
+   &lt;h3&gt;Tăng cường sức đề kháng ở trẻ nhỏ&lt;/h3&gt;
+   &lt;p&gt;Sản phẩm có hương lúa mạch dễ uống, thuận lợi cho việc bổ sung nước, vitamin, khoáng chất cần thiết cho trẻ nhỏ, tăng cường sức đề kháng cho trẻ hằng ngày hoặc mỗi khi vận động nhiều.&lt;/p&gt;
+   &lt;h2&gt;Hướng dẫn sử dụng sản phẩm&lt;/h2&gt;
+   &lt;p&gt;1 gói trà cho khoảng 100ml nước sôi. Khuấy đều và sử dụng khi còn ấm. Ban đầu cho trẻ uống thử từ 1-2 thìa, sau đó tăng dần khi bé đã quen. Lưu ý màu sắc của trà có thể khác nhau là do đặc tính lúa mạch của từng vùng không ảnh hưởng đến chất lượng SP.&lt;/p&gt;
+   &lt;h2&gt;Bảo quản sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Bảo quản nơi khô ráo thoáng mát, tránh ánh nắng trực tiếp.&lt;/p&gt;
+   &lt;h2&gt;Thông tin thương hiệu&lt;/h2&gt;
+   &lt;p&gt;Wakodo là thương hiệu hàng đầu tại Nhật Bản về sữa công thức và thực phẩm dành cho trẻ em. Các sản phẩm của Wakodo luôn có chất lượng đồng nhất, đáp ứng mọi yêu cầu, tiêu chuẩn khắt khe nhất tại Nhật Bản cũng như các khu vực khác trên thế giới.&lt;br&gt;
+   &lt;strong&gt;Trà lúa mạch cho bé 1 tháng Wakodo&lt;/strong&gt; nên được mẹ lựa chọn để bổ sung dinh dưỡng cho quá trình phát triển của con yêu. Hãy tới ngay Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản để được tư vấn thêm về sản phẩm. Chúng tôi hân hạnh được đón tiếp bạn!&lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;
+   &lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6">
+        <v>1052904255</v>
+      </c>
+      <c r="B6" t="str">
+        <v>https://sakukostore.com.vn/products/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g</v>
+      </c>
+      <c r="C6" t="str">
+        <v>PIGEON- Bánh ăn dặm cà rốt và rau bina 6 tháng 25g</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Bánh Pigeon</v>
+      </c>
+      <c r="E6">
+        <v>112</v>
+      </c>
+      <c r="F6" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G6" t="str">
+        <v>174172</v>
+      </c>
+      <c r="H6" t="str">
+        <v>4902508133913</v>
+      </c>
+      <c r="I6" t="str">
+        <v>https://product.hstatic.net/200000833669/product/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g-4902508133913-1_f3fe7c8d1da74a2a9aa0f1da4ae493fb.jpg</v>
+      </c>
+      <c r="J6" t="str">
+        <v>https://product.hstatic.net/200000833669/product/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g-4902508133913-1_f3fe7c8d1da74a2a9aa0f1da4ae493fb.jpg,https://product.hstatic.net/200000833669/product/pigeon-banh-an-dam-ca-rot-va-rau-bina-6-thang-25g-4902508133913-2_10107ad7bfc0459488ea423e543eb50a.jpg</v>
+      </c>
+      <c r="K6" t="str">
+        <v>PIGEON</v>
+      </c>
+      <c r="L6" t="str">
+        <v>Bánh nướng xốp hương vị thơm ngon, cung cấp canxi và vitamin cho xương và răng phát triển.  Thiết kế nhỏ xinh vừa tay trẻ nhỏ, phù hợp cho trẻ từ 6</v>
+      </c>
+      <c r="M6">
+        <v>5500000</v>
+      </c>
+      <c r="N6">
+        <v>6500000</v>
+      </c>
+      <c r="O6" t="str">
+        <v>15.384615384615385%</v>
+      </c>
+      <c r="P6" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;Ở độ tuổi từ 6 tháng bé đã có thể bắt đầu tập ăn dặm, ba mẹ nên tìm hiểu và sử dụng các loại đồ ăn vặt bổ sung dinh dưỡng giúp trẻ phạt triển tốt hơn trong giai đoạn này. Bánh gạo Pegion là dòng sản phẩm nội địa của Nhật Bản, với cấu trúc xốp mềm và hương vị thơm ngon sẽ là lựa chọn hoàn hảo cho bé nhà bạn.&lt;/p&gt;
+   &lt;h3&gt;&lt;strong&gt;Công dụng&lt;/strong&gt;&lt;/h3&gt;
+   &lt;p&gt;&lt;strong&gt;&lt;em&gt;Bánh nhỏ vừa tay trẻ, xốp mềm thơm ngon.&lt;/em&gt;&lt;/strong&gt;&lt;br&gt;
+   Bánh gạo Pegion được nướng hoàn toàn không sử dụng dầu chiên, vừa đảm bảo dinh dưỡng vừa an toàn tuyệt đối cho bé, việc cầm nắm bánh dễ dàng và hương vị hấp dẫn sẽ giúp trẻ ham ăn, kích thích thói quen nhai sớm.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;&lt;em&gt;Thành phần dinh dưỡng từ gạo, rau bina và cà rốt, không sử dụng chất bảo quản.&lt;/em&gt;&lt;/strong&gt;&lt;br&gt;
+   Bánh ăn dặm Pegion giúp cung cấp canxi cho sự phát triển răng và xương cho trẻ, tăng sức đề kháng. Với thành phần không chưa chất bảo quản, sản phẩm được kiểm nghiệm theo tiêu chuẩn Nhật Bản và cam kết an toàn tuyệt đối cho trẻ nhỏ.&lt;/p&gt;
+   &lt;p&gt;&amp;nbsp;&lt;/p&gt;
+   &lt;h3 style="font-family: 'Source Sans Pro', -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol'; color: #212529; text-align: justify;"&gt;&lt;span&gt;Hướng dẫn sử dụng&lt;/span&gt;&lt;/h3&gt;
+   &lt;ul&gt; &lt;li&gt;Dành cho trẻ từ 6 tháng tuổi trở lên.&lt;/li&gt; &lt;li&gt;Bóc và sử dụng ngay, đóng kín gói bánh còn lại để bảo quản được lâu hơn.&lt;/li&gt; &lt;li&gt;Ngâm bánh với nước ấm hoặc sữa để bánh mềm hơn, cho bé ăn lượng bánh vừa đủ tránh bị nghẹn.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h3 style="font-family: 'Source Sans Pro', -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol'; color: #212529; text-align: justify;"&gt;&lt;span&gt;Hướng dẫn bảo quản&lt;/span&gt;&lt;/h3&gt;
+   &lt;ul&gt; &lt;li&gt;Nơi thoáng mát, tránh ánh sáng trực tiếp.&lt;/li&gt; &lt;li&gt;Không bảo quản nơi có độ ẩm cao, đặc biệt sau khi bóc vỏ.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;p&gt;Sản phẩm được nhập khẩu trực tiếp từ Nhật Bản, được bầy bán tại siêu thị SAKUKO trên toàn quốc, hoặc bạn có thể đặt hàng trực tiếp tại Website và nhận hàng tại nhà.&lt;/p&gt;
+   &lt;div&gt;
+   &lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>1052911556</v>
+      </c>
+      <c r="B7" t="str">
+        <v>https://sakukostore.com.vn/products/arau-baby-sua-tam-goi-thao-moc-dung-am-tui-400ml-2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>ARAU BABY- SỮA TẮM GỘI THẢO MỘC DƯỠNG ẨM TÚI 400ML</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Sữa tắm Arau</v>
+      </c>
+      <c r="E7">
+        <v>89</v>
+      </c>
+      <c r="F7" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G7" t="str">
+        <v>121531</v>
+      </c>
+      <c r="H7" t="str">
+        <v>4973512259135</v>
+      </c>
+      <c r="I7" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973512259135_9756f65b22a6452e87818e7de272fc95.png</v>
+      </c>
+      <c r="J7" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973512259135_9756f65b22a6452e87818e7de272fc95.png</v>
+      </c>
+      <c r="K7" t="str">
+        <v>ARAU BABY</v>
+      </c>
+      <c r="L7" t="str">
+        <v>Làm sạch bụi bẩn, mồ hôiAn toàn cho da béDưỡng ẩm tự nhiên cho da</v>
+      </c>
+      <c r="M7">
+        <v>16000000</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P7" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;div&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : ARAU BABY- Sữa tắm gội thảo mộc dưỡng ẩm túi 400ml&lt;p&gt;&lt;p&gt;&lt;strong&gt;ĐỊNH LƯỢNG&lt;/strong&gt; : Túi 400ml&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÀNH PHẦN&lt;/strong&gt; : Nước, axit oleic, glycerin, axit myristic, kali hydroxit, chiết xuất candida bombicola thủy phân, axit xitric, dầu hoa oải hương, dầu chanh, chiết xuất lá tía tô, chiết xuất lá lô hội, BG.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Không sử dụng nếu dị ứng với thành phần của sản phẩm ● Không dùng cho khu vực có bị thương, sưng tấy, chàm da,... ● Nếu có dấu hiệu bất thường sau khi sử dụng, vui lòng tham khảo ý kiến bác sĩ y khoa ● Vì thành phần từ tự nhiên nên mùi hương và màu sắc có thể thay đổi theo thời gian. ● Nếu bị dính vào vào mắt, rửa bằng nước sạch.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CÔNG DỤNG&lt;/strong&gt; : Nhẹ nhàng làm sạch da bé. Công thức bọt xà phòng toàn thân dành riêng cho trẻ em, kết hợp cùng chiết xuất thảo mộc an toàn và dịu nhẹ. Thành phần Oleic Acid (Omega 9) tăng cường khả năng làm sạch, bảo vệ và cấp độ ẩm cần thiết cho làn da mỏng manh của trẻ. Sản phẩm không chứa chất phụ gia.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HDSD&lt;/strong&gt; : Lấy 1 lượng thích hợp vào tay hoặc miếng tạo bọt, xoa đều và massage toàn thân bé. Sau đó nhẹ nhàng tắm lại bằng nước sạch.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;BẢO QUẢN&lt;/strong&gt; : Nơi khô ráo, thoáng mát. Để xa tầm tay trẻ em.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Tokyo Saraya Co.,Ltd, 1-25-8 Higashishinagawa, Shinagawa-ku 140-0002, Nhật Bản.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Nhật Bản.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4973512258794&lt;/p&gt;&lt;p&gt;&lt;strong&gt;SỐ LÔ VÀ NSX&lt;/strong&gt; : In trên bao bì sản phẩm&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HSD&lt;/strong&gt; : 3 năm từ ngày sản xuất.&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8">
+        <v>1052911541</v>
+      </c>
+      <c r="B8" t="str">
+        <v>https://sakukostore.com.vn/products/pigeon-binh-sua-mo-phong-tu-nhien-hinh-cay-160ml</v>
+      </c>
+      <c r="C8" t="str">
+        <v>PIGEON- Bình sữa mô phỏng tự nhiên hình cây 160ml</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Bình sữa Pigeon</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G8" t="str">
+        <v>121493</v>
+      </c>
+      <c r="H8" t="str">
+        <v>4902508024563</v>
+      </c>
+      <c r="I8" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b_c3_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml_c071b4ef3b6f4bfc8ba71636ff199dbc.png</v>
+      </c>
+      <c r="J8" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b_c3_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml_c071b4ef3b6f4bfc8ba71636ff199dbc.png,https://product.hstatic.net/200000833669/product/_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml-_3__7b1a6853458148f99cb12a7399d734c3.png,https://product.hstatic.net/200000833669/product/_acnh-s_e1_bb_afa-c_e1_bb_95-r_e1_bb_99ng-h_c3_acnh-c_c3_a2y-240ml-_2__5b9551836cae4939ade912385cd99056.png</v>
+      </c>
+      <c r="K8" t="str">
+        <v>PIGEON</v>
+      </c>
+      <c r="L8" t="str">
+        <v>Chất liệu và thiết kế an toàn cho sức khỏe của bé.  Núm ti dày và siêu mềm, giúp phát triển cơ hàm của bé  Thiết kế núm vú điều chỉnh áp xuất và điều</v>
+      </c>
+      <c r="M8">
+        <v>39800000</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P8" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : PIGEON- Bình sữa nhựa cổ rộng hình cây 160ml&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;DUNG TÍCH&lt;/strong&gt; : 160ml&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CHẤT LIỆU&lt;/strong&gt; : Polypropylene, PPSU, silicone rubber.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Khả năng chịu nhiệt 120 độ C. Có thể khử trùng bằng nước sôi, lò vi sóng, dung dịch rửa chuyên dụng. Sau khi sử dụng, vệ sinh bằng bàn chải và hóa chất chuyên dụng. &lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Pigeon Co.,Ltd, 103-8480 Nihonbashi, Chuo-ku, Tokyo, Nhật Bản&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Thái Lan&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4902508024563&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9">
+        <v>1052911536</v>
+      </c>
+      <c r="B9" t="str">
+        <v>https://sakukostore.com.vn/products/pigeon-binh-sua-mo-phong-tu-nhien-hinh-gau-160ml</v>
+      </c>
+      <c r="C9" t="str">
+        <v>PIGEON- Bình sữa mô phỏng tự nhiên hình gấu 160ml</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Bình sữa Pigeon</v>
+      </c>
+      <c r="E9">
+        <v>58</v>
+      </c>
+      <c r="F9" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G9" t="str">
+        <v>121492</v>
+      </c>
+      <c r="H9" t="str">
+        <v>4902508024525</v>
+      </c>
+      <c r="I9" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b4-ph_e1_bb_8fng-t_e1_bb_b1-nhi_c3_aan-h_c3_acnh-g_e1_ba_a5u-160ml-_2__fd0bdfa242fd452c8b04bbf8a178ca3f.png</v>
+      </c>
+      <c r="J9" t="str">
+        <v>https://product.hstatic.net/200000833669/product/b4-ph_e1_bb_8fng-t_e1_bb_b1-nhi_c3_aan-h_c3_acnh-g_e1_ba_a5u-160ml-_2__fd0bdfa242fd452c8b04bbf8a178ca3f.png,https://product.hstatic.net/200000833669/product/_c3_b4-ph_e1_bb_8fng-t_e1_bb_b1-nhi_c3_aan-h_c3_acnh-g_e1_ba_a5u-160ml_12fa508965a4499aba66cd8e57d47be0.png</v>
+      </c>
+      <c r="K9" t="str">
+        <v>PIGEON</v>
+      </c>
+      <c r="L9" t="str">
+        <v>Chất liệu và thiết kế an toàn cho sức khỏe của bé.  Núm ti dày và siêu mềm, giúp phát triển cơ hàm của bé  Thiết kế núm vú điều chỉnh áp xuất và điều</v>
+      </c>
+      <c r="M9">
+        <v>39800000</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P9" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : PIGEON- Bình sữa nhựa cổ rộng hình gấu 160ml&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;DUNG TÍCH&lt;/strong&gt; : 160ml&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CHẤT LIỆU&lt;/strong&gt; : Polypropylene, PPSU, silicone rubber.&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Khả năng chịu nhiệt 120 độ C. Có thể khử trùng bằng nước sôi, lò vi sóng, dung dịch rửa chuyên dụng. Sau khi sử dụng, vệ sinh bằng bàn chải và hóa chất chuyên dụng. &lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;NSX&lt;/strong&gt; : Pigeon Co.,Ltd, 103-8480 Nihonbashi, Chuo-ku, Tokyo, Nhật Bản&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Thái Lan&lt;/p&gt;
+   &lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4902508024525&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10">
+        <v>1052915892</v>
+      </c>
+      <c r="B10" t="str">
+        <v>https://sakukostore.com.vn/products/skater-ban-chai-rang-totoro-cho-be-3-5-tuoi-3pcs</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SKATER- Bàn chải răng Totoro cho bé 3-5 tuổi 3pcs</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Bàn chải Skater</v>
+      </c>
+      <c r="E10">
+        <v>43</v>
+      </c>
+      <c r="F10" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G10" t="str">
+        <v>121443</v>
+      </c>
+      <c r="H10" t="str">
+        <v>4973307419881</v>
+      </c>
+      <c r="I10" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307419881_d8495a455a854802bc6a82d88010e16f.png</v>
+      </c>
+      <c r="J10" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307419881_d8495a455a854802bc6a82d88010e16f.png</v>
+      </c>
+      <c r="K10" t="str">
+        <v>SKATER</v>
+      </c>
+      <c r="L10" t="str">
+        <v>Thiết kế nhỏ vừa khuôn miệng bé 3-5 tuổi  Bàn chải lông mềm, an toàn cho nướu  Họa tiết đáng yêu</v>
+      </c>
+      <c r="M10">
+        <v>13000000</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P10" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Bàn chải răng Totoro được thiết kế đặc biệt dành cho bé từ 3 -5 tuổi&lt;/strong&gt; với đầu bàn chải nhỏ, lông mềm, dễ dàng làm sạch răng miệng. Với họa tiết totoro xinh xắn, đáng yêu, bàn chải răng tạo sự thích thú cho trẻ vệ sinh răng miệng hàng ngày.&lt;/p&gt;
+   &lt;h2&gt;CHẤT LIỆU&lt;/h2&gt;
+   &lt;p&gt;Polypropylene, Nylon&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Set 3 chiếc.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/c3_a0n-ch_e1_ba_a3i-r_c4_83ng-totoro-cho-b_c3_a9-3-5-tu_e1_bb_95i-3pcs_1a8fdf229e1a42c3a62c13802d1ecc86.png" alt="SKATER- Bàn chải răng Totoro cho bé 3-5 tuổi 3pcs" title="SKATER- Bàn chải răng Totoro cho bé 3-5 tuổi 3pcs"&gt;&lt;br&gt;
+   Set 3 chiếc bàn chải răng cho bé từ 3 - 5 tuổi&lt;/p&gt;
+   &lt;h2&gt;ĐỐI TƯỢNG SỬ DỤNG&lt;/h2&gt;
+   &lt;p&gt;Bé giai đoạn răng sữa, từ 3-5 tuổi&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Thiết kế nhỏ vừa khuôn miệng bé 3 -5 tuổi&lt;/h3&gt;
+   &lt;p&gt;Thiết kế phần chải răng nhỏ, phù hợp với khuôn miệng bé từ 3-5 tuổi, giúp bé vệ sinh răng miệng dễ dàng.&amp;nbsp;&lt;/p&gt;
+   &lt;h3&gt;Bàn chải lông mềm, an toàn cho nướu của bé&lt;/h3&gt;
+   &lt;p&gt;Lông bàn chải mềm, dịu nhẹ và không gây đau nướu.&lt;/p&gt;
+   &lt;h3&gt;Họa tiết đáng yêu&lt;/h3&gt;
+   &lt;p&gt;Họa tiết Totoro đáng yêu, 3 chiếc với 3 màu sắc xinh xắn, tạo sự thích thú cho bé mỗi lần vệ sinh răng miệng.&amp;nbsp;&lt;/p&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;Sản phẩm đến từ thương hiệu Skater Co.,Ltd; 216-1 Karamomocho, Nara-shi, Nara 630-8454, Nhật Bản. Skater được thành lập từ năm 1938, trụ sở chính đặt tại thành phố Nara với khởi nguồn là sản xuất và kinh doanh bút máy. Sau đó công ty phát triển lĩnh vực đồ gia dụng nhựa. Một trong những sản phẩm tiêu biểu của Skater là dụng cụ nấu ăn, bàn chải cho bé, cốc đựng cà phê, bình nhựa,...&amp;nbsp;&amp;nbsp;&lt;br&gt;
+   &lt;strong&gt;Bàn chải răng Totoro cho bé 3-5 tuổi &lt;/strong&gt;hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11">
+        <v>1052915899</v>
+      </c>
+      <c r="B11" t="str">
+        <v>https://sakukostore.com.vn/products/skater-ban-chai-hello-kitty-612-tuoi-3-chiec</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SKATER- Bàn chải Hello Kitty 6~12 tuổi (3 chiếc)</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Bàn chải Skater</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G11" t="str">
+        <v>175358</v>
+      </c>
+      <c r="H11" t="str">
+        <v>4973307464188</v>
+      </c>
+      <c r="I11" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307464188-1_e50ea5e95a32472bb38ad0ab5923c006.jpg</v>
+      </c>
+      <c r="J11" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307464188-1_e50ea5e95a32472bb38ad0ab5923c006.jpg,https://product.hstatic.net/200000833669/product/4973307464188-2_d35449d1ae384b79a796f22deb7aa0bb.jpg</v>
+      </c>
+      <c r="K11" t="str">
+        <v>SKATER</v>
+      </c>
+      <c r="L11" t="str">
+        <v>Thiết kế phù hợp cho trẻ từ 6-12 tuổi  Làm sạch, ngừa sâu răng  Chất liệu cao cấp, an toàn cho bé</v>
+      </c>
+      <c r="M11">
+        <v>13000000</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P11" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Set bàn chải răng cho bé hình Hello Kitty từ 6-12 tuổi &lt;/strong&gt;với thiết kế ngộ nghĩnh, họa tiết bắt mắt giúp các bé thích thú khi vệ sinh răng miệng, cho bé hàm răng chắc khỏe&lt;/p&gt;
+   &lt;h2&gt;Chất liệu sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Polypropylene, nylon&lt;br&gt;
+   Quy cách đóng gói sản phẩmSet 3 chiếc&lt;/p&gt;
+   &lt;h2&gt;Công dụng sản phẩm&lt;/h2&gt;
+   &lt;h3&gt;Thiết kế phù hợp cho bé từ 6-12 tuổi&lt;/h3&gt;
+   &lt;p&gt;Đầu bàn chải được thế thuôn, nhỏ, phù hợp với khoang miệng bé từ 6-12 tuổi, giúp bé dễ dàng vệ sinh khoang miệng.&lt;br&gt;
+   Họa tiết táo đỏ và Hello Kitty ngộ nghĩnh, đáng yêu mang lại cảm giác thích thú, vui vẻ cho các bé khi vệ sinh răng miệng.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/c4_83ng-cho-b_c3_a9-h_c3_acnh-hello-kitty-t_e1_bb_ab-6-12-tu_e1_bb_95i_65e384d0fa734368a93eea4f8d2ab215.jpg" alt="bàn chải răng" title="bàn chải răng"&gt;&lt;/p&gt;
+   &lt;h3&gt;Làm sạch, ngăn ngừa sâu răng&lt;/h3&gt;
+   &lt;p&gt;Lông bàn chải được thiết kế từ sợi nylon mảnh, mềm giúp dễ dàng chải sạch thức ăn thừa trong các kẽ chân răng, làm sạch răng hiệu quả.&lt;br&gt;
+   Lớp lông bàn chải mềm ngăn chặn sự phát triển của vi khuẩn gây sâu răng mà không làm tổn thương lợi, nướu, ngăn ngừa viêm nướu lợi và sâu răng.&lt;/p&gt;
+   &lt;h3&gt;Chất liệu cao cấp, an toàn cho bé&lt;/h3&gt;
+   &lt;p&gt;Chất liệu sản phẩm luôn là ưu tiên hàng đầu mà nhãn hàng Skater đề ra khi sản xuất bất cứ sản phẩm sản phẩm nào cho khách hàng. Bởi vậy set bàn chải răng cho bé hình Hello Kitty từ 6-12 với nguồn nguyên liệu cao cấp qua các bước kiểm tra nghiêm ngặt đảm bảo độ an toàn tuyệt đối cho người sử dụng.&lt;/p&gt;
+   &lt;h2&gt;Đối tượng sử dụng&lt;/h2&gt;
+   &lt;p&gt;Sản phẩm được sử dụng cho các bé giai đoạn thay răng từ 6-12 tuổi.&lt;/p&gt;
+   &lt;h2&gt;Lưu ý&lt;/h2&gt;
+   &lt;p&gt;Khi cho trẻ sử dụng, nên có người lớn hướng dẫn để trẻ sử dụng đúng cách.&lt;/p&gt;
+   &lt;h2&gt;Thương hiệu sản phẩm&lt;/h2&gt;
+   &lt;p&gt;Sản phẩm được sản xuất bởi công ty Skater Co.,Ltd; 216-1 Karamomocho, Nara-shi, Nara 630-8454, Nhật Bản.&amp;nbsp;&lt;br&gt;
+   Bạn đang tìm kiếm một loại bàn chải phù hợp cho bé nhà mình mà không gây hại nướu cho bé?. Mời bạn thử ngay &lt;strong&gt;Set bàn chải răng cho bé hình Hello Kitty từ 6-12 tuổi của Skater&lt;/strong&gt; đến từ Nhật Bản. Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12">
+        <v>1052915891</v>
+      </c>
+      <c r="B12" t="str">
+        <v>https://sakukostore.com.vn/products/skater-set-ban-chai-cong-chua-3c</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SKATER- Set bàn chải công chúa (3c)</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Bàn chải Skater</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G12" t="str">
+        <v>121475</v>
+      </c>
+      <c r="H12" t="str">
+        <v>4973307490606</v>
+      </c>
+      <c r="I12" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307490606_31d5b0437bb8449495fb7abb65bdb1f1.png</v>
+      </c>
+      <c r="J12" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4973307490606_31d5b0437bb8449495fb7abb65bdb1f1.png</v>
+      </c>
+      <c r="K12" t="str">
+        <v>SKATER</v>
+      </c>
+      <c r="L12" t="str">
+        <v>Thiết kế phần chải răng nhỏ  Lông bàn chải mềm  Họa tiết nữ hoàng tuyết đáng yêu</v>
+      </c>
+      <c r="M12">
+        <v>13000000</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P12" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Set bàn chải răng cho bé hình nữ hoàng tuyết (3 chiếc)&lt;/strong&gt; có thiết kế vừa vặn với khuôn miệng của trẻ từ 3 - 5 tuổi, lông bàn chải mềm, không gây đau nướu. Họa tiết công chúa sinh động giúp bé có hứng thú với việc vệ sinh răng miệng.&lt;/p&gt;
+   &lt;h2&gt;CHẤT LIỆU&lt;/h2&gt;
+   &lt;p&gt;Polypropylen, nylon&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Set 3 chiếc&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Thiết kế phần chải răng nhỏ&lt;/h3&gt;
+   &lt;p&gt;Thiết kế phần chải răng nhỏ, phù hợp với khuôn miệng bé từ 3-5 tuổi, giúp bé vệ sinh răng miệng dễ dàng.&amp;nbsp;&lt;/p&gt;
+   &lt;h3&gt;Lông bàn chải mềm&lt;/h3&gt;
+   &lt;p&gt;Lông bàn chải mềm, không gây đau nướu, giúp bé vệ sinh răng an toàn.&lt;/p&gt;
+   &lt;h3&gt;Họa tiết nữ hoàng tuyết đáng yêu&lt;/h3&gt;
+   &lt;p&gt;Họa tiết hoạt hình nữ hoàng tuyết sinh động, đáng yêu, tạo hứng thú cho bé mỗi khi vệ sinh răng miệng.&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/skater--set-b_c3_a0n-ch_e1_ba_a3i-c_c3_b4ng-ch_c3_baa-_3c__616bd2d21c55416697c24e5998196dd5.jpg" alt="SKATER- Set bàn chải công chúa (3c)" title="SKATER- Set bàn chải công chúa (3c)"&gt;&lt;br&gt;
+   Bộ 3 chiếc bàn chải răng cho bé từ 3 - 5 tuổi hình nữ hoàng tuyết đáng yêu&lt;/p&gt;
+   &lt;h2&gt;ĐỐI TƯỢNG SỬ DỤNG&lt;/h2&gt;
+   &lt;p&gt;Cho bé giai đoạn răng sữa, từ 3 - 5 tuổi.&lt;/p&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;Set bàn chải răng cho bé hình nữ hoàng tuyết được sản xuất bởi công ty Skater Co.,Ltd; 216-1 Karamomocho, Nara-shi, Nara 630-8454, Nhật Bản. Với hơn 70 năm kinh nghiệm trong lĩnh vực sản xuất và kinh doanh sản phẩm chăm sóc răng miệng, SKATER được biết đến là công ty hàng đầu trong việc cung cấp các sản phẩm bàn chải.&amp;nbsp;&lt;br&gt;
+   Các sản phẩm của SKATER luôn sử dụng những chất liệu thân thiện với môi trường, an toàn cho sức khỏe, đồng thời đáp ứng tốt nhất nhu cầu sử dụng của khách hàng.&lt;br&gt;
+   &lt;strong&gt;Set bàn chải răng cho bé hình nữ hoàng tuyết&lt;/strong&gt; hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;br&gt;
+   &lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1052904612</v>
+      </c>
+      <c r="B13" t="str">
+        <v>https://sakukostore.com.vn/products/chuchu-binh-sua-thuy-tinh-co-rong-160ml</v>
+      </c>
+      <c r="C13" t="str">
+        <v>CHUCHU- Bình sữa thủy tinh cổ rộng 160ml</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Bình sữa Chuchu</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>deny</v>
+      </c>
+      <c r="G13" t="str">
+        <v>120131</v>
+      </c>
+      <c r="H13" t="str">
+        <v>4973210994451</v>
+      </c>
+      <c r="I13" t="str">
+        <v>https://product.hstatic.net/200000833669/product/upload_b99dbbc653884970a15d6f76bc3ac668_master_0887d721f5424c369bc5a3d44392d5b8.jpg</v>
+      </c>
+      <c r="J13" t="str">
+        <v>https://product.hstatic.net/200000833669/product/upload_b99dbbc653884970a15d6f76bc3ac668_master_0887d721f5424c369bc5a3d44392d5b8.jpg</v>
+      </c>
+      <c r="K13" t="str">
+        <v>CHUCHU</v>
+      </c>
+      <c r="L13" t="str">
+        <v>- Thiết kế bình cổ rộng giúp cho việc pha sữa và vệ sinh bình được dễ dàng. - Bình sữa thủy tinh Chuchu G-160ml là dòng sản phẩm cao cấp của</v>
+      </c>
+      <c r="M13">
+        <v>40800000</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P13" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;&lt;strong&gt;TÌNH TRẠNG: HẾT HÀNG&lt;/strong&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;div&gt;&lt;p&gt;&lt;strong&gt;Xuất xứ&lt;/strong&gt;: Nhật Bản&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Hãng sản xuất&lt;/strong&gt;: Chuchu&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Thể tích: 160ml&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Mã vạch&lt;/strong&gt;: 4973210994451&lt;/p&gt;&lt;div&gt;&lt;div&gt;&lt;p&gt;&lt;strong&gt;Đặc điểm sản phẩm bình sữa cổ rộng chuchu baby 160ml thuỷ tinh&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;+ Núm vú chuchubaby làm bằng Silicon, bình bằng thủy tinh, bé cầm dễ dàng mà không lo bị vỡ. Nắp đậy bằng polypropylen. Dù đổ cũng không sợ sữa tràn ra ngoài.&lt;/p&gt;&lt;p&gt;+ Thiết kế bình cổ rộng: Bình cổ rộng giúp cho việc pha sữa và vệ sinh bình được dễ dàng. Bình sữa thủy tinh Chuchu G-160ml là dòng sản phẩm cao cấp của chuchubaby, rất tiện sử dụng&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Chú ý sử dụng:&amp;nbsp;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Trước khi sử dụng nên làm sạch bình sữa bằng các sản phẩm chuyên dùng.&amp;nbsp;&lt;/p&gt;&lt;p&gt;Sau khi sử dụng nhanh chóng làm sạch bình sữa, chú ý làm sạch phần dẫn khí, hạn chế nguyên nhân gây nghẽn bình. Nhẹ nhàng khi rửa núm vú vì có thể làm rách núm vú.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÔNG TIN THƯƠNG HIỆU&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Chuchu là nhãn hiệu chất lượng hàng đầu tại Nhật Bản về các sản phẩm chăm sóc bé, bình sữa, núm ti, giúp bố mẹ an tâm hơn trong việc chăm sóc bé. Đây là thương hiệu nhận được sự tin tưởng của nhiều bà mẹ trên thế giới. Với các sản phẩm chủ yếu là dụng cụ ăn uống, bú sữa, và sản phẩm chăm sóc da dành cho bé, Chuchu Baby mang lại cho mẹ sự an tâm tuyệt đối trong việc chăm sóc con cái, và cho bé yêu sự an toàn về sức khỏe, giúp bé khỏe mạnh và phát triển toàn diện hơn.&lt;/p&gt;&lt;p&gt;Tất cả các sản phẩm của bình sữa Chuchu Baby đều được trải qua quy trình kiểm nghiệm rất nghiêm ngặt của Bộ Y tế Nhật Bản. Tại Chuchu, luôn có một đội ngũ bác sĩ và các chuyên gia về sức khỏe trẻ em hàng đầu làm việc và nghiên cứu những sản phẩm tốt nhất dành cho bé yêu trên khắp thế giới.&lt;/p&gt;&lt;p&gt;Sản phẩm được sản xuất tại Nhật Bản. &amp;nbsp;&lt;/p&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P13"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -11,6 +11,8 @@
     <sheet name="all1726300902724" sheetId="6" r:id="rId6"/>
     <sheet name="me-be1726330049414" sheetId="7" r:id="rId7"/>
     <sheet name="all1726330049590" sheetId="8" r:id="rId8"/>
+    <sheet name="sua-cho-be1726453966878" sheetId="9" r:id="rId9"/>
+    <sheet name="all1726453966983" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -993,6 +995,220 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1055411201</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/sachi-mochi-mochi-vi-cam-nhat-200g</v>
+      </c>
+      <c r="C2" t="str">
+        <v>SACHI MOCHI- Mochi vị cam Nhật 200g</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BÁNH KẸO, ĐỒ ĂN VẶT</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>deny</v>
+      </c>
+      <c r="G2" t="str">
+        <v>153314</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4971679301063</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/vi_cam_ff5c0af7b11c46609b460cb9e85d9f47.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/vi_cam_ff5c0af7b11c46609b460cb9e85d9f47.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="L2" t="str">
+        <v>SACHI MOCHI- Mochi vị cam Nhật 200g</v>
+      </c>
+      <c r="M2">
+        <v>11500000</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>SACHI MOCHI- Mochi vị cam Nhật 200g</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1052913902</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://sakukostore.com.vn/products/seiki-banh-mochi-daifuku-vi-dua-luoi-30-cai</v>
+      </c>
+      <c r="C3" t="str">
+        <v>[TRUNG THU 2024] SEIKI- Bánh Mochi Daifuku vị dưa lưới 30 cái</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Bánh</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G3" t="str">
+        <v>153238</v>
+      </c>
+      <c r="H3" t="str">
+        <v>4990485004982</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4990485004982_1_c8f96ded3e4b4345bfaa6636365d0698.jpg</v>
+      </c>
+      <c r="J3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4990485004982_1_c8f96ded3e4b4345bfaa6636365d0698.jpg,https://product.hstatic.net/200000833669/product/4990485004982_2_d3b03b2d62f34ec1a0357b4c8b02ab2a.jpeg</v>
+      </c>
+      <c r="K3" t="str">
+        <v>SEIKI</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Vỏ bánh từ gạo mochi cao cấp mềm dẻoNhân kem dưa lưới thơm mátPhù hợp thưởng thức cùng trà nóng</v>
+      </c>
+      <c r="M3">
+        <v>29250000</v>
+      </c>
+      <c r="N3">
+        <v>32500000</v>
+      </c>
+      <c r="O3" t="str">
+        <v>10%</v>
+      </c>
+      <c r="P3" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;&lt;h1&gt;&lt;strong&gt;TRUNG THU VIỆT, CHỌN VỊ NHẬT&lt;/strong&gt;&lt;/h1&gt;&lt;p&gt;Trải qua hàng nghìn năm lịch sử, những chiếc bánh&amp;nbsp;Nhật Bản đã trở thành biểu tượng của nghệ thuật và văn hóa ẩm thực độc đáo, sở hữu một hương vị riêng không lẫn vào đâu được. Bất kỳ ai cũng&amp;nbsp;chẳng thể cưỡng lại sự quyến rũ từ vị ngọt dịu dàng, sự hòa quyện giữa hương vị truyền thống và hiện đại. Nguyên liệu sử dụng cho việc chế biến đều được xứ sở hoa anh đào gửi gắm rất nhiều tình cảm và công phu.&lt;/p&gt;&lt;p&gt;Mùa Trung Thu năm nay, Sakuko đem đến cho quý khách hàng cơ hội để có thể trải nghiệm những thức quà đậm nét văn hóa Nhật Bản, thông qua những chiếc bánh Mochi hay Daifuku. Hãy đặt hàng ngay để không bỏ lỡ ưu đãi lên tới 40% cùng hương vị khó quên.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THỜI GIAN NHẬN ĐẶT HÀNG: 11/06/2024&amp;nbsp;- 25/06/2024&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THỜI ĐIỂM DỰ KIẾN HÀNG VỀ: 12/09/2024&lt;/strong&gt;&lt;/p&gt;&lt;p style="text-align: center"&gt;&lt;img style="width: 847.988px; height: 443.984px;" src="//file.hstatic.net/200000833669/file/sakuko_2400x1256_mochi_11062024_0568fb6fd5b44f91a0b2168c3ba6c2bb_grande.jpg"&gt;&lt;/p&gt;Thông tin sản phẩm&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;div&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : SEIKI- Bánh Mochi Daifuku vị dưa lưới 30 cái&lt;p&gt;&lt;strong&gt;KHỐI LƯỢNG TỊNH&lt;/strong&gt; : 360g/ hộp (30 cái)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HSD&lt;/strong&gt; : Xem trên bao bì sản phẩm&lt;/p&gt;&lt;p&gt;&lt;strong&gt;NGÀY SX&lt;/strong&gt; : Trước HSD 6 tháng&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÀNH PHẦN&lt;/strong&gt; : Xi-rô tinh bột (sản xuất tại Nhật Bản), đường, bột gạo nếp, tinh bột, dầu thực vật, lactose, sữa bột nguyên chất, bột kem, bơ ca cao, bột whey, dưa xay nhuyễn, xi-rô đảo đường/trehalose, chất nhũ hoá, hương liệu tổng hợp, phẩm màu tự nhiên (carotenoid)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CÔNG DỤNG&lt;/strong&gt; : Bánh mochi truyền thống Nhật Bản với vỏ bánh mềm thơm, nhân dưa lưới hấp dẫn.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Không sử dụng sản phẩm quá hạn. Lưu ý thành phần dị ứng&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HDSD&lt;/strong&gt; : Ăn trực tiếp.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;BẢO QUẢN&lt;/strong&gt; : Tránh ánh nắng trực tiếp, nhiệt độ cao và độ ẩm&lt;/p&gt;&lt;p&gt;&lt;strong&gt;NHÀ SX&lt;/strong&gt; : Seiki Co.,Ltd.; 1240-1 Kitagawara, Matsumae-machi, Iyo-gun, Ehime, Nhật Bản.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Nhật Bản&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4990485004982&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Số CB&lt;/strong&gt; : 132/BJ/2023&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1052890607</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://sakukostore.com.vn/products/sua-meiji-so-0-1-tuoi-dang-hop-sat</v>
+      </c>
+      <c r="C4" t="str">
+        <v>MEIJI- Sữa số 0 cho bé từ 0-1 tuổi 800g</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Sữa Meiji</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G4" t="str">
+        <v>150458</v>
+      </c>
+      <c r="H4" t="str">
+        <v>4902705116542</v>
+      </c>
+      <c r="I4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="J4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="K4" t="str">
+        <v>MEIJI</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Sữa Meiji số 0 - 1 tuổi dạng hộp sắt có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi, không chê ti mẹ cùng thành phần chất xơ tự nhiên tránh táo bón.</v>
+      </c>
+      <c r="M4">
+        <v>48500000</v>
+      </c>
+      <c r="N4">
+        <v>55500000</v>
+      </c>
+      <c r="O4" t="str">
+        <v>12.612612612612612%</v>
+      </c>
+      <c r="P4" t="str">
+        <v>&lt;h2 class="section-title text-blue"&gt;&lt;span style="color:#ff0066"&gt;&lt;strong&gt;Thông số sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;&lt;div class="data-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Sản phẩm&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Sữa Meiji số 0-1 tuổi&lt;/span&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Xuất xứ&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Nhật Bản&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Hãng sản xuất&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Meiji&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Trọng lượng&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;800g&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Quy cách đóng gói&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Hộp sẳt&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; là sữa bột công thức hàng đầu cho trẻ sơ sinh được các mẹ bỉm sữa nội địa Nhật và cả Việt Nam tin dùng. Bởi sữa Meiji số 0 có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi với sữa bột, lại không chê ti mẹ. Đặc biệt, sữa có thành phần bổ sung chất xơ tự nhiên hạn chế bị táo bón hiệu quả.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;1. Thành phần dinh dưỡng sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;&lt;img alt="Bảng thành phần dinh dưỡng của sữa Meiji số 0" title="Bảng thành phần dinh dưỡng của sữa Meiji số 0" src="https://product.hstatic.net/200000833669/product/bang-dinh-duong-sua-meiji-so-0-1-tuoi_8e2ded54f4dc45559f2f45ecd320b440.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Bảng dinh dưỡng sữa Meiji số 0 cho bé 0 - 12 tháng tuổi&lt;/em&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;2. Thành phần nổi bật&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji số 0 hỗ trợ mẹ mang đến cho bé nguồn dinh dưỡng an toàn, đầy đủ để vững tin phát triển trong những năm tháng đầu đời. Cụ thể, sữa Meiji có những thành phần nổi bật đó là:&lt;/p&gt;&lt;h3&gt;Bổ sung chất xơ tự nhiên FOS (Fructo-Oligosaccharides)&lt;/h3&gt;&lt;p&gt;Các nghiên cứu cho thấy FOS là chất xơ hòa tan, có rất nhiều lợi ích đối với sức khỏe con người. Đây là người bạn tuyệt vời của hệ tiêu hóa, tim mạch, hệ miễn dịch,...&lt;/p&gt;&lt;h3&gt;Cung cấp nhiều vitamin và các khoáng chất thiết yếu&lt;/h3&gt;&lt;p&gt;Trong thành phần của sữa Meiji rất giàu vitamin như: A, C, D, vitamin nhóm B,... cùng các khoáng chất cần thiết (sắt, kẽm, photpho,...) hỗ trợ tối ưu sự phát triển toàn diện cho bé.&lt;/p&gt;&lt;h3&gt;Bổ sung các Nucleotides tự nhiên có trong sữa mẹ&lt;/h3&gt;&lt;p&gt;Meiji hiểu rằng ở giai đoạn đầu đời hệ miễn dịch của con còn rất non yếu, dễ bị vi khuẩn tấn công và nhiễm bệnh. Vì thế, công thức sữa cho trẻ sơ sinh của Meiji đã bổ sung thêm các Nucleotides tự nhiên có trong sữa mẹ giúp tăng cường đề kháng.&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0-2_16b8a8ff0726471c9a9833f51053862b.jpg"&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0_3da58f5faf6c4823b559a5d1ecdd4674.jpg"&gt;&lt;/p&gt;&lt;div&gt;&lt;div class="ace-line ace-line old-record-id-WDu1dC4sBowBjSxZhEDlYiHSgrh"&gt;&lt;em&gt;Thiết kế bao bì dễ sử dụng của sữa Meiji số 0 nội địa Nhật&lt;/em&gt;&lt;/div&gt;&lt;/div&gt;&lt;h2&gt;&lt;strong&gt;3. Đặc điểm nổi bật của sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Cẩm nang nuôi con khỏe mạnh - thông minh của nhiều mẹ bỉm sữa chia sẻ thường dành nhiều lời khen ngợi cho sữa Meiji số 0. Bởi sản phẩm có những đặc điểm nổi bật mà mẹ rất tâm đắc, cụ thể:&lt;/p&gt;&lt;h3&gt;Sữa có vị nhạt, mùi vị gần giống sữa mẹ&lt;/h3&gt;&lt;p&gt;Các mẹ thường có một nỗi lo lắng chung là sữa công thức thơm ngon hơn sữa mẹ, dễ khiến bé chê ti mẹ. Trong khi đó, sữa mẹ luôn là nguồn dinh dưỡng tốt nhất cho sự phát triển của trẻ sơ sinh và trẻ nhỏ. Hiểu được điều đó, sữa Meiji số 0 đã ra đời với hương thơm cùng mùi vị gần giống sữa mẹ nhất. Do vậy, mẹ cứ yên tâm sử dụng cả sữa mẹ lẫn sữa công thức cho bé nhé!&lt;/p&gt;&lt;h3&gt;Hỗ trợ bé tăng cân, chiều cao đều, không tăng nhanh, tránh béo phì&lt;/h3&gt;&lt;p&gt;Với thành phần dinh dưỡng cân bằng, hướng tới sự phát triển toàn diện, sữa Meiji số 0 là người bạn đồng hành lý tưởng hỗ trợ bé tăng cân và chiều cao đồng đều. Nhờ vậy, mẹ chẳng lo con bị béo phì, thừa cân mà có thể yên tâm nhìn con cao lớn từng chút một khỏe mạnh và ổn định.&lt;/p&gt;&lt;p&gt;&lt;img alt="Sữa Meiji số 0 giúp bé hạn chế táo bón" title="Sữa Meiji số 0 giúp bé hạn chế táo bón" src="https://product.hstatic.net/200000833669/product/sua-meiji-so-0-giup-be-han-che-tao-bon_ba6b62df8c574dacbd09e603cbf5624c.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Với sữa Meiji số 0 mẹ có thể an tâm con tiêu hóa tốt, ít bị táo bón&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Hạn chế táo bón, phân xốp cùng hệ tiêu hóa khỏe mạnh&lt;/h3&gt;&lt;p&gt;Sữa Meiji giúp bé củng cố sức khỏe đường ruột, tiêu hóa tốt hơn nhờ có thành phần chất xơ tự nhiên FOS. Bởi khi vào ruột, FOS sẽ hút nước trương nở tạo khối phân, làm mềm phân và giúp đào thải phân cùng các chất cặn bã nhanh chóng ra khỏi cơ thể.&lt;/p&gt;&lt;p&gt;Bên cạnh đó, FOS còn có tác dụng&lt;strong&gt; kích thích các lợi khuẩn trong đường ruột phát triển&lt;/strong&gt;, đồng thời giúp tăng cường hấp thu canxi cùng magie tại ruột già. Vì thế, bé uống sữa Meiji mẹ yên tâm lắm bởi bé ít bị táo bón và hấp thu dưỡng chất tốt hơn.&lt;/p&gt;&lt;h3&gt;Tăng cường sức đề kháng, nâng cao miễn dịch&lt;/h3&gt;&lt;p&gt;Chất xơ hòa tan FOS cùng với &lt;strong&gt;các Nucleotides tự nhiên&lt;/strong&gt; trong sữa Meiji có khả năng tăng cường miễn dịch, cho bé sức đề kháng tốt để chống chọi với vi khuẩn, bệnh tật.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;4. Hướng dẫn cách pha sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Nhiều mẹ bỉm sữa, nhất là những chị em làm mẹ lần đầu rất lúng túng trong việc pha sữa Meiji cho bé. Mẹ không biết 1 gạt thìa sữa pha khoảng bao nhiêu ml thì hợp lý. Dưới đây là hướng dẫn cách pha chuẩn theo hướng dẫn của nhà sản xuất các mẹ cần biết:&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Một thìa gạt ngang&lt;/strong&gt; sữa Meiji tương đương 2,7g bột sữa pha được&lt;strong&gt; 20ml sữa.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Cách pha:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng&lt;strong&gt; 3 - 5 phút&lt;/strong&gt; để khử trùng.&lt;/li&gt;&lt;li&gt;Bước 2: Lấy nước sôi&lt;strong&gt; để&lt;/strong&gt; &lt;strong&gt;nguội đến 70 độ C&lt;/strong&gt; pha sữa.&lt;/li&gt;&lt;li&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào &lt;strong&gt;⅔ lượng nước cần thiết&lt;/strong&gt; và lắc/ khuấy đều đến khi hòa tan sữa. (Do nước ở 70 độ C khá nóng nên bố mẹ cần cẩn thận tránh bị bỏng).&lt;/li&gt;&lt;li&gt;Bước 4: Đổ tiếp nước 70 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/li&gt;&lt;li&gt;Bước 5: Chờ sữa nguội khoảng &lt;strong&gt;38 độ C&lt;/strong&gt; thì cho bé bú.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Tham khảo:&amp;nbsp;&lt;a style="font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-size: 1.25rem; font-weight: 700; background-color: #ffffff; text-align: left;" href="/blogs/me-be/huong-dan-cach-pha-sua-meiji-so-0-9-chuan"&gt;&lt;span&gt;[HƯỚNG DẪN] Cách pha sữa Meiji số 0, 9 chuẩn hướng dẫn Nhà sản xuất&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;div style="outline: 0px; vertical-align: baseline; margin: 0px; border-width: 0px 0px 1px; border-top-style: initial; border-right-style: initial; border-bottom-style: solid; border-left-style: initial; border-top-color: initial; border-right-color: initial; border-bottom-color: #ebebeb; border-left-color: initial; border-image: initial; padding: 0px 0px 15px; font-variant-numeric: inherit; font-variant-east-asian: inherit; font-variant-alternates: inherit; font-variant-position: inherit; font-stretch: inherit; line-height: inherit; font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-optical-sizing: inherit; font-kerning: inherit; font-feature-settings: inherit; font-variation-settings: inherit; display: flex; -webkit-box-pack: justify; justify-content: space-between; -webkit-box-align: center; align-items: center; color: #333333;" class="news-detail-meta flex justify-between items-center"&gt;&amp;nbsp;&lt;/div&gt;&lt;p&gt;&lt;img alt="Pha sữa Meiji số 0 dùng nước 70 độ " title="Pha sữa Meiji số 0 dùng nước 70 độ " src="https://product.hstatic.net/200000833669/product/pha-sua-meiji-so-0_6192ae5cb53d48f7ac4e3ab0b0c52cb4.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Sữa Meiji số 0 khác với các loại sữa Nhật khác là sử dụng nước pha ở 70 độ C&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Mẹo khi pha sữa:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mẹ có thể&lt;strong&gt; cho bình sữa vào chậu nước mát, lạnh&lt;/strong&gt; để nguội nhanh hơn, tiết kiệm thời gian.&lt;/li&gt;&lt;li&gt;Trước khi cho bé bú, mẹ hãy &lt;strong&gt;kiểm tra nhiệt độ của sữa&lt;/strong&gt; tránh làm bỏng bé.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;img alt="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" title="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" src="https://product.hstatic.net/200000833669/product/lieu-luong-sua-meiji-so-0-theo-do-tuoi-cua-be_5ed9bd72449947e3bd19ac0f1138e626.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;em&gt;Tùy độ tuổi, cân nặng của bé mà mẹ sử dụng lượng sữa khác nhau&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;5. Hướng dẫn bảo quản&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Mẹ cần chú ý bảo quản sữa đúng cách như sau:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/li&gt;&lt;li&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/li&gt;&lt;li&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/li&gt;&lt;li&gt;Hạn sử dụng của sữa được in dưới đáy lon là 18 tháng kể từ ngày sản xuất.&lt;/li&gt;&lt;li&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể dụng nhưng chất lượng không bằng ban đầu.&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;strong&gt;6. Thông tin thương hiệu sữa Meiji&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/p&gt;&lt;p&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/p&gt;&lt;p&gt;Tại Việt Nam, sữa Meiji cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa. Với chất lượng đảm bảo, tốt cho sự phát triển của bé và mức giá không quá cao, &lt;strong&gt;sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; vẫn luôn là sự lựa chọn hàng đầu cho giai đoạn đầu đời của bé.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P9"/>
@@ -4828,4 +5044,118 @@
     <ignoredError numberStoredAsText="1" sqref="A1:P13"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1052890607</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/sua-meiji-so-0-1-tuoi-dang-hop-sat</v>
+      </c>
+      <c r="C2" t="str">
+        <v>MEIJI- Sữa số 0 cho bé từ 0-1 tuổi 800g</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Sữa Meiji</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>150458</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4902705116542</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>MEIJI</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Sữa Meiji số 0 - 1 tuổi dạng hộp sắt có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi, không chê ti mẹ cùng thành phần chất xơ tự nhiên tránh táo bón.</v>
+      </c>
+      <c r="M2">
+        <v>48500000</v>
+      </c>
+      <c r="N2">
+        <v>55500000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>12.612612612612612%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>&lt;h2 class="section-title text-blue"&gt;&lt;span style="color:#ff0066"&gt;&lt;strong&gt;Thông số sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;&lt;div class="data-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Sản phẩm&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Sữa Meiji số 0-1 tuổi&lt;/span&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Xuất xứ&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Nhật Bản&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Hãng sản xuất&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Meiji&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Trọng lượng&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;800g&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Quy cách đóng gói&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Hộp sẳt&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; là sữa bột công thức hàng đầu cho trẻ sơ sinh được các mẹ bỉm sữa nội địa Nhật và cả Việt Nam tin dùng. Bởi sữa Meiji số 0 có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi với sữa bột, lại không chê ti mẹ. Đặc biệt, sữa có thành phần bổ sung chất xơ tự nhiên hạn chế bị táo bón hiệu quả.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;1. Thành phần dinh dưỡng sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;&lt;img alt="Bảng thành phần dinh dưỡng của sữa Meiji số 0" title="Bảng thành phần dinh dưỡng của sữa Meiji số 0" src="https://product.hstatic.net/200000833669/product/bang-dinh-duong-sua-meiji-so-0-1-tuoi_8e2ded54f4dc45559f2f45ecd320b440.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Bảng dinh dưỡng sữa Meiji số 0 cho bé 0 - 12 tháng tuổi&lt;/em&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;2. Thành phần nổi bật&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji số 0 hỗ trợ mẹ mang đến cho bé nguồn dinh dưỡng an toàn, đầy đủ để vững tin phát triển trong những năm tháng đầu đời. Cụ thể, sữa Meiji có những thành phần nổi bật đó là:&lt;/p&gt;&lt;h3&gt;Bổ sung chất xơ tự nhiên FOS (Fructo-Oligosaccharides)&lt;/h3&gt;&lt;p&gt;Các nghiên cứu cho thấy FOS là chất xơ hòa tan, có rất nhiều lợi ích đối với sức khỏe con người. Đây là người bạn tuyệt vời của hệ tiêu hóa, tim mạch, hệ miễn dịch,...&lt;/p&gt;&lt;h3&gt;Cung cấp nhiều vitamin và các khoáng chất thiết yếu&lt;/h3&gt;&lt;p&gt;Trong thành phần của sữa Meiji rất giàu vitamin như: A, C, D, vitamin nhóm B,... cùng các khoáng chất cần thiết (sắt, kẽm, photpho,...) hỗ trợ tối ưu sự phát triển toàn diện cho bé.&lt;/p&gt;&lt;h3&gt;Bổ sung các Nucleotides tự nhiên có trong sữa mẹ&lt;/h3&gt;&lt;p&gt;Meiji hiểu rằng ở giai đoạn đầu đời hệ miễn dịch của con còn rất non yếu, dễ bị vi khuẩn tấn công và nhiễm bệnh. Vì thế, công thức sữa cho trẻ sơ sinh của Meiji đã bổ sung thêm các Nucleotides tự nhiên có trong sữa mẹ giúp tăng cường đề kháng.&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0-2_16b8a8ff0726471c9a9833f51053862b.jpg"&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0_3da58f5faf6c4823b559a5d1ecdd4674.jpg"&gt;&lt;/p&gt;&lt;div&gt;&lt;div class="ace-line ace-line old-record-id-WDu1dC4sBowBjSxZhEDlYiHSgrh"&gt;&lt;em&gt;Thiết kế bao bì dễ sử dụng của sữa Meiji số 0 nội địa Nhật&lt;/em&gt;&lt;/div&gt;&lt;/div&gt;&lt;h2&gt;&lt;strong&gt;3. Đặc điểm nổi bật của sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Cẩm nang nuôi con khỏe mạnh - thông minh của nhiều mẹ bỉm sữa chia sẻ thường dành nhiều lời khen ngợi cho sữa Meiji số 0. Bởi sản phẩm có những đặc điểm nổi bật mà mẹ rất tâm đắc, cụ thể:&lt;/p&gt;&lt;h3&gt;Sữa có vị nhạt, mùi vị gần giống sữa mẹ&lt;/h3&gt;&lt;p&gt;Các mẹ thường có một nỗi lo lắng chung là sữa công thức thơm ngon hơn sữa mẹ, dễ khiến bé chê ti mẹ. Trong khi đó, sữa mẹ luôn là nguồn dinh dưỡng tốt nhất cho sự phát triển của trẻ sơ sinh và trẻ nhỏ. Hiểu được điều đó, sữa Meiji số 0 đã ra đời với hương thơm cùng mùi vị gần giống sữa mẹ nhất. Do vậy, mẹ cứ yên tâm sử dụng cả sữa mẹ lẫn sữa công thức cho bé nhé!&lt;/p&gt;&lt;h3&gt;Hỗ trợ bé tăng cân, chiều cao đều, không tăng nhanh, tránh béo phì&lt;/h3&gt;&lt;p&gt;Với thành phần dinh dưỡng cân bằng, hướng tới sự phát triển toàn diện, sữa Meiji số 0 là người bạn đồng hành lý tưởng hỗ trợ bé tăng cân và chiều cao đồng đều. Nhờ vậy, mẹ chẳng lo con bị béo phì, thừa cân mà có thể yên tâm nhìn con cao lớn từng chút một khỏe mạnh và ổn định.&lt;/p&gt;&lt;p&gt;&lt;img alt="Sữa Meiji số 0 giúp bé hạn chế táo bón" title="Sữa Meiji số 0 giúp bé hạn chế táo bón" src="https://product.hstatic.net/200000833669/product/sua-meiji-so-0-giup-be-han-che-tao-bon_ba6b62df8c574dacbd09e603cbf5624c.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Với sữa Meiji số 0 mẹ có thể an tâm con tiêu hóa tốt, ít bị táo bón&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Hạn chế táo bón, phân xốp cùng hệ tiêu hóa khỏe mạnh&lt;/h3&gt;&lt;p&gt;Sữa Meiji giúp bé củng cố sức khỏe đường ruột, tiêu hóa tốt hơn nhờ có thành phần chất xơ tự nhiên FOS. Bởi khi vào ruột, FOS sẽ hút nước trương nở tạo khối phân, làm mềm phân và giúp đào thải phân cùng các chất cặn bã nhanh chóng ra khỏi cơ thể.&lt;/p&gt;&lt;p&gt;Bên cạnh đó, FOS còn có tác dụng&lt;strong&gt; kích thích các lợi khuẩn trong đường ruột phát triển&lt;/strong&gt;, đồng thời giúp tăng cường hấp thu canxi cùng magie tại ruột già. Vì thế, bé uống sữa Meiji mẹ yên tâm lắm bởi bé ít bị táo bón và hấp thu dưỡng chất tốt hơn.&lt;/p&gt;&lt;h3&gt;Tăng cường sức đề kháng, nâng cao miễn dịch&lt;/h3&gt;&lt;p&gt;Chất xơ hòa tan FOS cùng với &lt;strong&gt;các Nucleotides tự nhiên&lt;/strong&gt; trong sữa Meiji có khả năng tăng cường miễn dịch, cho bé sức đề kháng tốt để chống chọi với vi khuẩn, bệnh tật.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;4. Hướng dẫn cách pha sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Nhiều mẹ bỉm sữa, nhất là những chị em làm mẹ lần đầu rất lúng túng trong việc pha sữa Meiji cho bé. Mẹ không biết 1 gạt thìa sữa pha khoảng bao nhiêu ml thì hợp lý. Dưới đây là hướng dẫn cách pha chuẩn theo hướng dẫn của nhà sản xuất các mẹ cần biết:&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Một thìa gạt ngang&lt;/strong&gt; sữa Meiji tương đương 2,7g bột sữa pha được&lt;strong&gt; 20ml sữa.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Cách pha:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng&lt;strong&gt; 3 - 5 phút&lt;/strong&gt; để khử trùng.&lt;/li&gt;&lt;li&gt;Bước 2: Lấy nước sôi&lt;strong&gt; để&lt;/strong&gt; &lt;strong&gt;nguội đến 70 độ C&lt;/strong&gt; pha sữa.&lt;/li&gt;&lt;li&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào &lt;strong&gt;⅔ lượng nước cần thiết&lt;/strong&gt; và lắc/ khuấy đều đến khi hòa tan sữa. (Do nước ở 70 độ C khá nóng nên bố mẹ cần cẩn thận tránh bị bỏng).&lt;/li&gt;&lt;li&gt;Bước 4: Đổ tiếp nước 70 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/li&gt;&lt;li&gt;Bước 5: Chờ sữa nguội khoảng &lt;strong&gt;38 độ C&lt;/strong&gt; thì cho bé bú.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Tham khảo:&amp;nbsp;&lt;a style="font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-size: 1.25rem; font-weight: 700; background-color: #ffffff; text-align: left;" href="/blogs/me-be/huong-dan-cach-pha-sua-meiji-so-0-9-chuan"&gt;&lt;span&gt;[HƯỚNG DẪN] Cách pha sữa Meiji số 0, 9 chuẩn hướng dẫn Nhà sản xuất&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;div style="outline: 0px; vertical-align: baseline; margin: 0px; border-width: 0px 0px 1px; border-top-style: initial; border-right-style: initial; border-bottom-style: solid; border-left-style: initial; border-top-color: initial; border-right-color: initial; border-bottom-color: #ebebeb; border-left-color: initial; border-image: initial; padding: 0px 0px 15px; font-variant-numeric: inherit; font-variant-east-asian: inherit; font-variant-alternates: inherit; font-variant-position: inherit; font-stretch: inherit; line-height: inherit; font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-optical-sizing: inherit; font-kerning: inherit; font-feature-settings: inherit; font-variation-settings: inherit; display: flex; -webkit-box-pack: justify; justify-content: space-between; -webkit-box-align: center; align-items: center; color: #333333;" class="news-detail-meta flex justify-between items-center"&gt;&amp;nbsp;&lt;/div&gt;&lt;p&gt;&lt;img alt="Pha sữa Meiji số 0 dùng nước 70 độ " title="Pha sữa Meiji số 0 dùng nước 70 độ " src="https://product.hstatic.net/200000833669/product/pha-sua-meiji-so-0_6192ae5cb53d48f7ac4e3ab0b0c52cb4.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Sữa Meiji số 0 khác với các loại sữa Nhật khác là sử dụng nước pha ở 70 độ C&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Mẹo khi pha sữa:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mẹ có thể&lt;strong&gt; cho bình sữa vào chậu nước mát, lạnh&lt;/strong&gt; để nguội nhanh hơn, tiết kiệm thời gian.&lt;/li&gt;&lt;li&gt;Trước khi cho bé bú, mẹ hãy &lt;strong&gt;kiểm tra nhiệt độ của sữa&lt;/strong&gt; tránh làm bỏng bé.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;img alt="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" title="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" src="https://product.hstatic.net/200000833669/product/lieu-luong-sua-meiji-so-0-theo-do-tuoi-cua-be_5ed9bd72449947e3bd19ac0f1138e626.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;em&gt;Tùy độ tuổi, cân nặng của bé mà mẹ sử dụng lượng sữa khác nhau&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;5. Hướng dẫn bảo quản&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Mẹ cần chú ý bảo quản sữa đúng cách như sau:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/li&gt;&lt;li&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/li&gt;&lt;li&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/li&gt;&lt;li&gt;Hạn sử dụng của sữa được in dưới đáy lon là 18 tháng kể từ ngày sản xuất.&lt;/li&gt;&lt;li&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể dụng nhưng chất lượng không bằng ban đầu.&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;strong&gt;6. Thông tin thương hiệu sữa Meiji&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/p&gt;&lt;p&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/p&gt;&lt;p&gt;Tại Việt Nam, sữa Meiji cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa. Với chất lượng đảm bảo, tốt cho sự phát triển của bé và mức giá không quá cao, &lt;strong&gt;sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; vẫn luôn là sự lựa chọn hàng đầu cho giai đoạn đầu đời của bé.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -13,6 +13,8 @@
     <sheet name="all1726330049590" sheetId="8" r:id="rId8"/>
     <sheet name="sua-cho-be1726453966878" sheetId="9" r:id="rId9"/>
     <sheet name="all1726453966983" sheetId="10" r:id="rId10"/>
+    <sheet name="sua-cho-be1726457954054" sheetId="11" r:id="rId11"/>
+    <sheet name="all1726457954146" sheetId="12" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
@@ -1209,6 +1211,334 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1052890607</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/sua-meiji-so-0-1-tuoi-dang-hop-sat</v>
+      </c>
+      <c r="C2" t="str">
+        <v>MEIJI- Sữa số 0 cho bé từ 0-1 tuổi 800g</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Sữa Meiji</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>150458</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4902705116542</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>MEIJI</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Sữa Meiji số 0 - 1 tuổi dạng hộp sắt có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi, không chê ti mẹ cùng thành phần chất xơ tự nhiên tránh táo bón.</v>
+      </c>
+      <c r="M2">
+        <v>48500000</v>
+      </c>
+      <c r="N2">
+        <v>55500000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>12.612612612612612%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>&lt;h2 class="section-title text-blue"&gt;&lt;span style="color:#ff0066"&gt;&lt;strong&gt;Thông số sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;&lt;div class="data-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Sản phẩm&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Sữa Meiji số 0-1 tuổi&lt;/span&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Xuất xứ&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Nhật Bản&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Hãng sản xuất&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Meiji&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Trọng lượng&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;800g&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Quy cách đóng gói&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Hộp sẳt&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; là sữa bột công thức hàng đầu cho trẻ sơ sinh được các mẹ bỉm sữa nội địa Nhật và cả Việt Nam tin dùng. Bởi sữa Meiji số 0 có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi với sữa bột, lại không chê ti mẹ. Đặc biệt, sữa có thành phần bổ sung chất xơ tự nhiên hạn chế bị táo bón hiệu quả.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;1. Thành phần dinh dưỡng sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;&lt;img alt="Bảng thành phần dinh dưỡng của sữa Meiji số 0" title="Bảng thành phần dinh dưỡng của sữa Meiji số 0" src="https://product.hstatic.net/200000833669/product/bang-dinh-duong-sua-meiji-so-0-1-tuoi_8e2ded54f4dc45559f2f45ecd320b440.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Bảng dinh dưỡng sữa Meiji số 0 cho bé 0 - 12 tháng tuổi&lt;/em&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;2. Thành phần nổi bật&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji số 0 hỗ trợ mẹ mang đến cho bé nguồn dinh dưỡng an toàn, đầy đủ để vững tin phát triển trong những năm tháng đầu đời. Cụ thể, sữa Meiji có những thành phần nổi bật đó là:&lt;/p&gt;&lt;h3&gt;Bổ sung chất xơ tự nhiên FOS (Fructo-Oligosaccharides)&lt;/h3&gt;&lt;p&gt;Các nghiên cứu cho thấy FOS là chất xơ hòa tan, có rất nhiều lợi ích đối với sức khỏe con người. Đây là người bạn tuyệt vời của hệ tiêu hóa, tim mạch, hệ miễn dịch,...&lt;/p&gt;&lt;h3&gt;Cung cấp nhiều vitamin và các khoáng chất thiết yếu&lt;/h3&gt;&lt;p&gt;Trong thành phần của sữa Meiji rất giàu vitamin như: A, C, D, vitamin nhóm B,... cùng các khoáng chất cần thiết (sắt, kẽm, photpho,...) hỗ trợ tối ưu sự phát triển toàn diện cho bé.&lt;/p&gt;&lt;h3&gt;Bổ sung các Nucleotides tự nhiên có trong sữa mẹ&lt;/h3&gt;&lt;p&gt;Meiji hiểu rằng ở giai đoạn đầu đời hệ miễn dịch của con còn rất non yếu, dễ bị vi khuẩn tấn công và nhiễm bệnh. Vì thế, công thức sữa cho trẻ sơ sinh của Meiji đã bổ sung thêm các Nucleotides tự nhiên có trong sữa mẹ giúp tăng cường đề kháng.&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0-2_16b8a8ff0726471c9a9833f51053862b.jpg"&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0_3da58f5faf6c4823b559a5d1ecdd4674.jpg"&gt;&lt;/p&gt;&lt;div&gt;&lt;div class="ace-line ace-line old-record-id-WDu1dC4sBowBjSxZhEDlYiHSgrh"&gt;&lt;em&gt;Thiết kế bao bì dễ sử dụng của sữa Meiji số 0 nội địa Nhật&lt;/em&gt;&lt;/div&gt;&lt;/div&gt;&lt;h2&gt;&lt;strong&gt;3. Đặc điểm nổi bật của sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Cẩm nang nuôi con khỏe mạnh - thông minh của nhiều mẹ bỉm sữa chia sẻ thường dành nhiều lời khen ngợi cho sữa Meiji số 0. Bởi sản phẩm có những đặc điểm nổi bật mà mẹ rất tâm đắc, cụ thể:&lt;/p&gt;&lt;h3&gt;Sữa có vị nhạt, mùi vị gần giống sữa mẹ&lt;/h3&gt;&lt;p&gt;Các mẹ thường có một nỗi lo lắng chung là sữa công thức thơm ngon hơn sữa mẹ, dễ khiến bé chê ti mẹ. Trong khi đó, sữa mẹ luôn là nguồn dinh dưỡng tốt nhất cho sự phát triển của trẻ sơ sinh và trẻ nhỏ. Hiểu được điều đó, sữa Meiji số 0 đã ra đời với hương thơm cùng mùi vị gần giống sữa mẹ nhất. Do vậy, mẹ cứ yên tâm sử dụng cả sữa mẹ lẫn sữa công thức cho bé nhé!&lt;/p&gt;&lt;h3&gt;Hỗ trợ bé tăng cân, chiều cao đều, không tăng nhanh, tránh béo phì&lt;/h3&gt;&lt;p&gt;Với thành phần dinh dưỡng cân bằng, hướng tới sự phát triển toàn diện, sữa Meiji số 0 là người bạn đồng hành lý tưởng hỗ trợ bé tăng cân và chiều cao đồng đều. Nhờ vậy, mẹ chẳng lo con bị béo phì, thừa cân mà có thể yên tâm nhìn con cao lớn từng chút một khỏe mạnh và ổn định.&lt;/p&gt;&lt;p&gt;&lt;img alt="Sữa Meiji số 0 giúp bé hạn chế táo bón" title="Sữa Meiji số 0 giúp bé hạn chế táo bón" src="https://product.hstatic.net/200000833669/product/sua-meiji-so-0-giup-be-han-che-tao-bon_ba6b62df8c574dacbd09e603cbf5624c.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Với sữa Meiji số 0 mẹ có thể an tâm con tiêu hóa tốt, ít bị táo bón&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Hạn chế táo bón, phân xốp cùng hệ tiêu hóa khỏe mạnh&lt;/h3&gt;&lt;p&gt;Sữa Meiji giúp bé củng cố sức khỏe đường ruột, tiêu hóa tốt hơn nhờ có thành phần chất xơ tự nhiên FOS. Bởi khi vào ruột, FOS sẽ hút nước trương nở tạo khối phân, làm mềm phân và giúp đào thải phân cùng các chất cặn bã nhanh chóng ra khỏi cơ thể.&lt;/p&gt;&lt;p&gt;Bên cạnh đó, FOS còn có tác dụng&lt;strong&gt; kích thích các lợi khuẩn trong đường ruột phát triển&lt;/strong&gt;, đồng thời giúp tăng cường hấp thu canxi cùng magie tại ruột già. Vì thế, bé uống sữa Meiji mẹ yên tâm lắm bởi bé ít bị táo bón và hấp thu dưỡng chất tốt hơn.&lt;/p&gt;&lt;h3&gt;Tăng cường sức đề kháng, nâng cao miễn dịch&lt;/h3&gt;&lt;p&gt;Chất xơ hòa tan FOS cùng với &lt;strong&gt;các Nucleotides tự nhiên&lt;/strong&gt; trong sữa Meiji có khả năng tăng cường miễn dịch, cho bé sức đề kháng tốt để chống chọi với vi khuẩn, bệnh tật.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;4. Hướng dẫn cách pha sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Nhiều mẹ bỉm sữa, nhất là những chị em làm mẹ lần đầu rất lúng túng trong việc pha sữa Meiji cho bé. Mẹ không biết 1 gạt thìa sữa pha khoảng bao nhiêu ml thì hợp lý. Dưới đây là hướng dẫn cách pha chuẩn theo hướng dẫn của nhà sản xuất các mẹ cần biết:&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Một thìa gạt ngang&lt;/strong&gt; sữa Meiji tương đương 2,7g bột sữa pha được&lt;strong&gt; 20ml sữa.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Cách pha:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng&lt;strong&gt; 3 - 5 phút&lt;/strong&gt; để khử trùng.&lt;/li&gt;&lt;li&gt;Bước 2: Lấy nước sôi&lt;strong&gt; để&lt;/strong&gt; &lt;strong&gt;nguội đến 70 độ C&lt;/strong&gt; pha sữa.&lt;/li&gt;&lt;li&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào &lt;strong&gt;⅔ lượng nước cần thiết&lt;/strong&gt; và lắc/ khuấy đều đến khi hòa tan sữa. (Do nước ở 70 độ C khá nóng nên bố mẹ cần cẩn thận tránh bị bỏng).&lt;/li&gt;&lt;li&gt;Bước 4: Đổ tiếp nước 70 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/li&gt;&lt;li&gt;Bước 5: Chờ sữa nguội khoảng &lt;strong&gt;38 độ C&lt;/strong&gt; thì cho bé bú.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Tham khảo:&amp;nbsp;&lt;a style="font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-size: 1.25rem; font-weight: 700; background-color: #ffffff; text-align: left;" href="/blogs/me-be/huong-dan-cach-pha-sua-meiji-so-0-9-chuan"&gt;&lt;span&gt;[HƯỚNG DẪN] Cách pha sữa Meiji số 0, 9 chuẩn hướng dẫn Nhà sản xuất&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;div style="outline: 0px; vertical-align: baseline; margin: 0px; border-width: 0px 0px 1px; border-top-style: initial; border-right-style: initial; border-bottom-style: solid; border-left-style: initial; border-top-color: initial; border-right-color: initial; border-bottom-color: #ebebeb; border-left-color: initial; border-image: initial; padding: 0px 0px 15px; font-variant-numeric: inherit; font-variant-east-asian: inherit; font-variant-alternates: inherit; font-variant-position: inherit; font-stretch: inherit; line-height: inherit; font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-optical-sizing: inherit; font-kerning: inherit; font-feature-settings: inherit; font-variation-settings: inherit; display: flex; -webkit-box-pack: justify; justify-content: space-between; -webkit-box-align: center; align-items: center; color: #333333;" class="news-detail-meta flex justify-between items-center"&gt;&amp;nbsp;&lt;/div&gt;&lt;p&gt;&lt;img alt="Pha sữa Meiji số 0 dùng nước 70 độ " title="Pha sữa Meiji số 0 dùng nước 70 độ " src="https://product.hstatic.net/200000833669/product/pha-sua-meiji-so-0_6192ae5cb53d48f7ac4e3ab0b0c52cb4.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Sữa Meiji số 0 khác với các loại sữa Nhật khác là sử dụng nước pha ở 70 độ C&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Mẹo khi pha sữa:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mẹ có thể&lt;strong&gt; cho bình sữa vào chậu nước mát, lạnh&lt;/strong&gt; để nguội nhanh hơn, tiết kiệm thời gian.&lt;/li&gt;&lt;li&gt;Trước khi cho bé bú, mẹ hãy &lt;strong&gt;kiểm tra nhiệt độ của sữa&lt;/strong&gt; tránh làm bỏng bé.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;img alt="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" title="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" src="https://product.hstatic.net/200000833669/product/lieu-luong-sua-meiji-so-0-theo-do-tuoi-cua-be_5ed9bd72449947e3bd19ac0f1138e626.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;em&gt;Tùy độ tuổi, cân nặng của bé mà mẹ sử dụng lượng sữa khác nhau&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;5. Hướng dẫn bảo quản&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Mẹ cần chú ý bảo quản sữa đúng cách như sau:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/li&gt;&lt;li&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/li&gt;&lt;li&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/li&gt;&lt;li&gt;Hạn sử dụng của sữa được in dưới đáy lon là 18 tháng kể từ ngày sản xuất.&lt;/li&gt;&lt;li&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể dụng nhưng chất lượng không bằng ban đầu.&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;strong&gt;6. Thông tin thương hiệu sữa Meiji&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/p&gt;&lt;p&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/p&gt;&lt;p&gt;Tại Việt Nam, sữa Meiji cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa. Với chất lượng đảm bảo, tốt cho sự phát triển của bé và mức giá không quá cao, &lt;strong&gt;sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; vẫn luôn là sự lựa chọn hàng đầu cho giai đoạn đầu đời của bé.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1055411201</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/sachi-mochi-mochi-vi-cam-nhat-200g</v>
+      </c>
+      <c r="C2" t="str">
+        <v>SACHI MOCHI- Mochi vị cam Nhật 200g</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BÁNH KẸO, ĐỒ ĂN VẶT</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>deny</v>
+      </c>
+      <c r="G2" t="str">
+        <v>153314</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4971679301063</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/vi_cam_ff5c0af7b11c46609b460cb9e85d9f47.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/vi_cam_ff5c0af7b11c46609b460cb9e85d9f47.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="L2" t="str">
+        <v>SACHI MOCHI- Mochi vị cam Nhật 200g</v>
+      </c>
+      <c r="M2">
+        <v>11500000</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>SACHI MOCHI- Mochi vị cam Nhật 200g</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>1052913902</v>
+      </c>
+      <c r="B3" t="str">
+        <v>https://sakukostore.com.vn/products/seiki-banh-mochi-daifuku-vi-dua-luoi-30-cai</v>
+      </c>
+      <c r="C3" t="str">
+        <v>[TRUNG THU 2024] SEIKI- Bánh Mochi Daifuku vị dưa lưới 30 cái</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Bánh</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G3" t="str">
+        <v>153238</v>
+      </c>
+      <c r="H3" t="str">
+        <v>4990485004982</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4990485004982_1_c8f96ded3e4b4345bfaa6636365d0698.jpg</v>
+      </c>
+      <c r="J3" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4990485004982_1_c8f96ded3e4b4345bfaa6636365d0698.jpg,https://product.hstatic.net/200000833669/product/4990485004982_2_d3b03b2d62f34ec1a0357b4c8b02ab2a.jpeg</v>
+      </c>
+      <c r="K3" t="str">
+        <v>SEIKI</v>
+      </c>
+      <c r="L3" t="str">
+        <v>Vỏ bánh từ gạo mochi cao cấp mềm dẻoNhân kem dưa lưới thơm mátPhù hợp thưởng thức cùng trà nóng</v>
+      </c>
+      <c r="M3">
+        <v>29250000</v>
+      </c>
+      <c r="N3">
+        <v>32500000</v>
+      </c>
+      <c r="O3" t="str">
+        <v>10%</v>
+      </c>
+      <c r="P3" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;&lt;h1&gt;&lt;strong&gt;TRUNG THU VIỆT, CHỌN VỊ NHẬT&lt;/strong&gt;&lt;/h1&gt;&lt;p&gt;Trải qua hàng nghìn năm lịch sử, những chiếc bánh&amp;nbsp;Nhật Bản đã trở thành biểu tượng của nghệ thuật và văn hóa ẩm thực độc đáo, sở hữu một hương vị riêng không lẫn vào đâu được. Bất kỳ ai cũng&amp;nbsp;chẳng thể cưỡng lại sự quyến rũ từ vị ngọt dịu dàng, sự hòa quyện giữa hương vị truyền thống và hiện đại. Nguyên liệu sử dụng cho việc chế biến đều được xứ sở hoa anh đào gửi gắm rất nhiều tình cảm và công phu.&lt;/p&gt;&lt;p&gt;Mùa Trung Thu năm nay, Sakuko đem đến cho quý khách hàng cơ hội để có thể trải nghiệm những thức quà đậm nét văn hóa Nhật Bản, thông qua những chiếc bánh Mochi hay Daifuku. Hãy đặt hàng ngay để không bỏ lỡ ưu đãi lên tới 40% cùng hương vị khó quên.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THỜI GIAN NHẬN ĐẶT HÀNG: 11/06/2024&amp;nbsp;- 25/06/2024&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THỜI ĐIỂM DỰ KIẾN HÀNG VỀ: 12/09/2024&lt;/strong&gt;&lt;/p&gt;&lt;p style="text-align: center"&gt;&lt;img style="width: 847.988px; height: 443.984px;" src="//file.hstatic.net/200000833669/file/sakuko_2400x1256_mochi_11062024_0568fb6fd5b44f91a0b2168c3ba6c2bb_grande.jpg"&gt;&lt;/p&gt;Thông tin sản phẩm&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;div&gt;&lt;strong&gt;TÊN SP&lt;/strong&gt; : SEIKI- Bánh Mochi Daifuku vị dưa lưới 30 cái&lt;p&gt;&lt;strong&gt;KHỐI LƯỢNG TỊNH&lt;/strong&gt; : 360g/ hộp (30 cái)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HSD&lt;/strong&gt; : Xem trên bao bì sản phẩm&lt;/p&gt;&lt;p&gt;&lt;strong&gt;NGÀY SX&lt;/strong&gt; : Trước HSD 6 tháng&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÀNH PHẦN&lt;/strong&gt; : Xi-rô tinh bột (sản xuất tại Nhật Bản), đường, bột gạo nếp, tinh bột, dầu thực vật, lactose, sữa bột nguyên chất, bột kem, bơ ca cao, bột whey, dưa xay nhuyễn, xi-rô đảo đường/trehalose, chất nhũ hoá, hương liệu tổng hợp, phẩm màu tự nhiên (carotenoid)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CÔNG DỤNG&lt;/strong&gt; : Bánh mochi truyền thống Nhật Bản với vỏ bánh mềm thơm, nhân dưa lưới hấp dẫn.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;THÔNG TIN CẢNH BÁO&lt;/strong&gt; : Không sử dụng sản phẩm quá hạn. Lưu ý thành phần dị ứng&lt;/p&gt;&lt;p&gt;&lt;strong&gt;HDSD&lt;/strong&gt; : Ăn trực tiếp.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;BẢO QUẢN&lt;/strong&gt; : Tránh ánh nắng trực tiếp, nhiệt độ cao và độ ẩm&lt;/p&gt;&lt;p&gt;&lt;strong&gt;NHÀ SX&lt;/strong&gt; : Seiki Co.,Ltd.; 1240-1 Kitagawara, Matsumae-machi, Iyo-gun, Ehime, Nhật Bản.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;XUẤT XỨ&lt;/strong&gt; : Nhật Bản&lt;/p&gt;&lt;p&gt;&lt;strong&gt;CODE&lt;/strong&gt; : 4990485004982&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Số CB&lt;/strong&gt; : 132/BJ/2023&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>1052890607</v>
+      </c>
+      <c r="B4" t="str">
+        <v>https://sakukostore.com.vn/products/sua-meiji-so-0-1-tuoi-dang-hop-sat</v>
+      </c>
+      <c r="C4" t="str">
+        <v>MEIJI- Sữa số 0 cho bé từ 0-1 tuổi 800g</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Sữa Meiji</v>
+      </c>
+      <c r="E4">
+        <v>-5</v>
+      </c>
+      <c r="F4" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G4" t="str">
+        <v>150458</v>
+      </c>
+      <c r="H4" t="str">
+        <v>4902705116542</v>
+      </c>
+      <c r="I4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="J4" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji-suaso0chobetu0-1tuoi800g_dd28e4aa93e54376b54bc080999738c0.png</v>
+      </c>
+      <c r="K4" t="str">
+        <v>MEIJI</v>
+      </c>
+      <c r="L4" t="str">
+        <v>Sữa Meiji số 0 - 1 tuổi dạng hộp sắt có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi, không chê ti mẹ cùng thành phần chất xơ tự nhiên tránh táo bón.</v>
+      </c>
+      <c r="M4">
+        <v>48500000</v>
+      </c>
+      <c r="N4">
+        <v>55500000</v>
+      </c>
+      <c r="O4" t="str">
+        <v>12.612612612612612%</v>
+      </c>
+      <c r="P4" t="str">
+        <v>&lt;h2 class="section-title text-blue"&gt;&lt;span style="color:#ff0066"&gt;&lt;strong&gt;Thông số sản phẩm&lt;/strong&gt;&lt;/span&gt;&lt;/h2&gt;&lt;div class="data-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Sản phẩm&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Sữa Meiji số 0-1 tuổi&lt;/span&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Xuất xứ&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Nhật Bản&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Hãng sản xuất&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Meiji&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Trọng lượng&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;800g&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;span&gt;Quy cách đóng gói&lt;/span&gt;&lt;/td&gt;&lt;td&gt;&lt;span&gt;Hộp sẳt&lt;/span&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&amp;nbsp;&lt;/div&gt;&lt;/div&gt;&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; là sữa bột công thức hàng đầu cho trẻ sơ sinh được các mẹ bỉm sữa nội địa Nhật và cả Việt Nam tin dùng. Bởi sữa Meiji số 0 có hương vị gần giống sữa mẹ, giúp bé dễ thích nghi với sữa bột, lại không chê ti mẹ. Đặc biệt, sữa có thành phần bổ sung chất xơ tự nhiên hạn chế bị táo bón hiệu quả.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;1. Thành phần dinh dưỡng sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;&lt;img alt="Bảng thành phần dinh dưỡng của sữa Meiji số 0" title="Bảng thành phần dinh dưỡng của sữa Meiji số 0" src="https://product.hstatic.net/200000833669/product/bang-dinh-duong-sua-meiji-so-0-1-tuoi_8e2ded54f4dc45559f2f45ecd320b440.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Bảng dinh dưỡng sữa Meiji số 0 cho bé 0 - 12 tháng tuổi&lt;/em&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;2. Thành phần nổi bật&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji số 0 hỗ trợ mẹ mang đến cho bé nguồn dinh dưỡng an toàn, đầy đủ để vững tin phát triển trong những năm tháng đầu đời. Cụ thể, sữa Meiji có những thành phần nổi bật đó là:&lt;/p&gt;&lt;h3&gt;Bổ sung chất xơ tự nhiên FOS (Fructo-Oligosaccharides)&lt;/h3&gt;&lt;p&gt;Các nghiên cứu cho thấy FOS là chất xơ hòa tan, có rất nhiều lợi ích đối với sức khỏe con người. Đây là người bạn tuyệt vời của hệ tiêu hóa, tim mạch, hệ miễn dịch,...&lt;/p&gt;&lt;h3&gt;Cung cấp nhiều vitamin và các khoáng chất thiết yếu&lt;/h3&gt;&lt;p&gt;Trong thành phần của sữa Meiji rất giàu vitamin như: A, C, D, vitamin nhóm B,... cùng các khoáng chất cần thiết (sắt, kẽm, photpho,...) hỗ trợ tối ưu sự phát triển toàn diện cho bé.&lt;/p&gt;&lt;h3&gt;Bổ sung các Nucleotides tự nhiên có trong sữa mẹ&lt;/h3&gt;&lt;p&gt;Meiji hiểu rằng ở giai đoạn đầu đời hệ miễn dịch của con còn rất non yếu, dễ bị vi khuẩn tấn công và nhiễm bệnh. Vì thế, công thức sữa cho trẻ sơ sinh của Meiji đã bổ sung thêm các Nucleotides tự nhiên có trong sữa mẹ giúp tăng cường đề kháng.&lt;/p&gt;&lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0-2_16b8a8ff0726471c9a9833f51053862b.jpg"&gt;&lt;img src="https://product.hstatic.net/200000833669/product/se1bbafa-meiji-0_3da58f5faf6c4823b559a5d1ecdd4674.jpg"&gt;&lt;/p&gt;&lt;div&gt;&lt;div class="ace-line ace-line old-record-id-WDu1dC4sBowBjSxZhEDlYiHSgrh"&gt;&lt;em&gt;Thiết kế bao bì dễ sử dụng của sữa Meiji số 0 nội địa Nhật&lt;/em&gt;&lt;/div&gt;&lt;/div&gt;&lt;h2&gt;&lt;strong&gt;3. Đặc điểm nổi bật của sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Cẩm nang nuôi con khỏe mạnh - thông minh của nhiều mẹ bỉm sữa chia sẻ thường dành nhiều lời khen ngợi cho sữa Meiji số 0. Bởi sản phẩm có những đặc điểm nổi bật mà mẹ rất tâm đắc, cụ thể:&lt;/p&gt;&lt;h3&gt;Sữa có vị nhạt, mùi vị gần giống sữa mẹ&lt;/h3&gt;&lt;p&gt;Các mẹ thường có một nỗi lo lắng chung là sữa công thức thơm ngon hơn sữa mẹ, dễ khiến bé chê ti mẹ. Trong khi đó, sữa mẹ luôn là nguồn dinh dưỡng tốt nhất cho sự phát triển của trẻ sơ sinh và trẻ nhỏ. Hiểu được điều đó, sữa Meiji số 0 đã ra đời với hương thơm cùng mùi vị gần giống sữa mẹ nhất. Do vậy, mẹ cứ yên tâm sử dụng cả sữa mẹ lẫn sữa công thức cho bé nhé!&lt;/p&gt;&lt;h3&gt;Hỗ trợ bé tăng cân, chiều cao đều, không tăng nhanh, tránh béo phì&lt;/h3&gt;&lt;p&gt;Với thành phần dinh dưỡng cân bằng, hướng tới sự phát triển toàn diện, sữa Meiji số 0 là người bạn đồng hành lý tưởng hỗ trợ bé tăng cân và chiều cao đồng đều. Nhờ vậy, mẹ chẳng lo con bị béo phì, thừa cân mà có thể yên tâm nhìn con cao lớn từng chút một khỏe mạnh và ổn định.&lt;/p&gt;&lt;p&gt;&lt;img alt="Sữa Meiji số 0 giúp bé hạn chế táo bón" title="Sữa Meiji số 0 giúp bé hạn chế táo bón" src="https://product.hstatic.net/200000833669/product/sua-meiji-so-0-giup-be-han-che-tao-bon_ba6b62df8c574dacbd09e603cbf5624c.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Với sữa Meiji số 0 mẹ có thể an tâm con tiêu hóa tốt, ít bị táo bón&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Hạn chế táo bón, phân xốp cùng hệ tiêu hóa khỏe mạnh&lt;/h3&gt;&lt;p&gt;Sữa Meiji giúp bé củng cố sức khỏe đường ruột, tiêu hóa tốt hơn nhờ có thành phần chất xơ tự nhiên FOS. Bởi khi vào ruột, FOS sẽ hút nước trương nở tạo khối phân, làm mềm phân và giúp đào thải phân cùng các chất cặn bã nhanh chóng ra khỏi cơ thể.&lt;/p&gt;&lt;p&gt;Bên cạnh đó, FOS còn có tác dụng&lt;strong&gt; kích thích các lợi khuẩn trong đường ruột phát triển&lt;/strong&gt;, đồng thời giúp tăng cường hấp thu canxi cùng magie tại ruột già. Vì thế, bé uống sữa Meiji mẹ yên tâm lắm bởi bé ít bị táo bón và hấp thu dưỡng chất tốt hơn.&lt;/p&gt;&lt;h3&gt;Tăng cường sức đề kháng, nâng cao miễn dịch&lt;/h3&gt;&lt;p&gt;Chất xơ hòa tan FOS cùng với &lt;strong&gt;các Nucleotides tự nhiên&lt;/strong&gt; trong sữa Meiji có khả năng tăng cường miễn dịch, cho bé sức đề kháng tốt để chống chọi với vi khuẩn, bệnh tật.&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;4. Hướng dẫn cách pha sữa Meiji số 0&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Nhiều mẹ bỉm sữa, nhất là những chị em làm mẹ lần đầu rất lúng túng trong việc pha sữa Meiji cho bé. Mẹ không biết 1 gạt thìa sữa pha khoảng bao nhiêu ml thì hợp lý. Dưới đây là hướng dẫn cách pha chuẩn theo hướng dẫn của nhà sản xuất các mẹ cần biết:&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Một thìa gạt ngang&lt;/strong&gt; sữa Meiji tương đương 2,7g bột sữa pha được&lt;strong&gt; 20ml sữa.&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Cách pha:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng&lt;strong&gt; 3 - 5 phút&lt;/strong&gt; để khử trùng.&lt;/li&gt;&lt;li&gt;Bước 2: Lấy nước sôi&lt;strong&gt; để&lt;/strong&gt; &lt;strong&gt;nguội đến 70 độ C&lt;/strong&gt; pha sữa.&lt;/li&gt;&lt;li&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào &lt;strong&gt;⅔ lượng nước cần thiết&lt;/strong&gt; và lắc/ khuấy đều đến khi hòa tan sữa. (Do nước ở 70 độ C khá nóng nên bố mẹ cần cẩn thận tránh bị bỏng).&lt;/li&gt;&lt;li&gt;Bước 4: Đổ tiếp nước 70 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/li&gt;&lt;li&gt;Bước 5: Chờ sữa nguội khoảng &lt;strong&gt;38 độ C&lt;/strong&gt; thì cho bé bú.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Tham khảo:&amp;nbsp;&lt;a style="font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-size: 1.25rem; font-weight: 700; background-color: #ffffff; text-align: left;" href="/blogs/me-be/huong-dan-cach-pha-sua-meiji-so-0-9-chuan"&gt;&lt;span&gt;[HƯỚNG DẪN] Cách pha sữa Meiji số 0, 9 chuẩn hướng dẫn Nhà sản xuất&lt;/span&gt;&lt;/a&gt;&lt;/p&gt;&lt;div style="outline: 0px; vertical-align: baseline; margin: 0px; border-width: 0px 0px 1px; border-top-style: initial; border-right-style: initial; border-bottom-style: solid; border-left-style: initial; border-top-color: initial; border-right-color: initial; border-bottom-color: #ebebeb; border-left-color: initial; border-image: initial; padding: 0px 0px 15px; font-variant-numeric: inherit; font-variant-east-asian: inherit; font-variant-alternates: inherit; font-variant-position: inherit; font-stretch: inherit; line-height: inherit; font-family: -apple-system, BlinkMacSystemFont, 'Segoe UI', Roboto, 'Helvetica Neue', Arial, 'Noto Sans', sans-serif, 'Apple Color Emoji', 'Segoe UI Emoji', 'Segoe UI Symbol', 'Noto Color Emoji'; font-optical-sizing: inherit; font-kerning: inherit; font-feature-settings: inherit; font-variation-settings: inherit; display: flex; -webkit-box-pack: justify; justify-content: space-between; -webkit-box-align: center; align-items: center; color: #333333;" class="news-detail-meta flex justify-between items-center"&gt;&amp;nbsp;&lt;/div&gt;&lt;p&gt;&lt;img alt="Pha sữa Meiji số 0 dùng nước 70 độ " title="Pha sữa Meiji số 0 dùng nước 70 độ " src="https://product.hstatic.net/200000833669/product/pha-sua-meiji-so-0_6192ae5cb53d48f7ac4e3ab0b0c52cb4.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;em&gt;Sữa Meiji số 0 khác với các loại sữa Nhật khác là sử dụng nước pha ở 70 độ C&lt;span&gt;&amp;nbsp;&lt;/span&gt;&lt;/em&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Mẹo khi pha sữa:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Mẹ có thể&lt;strong&gt; cho bình sữa vào chậu nước mát, lạnh&lt;/strong&gt; để nguội nhanh hơn, tiết kiệm thời gian.&lt;/li&gt;&lt;li&gt;Trước khi cho bé bú, mẹ hãy &lt;strong&gt;kiểm tra nhiệt độ của sữa&lt;/strong&gt; tránh làm bỏng bé.&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;strong&gt;&lt;em&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/em&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;&lt;img alt="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" title="Liều lượng sữa Meiji số 0 cho bé theo độ tuổi" src="https://product.hstatic.net/200000833669/product/lieu-luong-sua-meiji-so-0-theo-do-tuoi-cua-be_5ed9bd72449947e3bd19ac0f1138e626.jpg"&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;em&gt;Tùy độ tuổi, cân nặng của bé mà mẹ sử dụng lượng sữa khác nhau&lt;/em&gt;&lt;/span&gt;&lt;span&gt;&lt;em&gt;&amp;nbsp;&lt;/em&gt;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;strong&gt;5. Hướng dẫn bảo quản&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Mẹ cần chú ý bảo quản sữa đúng cách như sau:&lt;/p&gt;&lt;ul&gt;&lt;li&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/li&gt;&lt;li&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/li&gt;&lt;li&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/li&gt;&lt;li&gt;Hạn sử dụng của sữa được in dưới đáy lon là 18 tháng kể từ ngày sản xuất.&lt;/li&gt;&lt;li&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể dụng nhưng chất lượng không bằng ban đầu.&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;strong&gt;6. Thông tin thương hiệu sữa Meiji&lt;/strong&gt;&lt;/h2&gt;&lt;p&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/p&gt;&lt;p&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/p&gt;&lt;p&gt;Tại Việt Nam, sữa Meiji cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa. Với chất lượng đảm bảo, tốt cho sự phát triển của bé và mức giá không quá cao, &lt;strong&gt;sữa Meiji số 0 - 1 tuổi dạng hộp sắt&lt;/strong&gt; vẫn luôn là sự lựa chọn hàng đầu cho giai đoạn đầu đời của bé.&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P9"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -15,6 +15,10 @@
     <sheet name="all1726453966983" sheetId="10" r:id="rId10"/>
     <sheet name="sua-cho-be1726457954054" sheetId="11" r:id="rId11"/>
     <sheet name="all1726457954146" sheetId="12" r:id="rId12"/>
+    <sheet name="sua-cho-be1726463533407" sheetId="13" r:id="rId13"/>
+    <sheet name="all1726463533607" sheetId="14" r:id="rId14"/>
+    <sheet name="sua-cho-be1726464944601" sheetId="15" r:id="rId15"/>
+    <sheet name="all1726464945050" sheetId="16" r:id="rId16"/>
   </sheets>
 </workbook>
 </file>
@@ -1539,6 +1543,260 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1052915987</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/meiji-sua-so-9-cho-be-tu-1-3-tuoi-800g-ko-thia</v>
+      </c>
+      <c r="C2" t="str">
+        <v>MEIJI- Sữa số 9 cho bé từ 1-3 tuổi 800g (ko thìa)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Sản phẩm</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>210012</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2102012302009</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji_so_9_bb64fc069f664817a98862f9fa5e9ede.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji_so_9_bb64fc069f664817a98862f9fa5e9ede.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Bổ sung hàm lượng cao các vitamin cùng khoáng chất cho bé 1 - 3 tuổi.  Sữa có mùi thơm, vị nhạt, gần giống sữa mẹ, giúp bé không bị nóng.  Giàu DHA hỗ</v>
+      </c>
+      <c r="M2">
+        <v>38500000</v>
+      </c>
+      <c r="N2">
+        <v>43000000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>10.465116279069768%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji 1 - 3 tuổi dạng hộp sắt&lt;/span&gt;&lt;span&gt; (sữa Meiji số 9) là nguồn dinh dưỡng đạt chuẩn chất lượng ISO:9001. Sữa có mùi vị tương tự như sữa mẹ, cung cấp hệ dưỡng chất cân bằng, bổ sung nhiều vitamin cùng khoáng chất (sắt, canxi,...). Do vậy, bé 1 - 3 tuổi uống sữa Meiji 9 được hỗ trợ phát triển toàn diện về thể chất và trí não.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;1. Thành phần dinh dưỡng của sữa Meiji 1-3 tuổi&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Ở giai đoạn 1 - 3 tuổi, bé đang cai sữa, tập đi, tập nói, nhận thức và khám phá cuộc sống xung quanh. Vì vậy, nhu cầu dinh dưỡng của bé cũng cao hơn hẳn so với giai đoạn sơ sinh. Sữa Meiji số 9 của Nhật được nghiên cứu và phát triển bám sát tiến trình thay đổi đó của bé nên cung cấp dinh dưỡng đầy đủ, cân bằng nhất cho bé ở giai đoạn 1-3 tuổi.&lt;/span&gt;&lt;/p&gt;&lt;div&gt;&amp;nbsp;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td colspan="4"&gt;&lt;p&gt;&lt;span&gt;Thành phần dinh dưỡng có trong 100g sữa Meiji 1-3 tuổi&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Năng lượng&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;461kcal&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Axit folic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;130μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Protein&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;14.5g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Carotene β-&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;100 mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Lipid&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;18.0g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Kali&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;790mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Carbohydrate&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;60.6g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Canxi&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;715mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Sodium&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;220mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Sắt&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;10mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin A&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;500μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Magnesium&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;95mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B1&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.7mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Photpho&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;360mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B2&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.8mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Fructo-oligosaccharide&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.5g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B6&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.7mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;α- axit linolenic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.5g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B12&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;1.2μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;DHA (docosahexaenoic acid)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;100mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin C&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;60mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Axit linoleic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin D&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;4.2μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Chlorine&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;520mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin E&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;5.5mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Nucleotide&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;6mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin K&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;32μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Độ tro&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;4.1g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Niacin&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;8.6mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Độ ẩm&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2,8%&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Axit pantothenic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;4.4mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;img src="https://lh4.googleusercontent.com/pIIiK0Ogm3EEX-EO6l99TpSL1y2XwrPgreUsTJN_4cvWknsC-dpHQkPUXdCF8rPJmGbqDHrUGyhta9O6xk3ekpSSvtcPr1WL8HaBAAi56NRF9JC2NoTToTw5v37KF2LnhcfjiSSVneL0V9_e6weAmBc"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji cho bé 1 - 3 tuổi cung cấp nguồn dưỡng chất cân bằng, giàu vitamin, khoáng chất&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;2. Thành phần nổi bật&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Thành phần sữa Meiji Nhật 1-3 tuổi về cơ bản tương tự sữa Meiji số 0. Tuy nhiên, Meiji đã bổ sung thêm hàm lượng các chất để đáp ứng tối ưu nhu cầu dinh dưỡng tăng cao của bé 1 - 3 tuổi. Trong đó, sữa có các thành phần nổi bật hỗ trợ bé phát triển toàn diện đó là:&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Cung cấp 7 loại vitamin (A, C, D, K, E, các vitamin nhóm B) cùng nhiều khoáng chất&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji 1-3 tuổi nội địa Nhật bổ sung 7 loại vitamin và khoáng chất thiết yếu cung cấp cho bé hệ dinh dưỡng cân bằng, nâng cao sức đề kháng, ít ốm vặt.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Bổ sung hàm lượng Canxi gấp đôi sữa Meiji số 0&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Meiji hiểu rằng bé 1 - 3 tuổi cần lượng canxi cao để tạo nên hệ xương chắc khỏe. Vì vậy, trong thành phần sữa Meiji số 9 đã được bổ sung gấp đôi hàm lượng Canxi giúp bé phát triển răng và chiều cao.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Bổ sung nhiều DHA&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Trong 400ml sữa bột Meiji 1-3 tuổi của Nhật có chứa 56mg DHA giúp tăng cường sự phát triển não bộ và thị giác cho bé.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Có chứa thành phần chất xơ tự nhiên (FOS) và 5 Nucleotides có trong sữa mẹ&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;100g sữa Meiji Nhật cho trẻ 1-3 tuổi có chứa 5 Nucleotides chiếm 6mg cùng 0,5g Fructo-oligosaccharide (FOS) - chất xơ tự nhiên giúp tăng cường miễn dịch và sức khỏe hệ tiêu hóa.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;img src="https://lh5.googleusercontent.com/rGJxaFoYZ1sWtUfiOGCADezyEYr659JdgUyZ6wolKf3A5zVceEF-8SKnIdn1gW04NrOB1x-Y65hj6EKGfik-n2fkmLkESJswcKoQx4xORLycTK_WWbj2FW1Tx8b2m2YHqjpu_Ku_LjM4ze7heotodXE"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji số 9 với hàm lượng dinh dưỡng cân bằng giúp bé từ 1-3 tuổi phát triển đồng đều chiều cao - cân nặng.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;3. Công dụng sữa Meiji 1-3 tuổi nội địa Nhật&lt;/span&gt;&lt;/h2&gt;&lt;h3&gt;&lt;span&gt;Mang đến nguồn dưỡng chất cân bằng&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji số 9 cung cấp cho bé 1 - 3 tuổi tới hơn 70% nhu cầu vitamin và khoáng chất trên ngày theo khuyến nghị của FAO/WHO. Nhờ vậy, bé có được nguồn dinh dưỡng cân bằng để phát triển khỏe mạnh và năng lượng đảm bảo cho các hoạt động của bé.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Hỗ trợ và thúc đẩy sự phát triển trí não&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Bên cạnh hàm lượng cao DHA, sữa Meiji 1-3 nội địa Nhật còn có thêm nhiều vi chất như: kẽm, axit Folic, sắt cùng axit-linoleic (Omega 3), axit linoleic (Omega 6). Đây đều là những dưỡng chất hỗ trợ bé phát triển trí não rất tốt để có thể khám phá và học hỏi, tiếp thu những điều xung quanh mình.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Kích thích sự phát triển chiều cao và giúp răng chắc khỏe&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji 1-3 tuổi rất giàu Canxi kết hợp vitamin D hỗ trợ bé hấp thu Canxi tốt hơn. Do vậy, bé uống sữa Meiji mỗi ngày sẽ phát triển về chiều cao, đồng thời có được hàm răng chắc khỏe hơn.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Tăng cường sức khỏe hệ tiêu hóa&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Trong sữa Meiji 1-3 tuổi của Nhật có chứa FOS (Fructo-oligosaccha ride) là một loại chất xơ hòa tan. Dưỡng chất này không chỉ có tác dụng tăng cường khả năng hấp thu dưỡng chất cho bé mà còn giúp bé tiêu hóa tốt hơn, hạn chế táo bón.&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;4. Địa điểm bán sữa Meiji 1-3 tuổi nội địa Nhật&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Tại siêu thị hàng Nhật nội địa Sakuko Japanese Store, sữa Meiji 1-3 tuổi (sữa Meiji số 9) đang được bày bán chính hãng trên kệ hàng trên toàn hệ thống.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Bên cạnh đó khi lựa chọn mua hàng tại Sakuko bạn còn nhận được rất nhiều &lt;/span&gt;&lt;a href="/ho-tro/chinh-sach-giao-hang-1"&gt;&lt;span&gt;ưu đãi khi giao hàng&lt;/span&gt;&lt;/a&gt;&lt;span&gt; hấp dẫn. Theo dõi &lt;/span&gt;&lt;a href="https://www.facebook.com/SakukoStore/"&gt;&lt;span&gt;fanpage của Sakuko&lt;/span&gt;&lt;/a&gt;&lt;span&gt; ngay hôm nay để cập nhật những chương trình giảm giá mới nhất.&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;5. Hướng dẫn cách pha sữa Meiji 1-3 tuổi&amp;nbsp;&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Một thìa gạt ngang sữa Meiji cho trẻ 1-3 tuổi tương đương 5,6g sữa bột pha được 40ml sữa.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Cách pha:&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng 3 - 5 phút để khử trùng.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 2: Lấy nước sôi để nguội đến 50 độ C pha sữa.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào ⅔ lượng nước cần thiết và lắc/ khuấy đều đến khi hòa tan sữa.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 4: Đổ tiếp nước 50 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 5: Chờ sữa nguội khoảng 38 độ C thì cho bé bú.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;span&gt;Mẹo khi pha sữa:&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Mẹ có thể ngâm bình sữa vào chậu nước mát, lạnh để nguội nhanh hơn, tiết kiệm thời gian.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Trước khi cho bé bú, mẹ hãy kiểm tra nhiệt độ của sữa tránh làm bỏng bé.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;span&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/span&gt;&lt;/p&gt;&lt;div&gt;&amp;nbsp;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;p&gt;&lt;span&gt;Tuổi bé (tuổi)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td rowspan="2"&gt;&lt;p&gt;&lt;span&gt;Cân nặng tiêu chuẩn (kg)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td rowspan="2"&gt;&lt;p&gt;&lt;span&gt;Số ml tiêu chuẩn cho một lần ăn (ml)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td colspan="2"&gt;&lt;p&gt;&lt;span&gt;Số lần ăn trong ngày&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Số lần (lần)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Lượng (ml)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;1-1.5&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;9.2~10.3&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;200ml (5 thìa)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2-3&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;400-600&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;1.5-3&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;10.3~13.7&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;&amp;nbsp; 200ml (5 thìa)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;400&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;p&gt;&lt;span&gt;Mẹ pha lượng sữa tùy vào độ tuổi, cân nặng của bé để đáp ứng nhu cầu dinh dưỡng phù hợp nhất&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;6. Lưu ý về bao bì sữa Meiji 1-3 tuổi (ko thìa)&lt;/span&gt;&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Về barcode sản phẩm sữa Meiji 1-3 tuổi (loại không thìa), tức là lon 800g tách từ set đôi, nhà sản xuất đã lược bỏ barcode trên bao bì. Tuy nhiên, các mẹ đừng lo lắng vì mình hoàn toàn có thể kiểm tra thông tin sản phẩm từ nhà sản xuất (tất nhiên là bằng tiếng Nhật) thông qua mã QR code.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;span&gt;&lt;img src="https://lh4.googleusercontent.com/OVU2BuaeNoF-9o3vlFXpJzUihAmfImEQMYsgFLEXL9xv0MelF9PEiMMmZfEnleeje0-hEjaFsT565u9ZEFCyVNfMeZTrPWnnfPCqiyavruWDEP0jWHmU3nx2aZBSqhVyI9C8pytYWI_YRRhAQeJ_8JQ"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji số 9 bổ sung mã QR code tiện lợi giúp người dùng tra cứu thông tin sản phẩm từ nhà sản xuất dễ dàng&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Về quy cách sản phẩm sữa Meiji 1-3 tuổi lon 800g tách từ set đôi đã được nhà sản xuất loại bỏ thìa nhựa đi kèm nhằm mục đích giảm thiểu tiêu thụ nhựa, từ đó thúc đẩy ý thức bảo vệ môi trường, hạn chế rác thải nhựa của mọi người. Thay vào đó, các mẹ có thể yên tâm tái sử dụng thìa nhựa đã sử dụng từ các lon sữa trước để sử dụng tiếp.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;span&gt;7. Hướng dẫn bảo quản sữa Meiji 1-3 tuổi&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Mẹ cần chú ý bảo quản sữa Meiji nội địa 1-3 tuổi của Nhật đúng cách như sau:&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Hạn sử dụng của sữa là 18 tháng kể từ ngày sản xuất được in dưới đáy lon mẹ có thể kiểm tra.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể sử dụng nhưng chất lượng không bằng ban đầu.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;span&gt;8. Thông tin thương hiệu sữa Meiji&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Tại Việt Nam, &lt;/span&gt;&lt;span&gt;sữa Meiji 1 - 3 tuổi dạng hộp sắt&lt;/span&gt;&lt;span&gt; với chất lượng tốt, an toàn cùng giá không quá cao cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa.&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="tudienjp"&gt;&lt;div style="top: 0px; left: 0px; display: none;" class="o-search-mobile"&gt;&amp;nbsp;&lt;/div&gt;&lt;div style="width: 400px; top: 0px; left: 0px; display: none;" class="o-popup-tag o-bg-white o-border o-rounded o-shadow"&gt;&lt;div&gt;&lt;ul class="o-nav o-nav-tabs o-pop-nav"&gt;&lt;li class="o-nav-item"&gt;&lt;div class="o-nav-link active"&gt;Từ vựng&lt;/div&gt;&lt;/li&gt;&lt;li class="o-nav-item"&gt;&lt;div class="o-nav-link"&gt;Hán tự&lt;/div&gt;&lt;/li&gt;&lt;li class="o-nav-item"&gt;&lt;div class="o-nav-link"&gt;Dịch&lt;/div&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="o-selected-result o-pt-1"&gt;&lt;div&gt;Đang tìm kiếm ...&lt;/div&gt;&lt;div style="line-height: 1.7;" class="o-fs-6 o-mt-2"&gt;&lt;div class="o-float-start"&gt;&lt;div class="o-form-check"&gt;Tiếng Anh&lt;/div&gt;&lt;/div&gt;&lt;div class="o-float-end o-me-1"&gt;&lt;a target="_blank" class="o-link-secondary o-text-decoration-none" href="https://tudienjp.com/"&gt;Từ điển JP&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div id="tudienjpOff"&gt;&amp;nbsp;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1052915987</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/meiji-sua-so-9-cho-be-tu-1-3-tuoi-800g-ko-thia</v>
+      </c>
+      <c r="C2" t="str">
+        <v>MEIJI- Sữa số 9 cho bé từ 1-3 tuổi 800g (ko thìa)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Sản phẩm</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>210012</v>
+      </c>
+      <c r="H2" t="str">
+        <v>2102012302009</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji_so_9_bb64fc069f664817a98862f9fa5e9ede.png</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/meiji_so_9_bb64fc069f664817a98862f9fa5e9ede.png</v>
+      </c>
+      <c r="K2" t="str">
+        <v>Khác</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Bổ sung hàm lượng cao các vitamin cùng khoáng chất cho bé 1 - 3 tuổi.  Sữa có mùi thơm, vị nhạt, gần giống sữa mẹ, giúp bé không bị nóng.  Giàu DHA hỗ</v>
+      </c>
+      <c r="M2">
+        <v>38500000</v>
+      </c>
+      <c r="N2">
+        <v>43000000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>10.465116279069768%</v>
+      </c>
+      <c r="P2" t="str">
+        <v>&lt;div class="section-title text-blue"&gt;&lt;strong&gt;Thông tin sản phẩm&lt;/strong&gt;&lt;/div&gt;&lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji 1 - 3 tuổi dạng hộp sắt&lt;/span&gt;&lt;span&gt; (sữa Meiji số 9) là nguồn dinh dưỡng đạt chuẩn chất lượng ISO:9001. Sữa có mùi vị tương tự như sữa mẹ, cung cấp hệ dưỡng chất cân bằng, bổ sung nhiều vitamin cùng khoáng chất (sắt, canxi,...). Do vậy, bé 1 - 3 tuổi uống sữa Meiji 9 được hỗ trợ phát triển toàn diện về thể chất và trí não.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;1. Thành phần dinh dưỡng của sữa Meiji 1-3 tuổi&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Ở giai đoạn 1 - 3 tuổi, bé đang cai sữa, tập đi, tập nói, nhận thức và khám phá cuộc sống xung quanh. Vì vậy, nhu cầu dinh dưỡng của bé cũng cao hơn hẳn so với giai đoạn sơ sinh. Sữa Meiji số 9 của Nhật được nghiên cứu và phát triển bám sát tiến trình thay đổi đó của bé nên cung cấp dinh dưỡng đầy đủ, cân bằng nhất cho bé ở giai đoạn 1-3 tuổi.&lt;/span&gt;&lt;/p&gt;&lt;div&gt;&amp;nbsp;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td colspan="4"&gt;&lt;p&gt;&lt;span&gt;Thành phần dinh dưỡng có trong 100g sữa Meiji 1-3 tuổi&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Năng lượng&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;461kcal&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Axit folic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;130μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Protein&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;14.5g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Carotene β-&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;100 mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Lipid&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;18.0g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Kali&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;790mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Carbohydrate&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;60.6g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Canxi&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;715mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Sodium&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;220mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Sắt&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;10mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin A&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;500μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Magnesium&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;95mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B1&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.7mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Photpho&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;360mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B2&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.8mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Fructo-oligosaccharide&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.5g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B6&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.7mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;α- axit linolenic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;0.5g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin B12&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;1.2μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;DHA (docosahexaenoic acid)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;100mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin C&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;60mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Axit linoleic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin D&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;4.2μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Chlorine&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;520mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin E&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;5.5mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Nucleotide&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;6mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Vitamin K&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;32μg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Độ tro&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;4.1g&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Niacin&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;8.6mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Độ ẩm&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2,8%&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Axit pantothenic&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;4.4mg&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;p&gt;&amp;nbsp;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;img src="https://lh4.googleusercontent.com/pIIiK0Ogm3EEX-EO6l99TpSL1y2XwrPgreUsTJN_4cvWknsC-dpHQkPUXdCF8rPJmGbqDHrUGyhta9O6xk3ekpSSvtcPr1WL8HaBAAi56NRF9JC2NoTToTw5v37KF2LnhcfjiSSVneL0V9_e6weAmBc"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji cho bé 1 - 3 tuổi cung cấp nguồn dưỡng chất cân bằng, giàu vitamin, khoáng chất&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;2. Thành phần nổi bật&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Thành phần sữa Meiji Nhật 1-3 tuổi về cơ bản tương tự sữa Meiji số 0. Tuy nhiên, Meiji đã bổ sung thêm hàm lượng các chất để đáp ứng tối ưu nhu cầu dinh dưỡng tăng cao của bé 1 - 3 tuổi. Trong đó, sữa có các thành phần nổi bật hỗ trợ bé phát triển toàn diện đó là:&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Cung cấp 7 loại vitamin (A, C, D, K, E, các vitamin nhóm B) cùng nhiều khoáng chất&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji 1-3 tuổi nội địa Nhật bổ sung 7 loại vitamin và khoáng chất thiết yếu cung cấp cho bé hệ dinh dưỡng cân bằng, nâng cao sức đề kháng, ít ốm vặt.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Bổ sung hàm lượng Canxi gấp đôi sữa Meiji số 0&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Meiji hiểu rằng bé 1 - 3 tuổi cần lượng canxi cao để tạo nên hệ xương chắc khỏe. Vì vậy, trong thành phần sữa Meiji số 9 đã được bổ sung gấp đôi hàm lượng Canxi giúp bé phát triển răng và chiều cao.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Bổ sung nhiều DHA&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Trong 400ml sữa bột Meiji 1-3 tuổi của Nhật có chứa 56mg DHA giúp tăng cường sự phát triển não bộ và thị giác cho bé.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Có chứa thành phần chất xơ tự nhiên (FOS) và 5 Nucleotides có trong sữa mẹ&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;100g sữa Meiji Nhật cho trẻ 1-3 tuổi có chứa 5 Nucleotides chiếm 6mg cùng 0,5g Fructo-oligosaccharide (FOS) - chất xơ tự nhiên giúp tăng cường miễn dịch và sức khỏe hệ tiêu hóa.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;&lt;img src="https://lh5.googleusercontent.com/rGJxaFoYZ1sWtUfiOGCADezyEYr659JdgUyZ6wolKf3A5zVceEF-8SKnIdn1gW04NrOB1x-Y65hj6EKGfik-n2fkmLkESJswcKoQx4xORLycTK_WWbj2FW1Tx8b2m2YHqjpu_Ku_LjM4ze7heotodXE"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji số 9 với hàm lượng dinh dưỡng cân bằng giúp bé từ 1-3 tuổi phát triển đồng đều chiều cao - cân nặng.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;3. Công dụng sữa Meiji 1-3 tuổi nội địa Nhật&lt;/span&gt;&lt;/h2&gt;&lt;h3&gt;&lt;span&gt;Mang đến nguồn dưỡng chất cân bằng&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji số 9 cung cấp cho bé 1 - 3 tuổi tới hơn 70% nhu cầu vitamin và khoáng chất trên ngày theo khuyến nghị của FAO/WHO. Nhờ vậy, bé có được nguồn dinh dưỡng cân bằng để phát triển khỏe mạnh và năng lượng đảm bảo cho các hoạt động của bé.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Hỗ trợ và thúc đẩy sự phát triển trí não&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Bên cạnh hàm lượng cao DHA, sữa Meiji 1-3 nội địa Nhật còn có thêm nhiều vi chất như: kẽm, axit Folic, sắt cùng axit-linoleic (Omega 3), axit linoleic (Omega 6). Đây đều là những dưỡng chất hỗ trợ bé phát triển trí não rất tốt để có thể khám phá và học hỏi, tiếp thu những điều xung quanh mình.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Kích thích sự phát triển chiều cao và giúp răng chắc khỏe&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji 1-3 tuổi rất giàu Canxi kết hợp vitamin D hỗ trợ bé hấp thu Canxi tốt hơn. Do vậy, bé uống sữa Meiji mỗi ngày sẽ phát triển về chiều cao, đồng thời có được hàm răng chắc khỏe hơn.&lt;/span&gt;&lt;/p&gt;&lt;h3&gt;&lt;span&gt;Tăng cường sức khỏe hệ tiêu hóa&lt;/span&gt;&lt;/h3&gt;&lt;p&gt;&lt;span&gt;Trong sữa Meiji 1-3 tuổi của Nhật có chứa FOS (Fructo-oligosaccha ride) là một loại chất xơ hòa tan. Dưỡng chất này không chỉ có tác dụng tăng cường khả năng hấp thu dưỡng chất cho bé mà còn giúp bé tiêu hóa tốt hơn, hạn chế táo bón.&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;4. Địa điểm bán sữa Meiji 1-3 tuổi nội địa Nhật&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Tại siêu thị hàng Nhật nội địa Sakuko Japanese Store, sữa Meiji 1-3 tuổi (sữa Meiji số 9) đang được bày bán chính hãng trên kệ hàng trên toàn hệ thống.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Bên cạnh đó khi lựa chọn mua hàng tại Sakuko bạn còn nhận được rất nhiều &lt;/span&gt;&lt;a href="/ho-tro/chinh-sach-giao-hang-1"&gt;&lt;span&gt;ưu đãi khi giao hàng&lt;/span&gt;&lt;/a&gt;&lt;span&gt; hấp dẫn. Theo dõi &lt;/span&gt;&lt;a href="https://www.facebook.com/SakukoStore/"&gt;&lt;span&gt;fanpage của Sakuko&lt;/span&gt;&lt;/a&gt;&lt;span&gt; ngay hôm nay để cập nhật những chương trình giảm giá mới nhất.&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;5. Hướng dẫn cách pha sữa Meiji 1-3 tuổi&amp;nbsp;&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Một thìa gạt ngang sữa Meiji cho trẻ 1-3 tuổi tương đương 5,6g sữa bột pha được 40ml sữa.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Cách pha:&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Bước 1: Đầu tiên, bố mẹ cần đun sôi dụng cụ pha sữa trong vòng 3 - 5 phút để khử trùng.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 2: Lấy nước sôi để nguội đến 50 độ C pha sữa.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 3: Sử dụng thìa lấy sữa chuyên dụng trong hộp để lấy chính xác lượng sữa cần pha. Cho sữa vào dụng cụ pha rồi đổ vào ⅔ lượng nước cần thiết và lắc/ khuấy đều đến khi hòa tan sữa.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 4: Đổ tiếp nước 50 độ vào bình cho đủ lượng nước theo chỉ định và tiếp tục lắc/ khuấy đều.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Bước 5: Chờ sữa nguội khoảng 38 độ C thì cho bé bú.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;span&gt;Mẹo khi pha sữa:&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Mẹ có thể ngâm bình sữa vào chậu nước mát, lạnh để nguội nhanh hơn, tiết kiệm thời gian.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Trước khi cho bé bú, mẹ hãy kiểm tra nhiệt độ của sữa tránh làm bỏng bé.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;span&gt;Liều lượng sữa cho bé theo từng độ tuổi:&lt;/span&gt;&lt;/p&gt;&lt;div&gt;&amp;nbsp;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td rowspan="2"&gt;&lt;p&gt;&lt;span&gt;Tuổi bé (tuổi)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td rowspan="2"&gt;&lt;p&gt;&lt;span&gt;Cân nặng tiêu chuẩn (kg)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td rowspan="2"&gt;&lt;p&gt;&lt;span&gt;Số ml tiêu chuẩn cho một lần ăn (ml)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td colspan="2"&gt;&lt;p&gt;&lt;span&gt;Số lần ăn trong ngày&amp;nbsp;&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Số lần (lần)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;Lượng (ml)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;1-1.5&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;9.2~10.3&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;200ml (5 thìa)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2-3&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;400-600&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;1.5-3&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;10.3~13.7&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;&amp;nbsp; 200ml (5 thìa)&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;2&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;td&gt;&lt;p&gt;&lt;span&gt;400&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;p&gt;&lt;span&gt;Mẹ pha lượng sữa tùy vào độ tuổi, cân nặng của bé để đáp ứng nhu cầu dinh dưỡng phù hợp nhất&lt;/span&gt;&lt;/p&gt;&lt;h2&gt;&lt;span&gt;6. Lưu ý về bao bì sữa Meiji 1-3 tuổi (ko thìa)&lt;/span&gt;&lt;/h2&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Về barcode sản phẩm sữa Meiji 1-3 tuổi (loại không thìa), tức là lon 800g tách từ set đôi, nhà sản xuất đã lược bỏ barcode trên bao bì. Tuy nhiên, các mẹ đừng lo lắng vì mình hoàn toàn có thể kiểm tra thông tin sản phẩm từ nhà sản xuất (tất nhiên là bằng tiếng Nhật) thông qua mã QR code.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;span&gt;&lt;img src="https://lh4.googleusercontent.com/OVU2BuaeNoF-9o3vlFXpJzUihAmfImEQMYsgFLEXL9xv0MelF9PEiMMmZfEnleeje0-hEjaFsT565u9ZEFCyVNfMeZTrPWnnfPCqiyavruWDEP0jWHmU3nx2aZBSqhVyI9C8pytYWI_YRRhAQeJ_8JQ"&gt;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji số 9 bổ sung mã QR code tiện lợi giúp người dùng tra cứu thông tin sản phẩm từ nhà sản xuất dễ dàng&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Về quy cách sản phẩm sữa Meiji 1-3 tuổi lon 800g tách từ set đôi đã được nhà sản xuất loại bỏ thìa nhựa đi kèm nhằm mục đích giảm thiểu tiêu thụ nhựa, từ đó thúc đẩy ý thức bảo vệ môi trường, hạn chế rác thải nhựa của mọi người. Thay vào đó, các mẹ có thể yên tâm tái sử dụng thìa nhựa đã sử dụng từ các lon sữa trước để sử dụng tiếp.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;span&gt;7. Hướng dẫn bảo quản sữa Meiji 1-3 tuổi&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Mẹ cần chú ý bảo quản sữa Meiji nội địa 1-3 tuổi của Nhật đúng cách như sau:&lt;/span&gt;&lt;/p&gt;&lt;ul&gt;&lt;li&gt;&lt;span&gt;Bảo quản sữa Meiji ở những nơi khô thoáng&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Tránh sự tiếp xúc với ánh nắng trực tiếp, những nơi có nhiệt độ cao hoặc ẩm ướt&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Sữa Meiji đã pha có thời gian sử dụng là 2 tiếng sau khi pha và chỉ dùng 1 lần. Nếu bé uống không hết, còn thừa mẹ cũng tuyệt đối không cho bé dùng tiếp.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Hạn sử dụng của sữa là 18 tháng kể từ ngày sản xuất được in dưới đáy lon mẹ có thể kiểm tra.&lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;span&gt;Đóng nắp sữa thật chặt sau mỗi lần lấy và chỉ nên sử dụng trong khoảng 30 ngày kể từ khi mở nắp hộp để đảm bảo chất lượng sữa tốt nhất. Sau 30 ngày sữa còn mẹ cũng có thể sử dụng nhưng chất lượng không bằng ban đầu.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;&lt;h2&gt;&lt;span&gt;8. Thông tin thương hiệu sữa Meiji&lt;/span&gt;&lt;/h2&gt;&lt;p&gt;&lt;span&gt;Sữa Meiji là sản phẩm của công ty Meiji thuộc tập đoàn Meiji Holdings Co., Ltd được thành lập vào năm 1917. Với tuổi đời hơn 100 năm, cái tên Meiji đã trở thành một trong những thương hiệu sữa truyền thống hàng đầu không chỉ ở Nhật Bản mà cả Châu Á. Các sản phẩm sữa của hãng luôn đảm bảo chất lượng tốt, đạt chứng nhận ISO 9001 được người dùng tại nhiều nước trên thế giới tin dùng.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Hiện Meiji cung cấp hơn 4000 mặt hàng với 6 dòng sản phẩm chính, chủ yếu là sản phẩm từ sữa. Trong đó, sữa bột, sữa chua,... chiếm thị phần số 1 ở thị trường nội địa Nhật.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span&gt;Tại Việt Nam, &lt;/span&gt;&lt;span&gt;sữa Meiji 1 - 3 tuổi dạng hộp sắt&lt;/span&gt;&lt;span&gt; với chất lượng tốt, an toàn cùng giá không quá cao cũng nhận được nhiều đánh giá, review tốt của các mẹ bỉm sữa.&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;div id="tudienjp"&gt;&lt;div style="top: 0px; left: 0px; display: none;" class="o-search-mobile"&gt;&amp;nbsp;&lt;/div&gt;&lt;div style="width: 400px; top: 0px; left: 0px; display: none;" class="o-popup-tag o-bg-white o-border o-rounded o-shadow"&gt;&lt;div&gt;&lt;ul class="o-nav o-nav-tabs o-pop-nav"&gt;&lt;li class="o-nav-item"&gt;&lt;div class="o-nav-link active"&gt;Từ vựng&lt;/div&gt;&lt;/li&gt;&lt;li class="o-nav-item"&gt;&lt;div class="o-nav-link"&gt;Hán tự&lt;/div&gt;&lt;/li&gt;&lt;li class="o-nav-item"&gt;&lt;div class="o-nav-link"&gt;Dịch&lt;/div&gt;&lt;/li&gt;&lt;/ul&gt;&lt;div class="o-selected-result o-pt-1"&gt;&lt;div&gt;Đang tìm kiếm ...&lt;/div&gt;&lt;div style="line-height: 1.7;" class="o-fs-6 o-mt-2"&gt;&lt;div class="o-float-start"&gt;&lt;div class="o-form-check"&gt;Tiếng Anh&lt;/div&gt;&lt;/div&gt;&lt;div class="o-float-end o-me-1"&gt;&lt;a target="_blank" class="o-link-secondary o-text-decoration-none" href="https://tudienjp.com/"&gt;Từ điển JP&lt;/a&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div id="tudienjpOff"&gt;&amp;nbsp;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P9"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -19,6 +19,8 @@
     <sheet name="all1726463533607" sheetId="14" r:id="rId14"/>
     <sheet name="sua-cho-be1726464944601" sheetId="15" r:id="rId15"/>
     <sheet name="all1726464945050" sheetId="16" r:id="rId16"/>
+    <sheet name="sua-cho-be1726495628346" sheetId="17" r:id="rId17"/>
+    <sheet name="all1726495628544" sheetId="18" r:id="rId18"/>
   </sheets>
 </workbook>
 </file>
@@ -1797,6 +1799,284 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2">
+        <v>1052912101</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/kumano-yushi-gel-dung-chiet-xuat-mat-ong-300g</v>
+      </c>
+      <c r="C2" t="str">
+        <v>KUMANO YUSHI- Gel dưỡng chiết xuất mật ong (300g)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Kem dưỡng</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>101780</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4513574037847</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4513574037847_66bbbb8f6ad04d79ae7f988e6fdd0294.jpg</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4513574037847_66bbbb8f6ad04d79ae7f988e6fdd0294.jpg</v>
+      </c>
+      <c r="K2" t="str">
+        <v>KUMANOYUSHI</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Dưỡng ẩm an toàn với thành phần thiên nhiên  Bổ sung collagen và ceramide chống lão hóa  Công thức dưỡng ẩm 5 trong 1 tiện lợi</v>
+      </c>
+      <c r="M2">
+        <v>18900000</v>
+      </c>
+      <c r="N2">
+        <v>18900000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P2" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;h2 class="section-title text-blue"&gt;Thông tin chi tiết&lt;/h2&gt;&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Gel dưỡng ẩm Deve Honey Manuka&lt;/strong&gt; giàu dưỡng chất dưỡng da và tính kháng khuẩn cao với thành phần chính là dưỡng chất mật ong, collagen và ceramide. Sản phẩm giúp cấp ẩm sâu, làm chậm quá trình lão hóa, đồng thời kháng khuẩn, chống viêm, giảm thiểu tình trạng mụn và thâm sau mụn hiệu quả.&lt;/p&gt;
+   &lt;h2&gt;THÀNH PHẦN&lt;/h2&gt;
+   &lt;p&gt;Water, Glycerin, Butylene Glycol, dưỡng chất mật ong, Soluble Collagen, Sodium Hyaluronate, Arginine, Ceramide NG, hương liệu và các thành phần khác.&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Hũ 300g&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/ng-e1baa9m-deve-honey-manuka-dc6b0e1bba1ng-che1baa5t-me1baadt-ong-300g_0c70e959a79847cfa3a61c0f46d1d941.jpg" alt="KUMANO YUSHI- Gel dưỡng ẩm Deve Honey Manuka dưỡng chất mật ong (300g)" title="KUMANO YUSHI- Gel dưỡng ẩm Deve Honey Manuka dưỡng chất mật ong (300g)"&gt;&lt;br&gt;
+   Gel dưỡng ẩm 5 trong 1 dưỡng chất mật ong dưỡng ẩm sâu, chống viêm, kháng khuẩn, ngăn ngừa mụn và thâm mụn&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Dưỡng ẩm an toàn với thành phần thiên nhiên&lt;/h3&gt;
+   &lt;p&gt;Gel dưỡng Deve Honey Manuka chứa thành phần mật ong cung cấp nước tạo độ ẩm cho da. Đồng thời, mật ong có khả năng kháng khuẩn, làm dịu vùng da bị tổn thương và hỗ trợ giảm thâm mụn hiệu quả&lt;/p&gt;
+   &lt;h3&gt;Bổ sung collagen và ceramide chống lão hóa&lt;/h3&gt;
+   &lt;p&gt;Sản phẩm được bổ sung thêm thành phần collagen giúp tăng độ săn chắc và đàn hồi, cải thiện các tình trạng lão hóa da như khô ráp, thâm nám và phục hồi làn da bị tổn thương do mụn. Bên cạnh đó, ceramide bảo vệ lớp biểu bì trước các tác hại của môi trường và chống lão hóa nhờ khả năng dưỡng ẩm hiệu quả&lt;/p&gt;
+   &lt;h3&gt;Công thức dưỡng ẩm 5 trong 1 tiện lợi khi chăm sóc da&lt;/h3&gt;
+   &lt;p&gt;Sản phẩm được nghiên cứu, sản xuất dựa trên công thức 5in1 gồm: Nước hoa hồng, sữa dưỡng, kem dưỡng, serum, mặt nạ, giúp đơn giản hóa các bước chăm sóc da chỉ trong một sản phẩm.&amp;nbsp;&lt;/p&gt;
+   &lt;h2&gt;HƯỚNG DẪN SỬ DỤNG&lt;/h2&gt;
+   &lt;ul&gt; &lt;li&gt;Sử dụng trên nền da khô.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Thoa một lượng vừa đủ lên da, đặc biệt tại các vùng da khô cần chăm sóc.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Có thể sử dụng dưỡng da toàn thân.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h2&gt;LƯU Ý&amp;nbsp;&lt;/h2&gt;
+   &lt;ul&gt; &lt;li&gt;Không sử dụng nếu dị ứng với bất kì thành phần nào của sản phẩm.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Ngưng sử dụng khi có triệu chứng bất thường.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h2&gt;BẢO QUẢN&lt;/h2&gt;
+   &lt;ul&gt; &lt;li&gt;Nơi khô thoáng, tránh ánh nắng mặt trời trực tiếp.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Để xa tầm tay trẻ em.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;Gel dưỡng ẩm Deve Honey Manuka được sản xuất bởi Kumanoyushi Co.,Ltd. 35 Kumano-Cho, Seto-shi, Aichi, Nhật Bản. Kumanoyushi là công ty sản xuất mỹ phẩm được thành lập vào năm 1952 tại Nhật Bản. Với mục tiêu tạo ra những sản phẩm chiết xuất từ thiên nhiên tốt nhất cho làn da, thân thiện với sức khỏe, Kumanoyushi nhận được sự tin cậy của người tiêu dùng không chỉ tại Nhật Bản mà tại nhiều quốc gia khác, trong đó có Việt Nam.&lt;br&gt;
+   &lt;strong&gt;Gel dưỡng ẩm Deve Honey Manuka&lt;/strong&gt; hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&amp;nbsp;&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>url</v>
+      </c>
+      <c r="C1" t="str">
+        <v>title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>inventoryQuantity</v>
+      </c>
+      <c r="F1" t="str">
+        <v>inventoryPolicy</v>
+      </c>
+      <c r="G1" t="str">
+        <v>sku</v>
+      </c>
+      <c r="H1" t="str">
+        <v>barcode</v>
+      </c>
+      <c r="I1" t="str">
+        <v>featuredImage</v>
+      </c>
+      <c r="J1" t="str">
+        <v>images</v>
+      </c>
+      <c r="K1" t="str">
+        <v>trademark</v>
+      </c>
+      <c r="L1" t="str">
+        <v>shortDescription</v>
+      </c>
+      <c r="M1" t="str">
+        <v>price</v>
+      </c>
+      <c r="N1" t="str">
+        <v>originalPrice</v>
+      </c>
+      <c r="O1" t="str">
+        <v>percentDiscount</v>
+      </c>
+      <c r="P1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2" xml:space="preserve">
+      <c r="A2">
+        <v>1052912101</v>
+      </c>
+      <c r="B2" t="str">
+        <v>https://sakukostore.com.vn/products/kumano-yushi-gel-dung-chiet-xuat-mat-ong-300g</v>
+      </c>
+      <c r="C2" t="str">
+        <v>KUMANO YUSHI- Gel dưỡng chiết xuất mật ong (300g)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Kem dưỡng</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2" t="str">
+        <v>continue</v>
+      </c>
+      <c r="G2" t="str">
+        <v>101780</v>
+      </c>
+      <c r="H2" t="str">
+        <v>4513574037847</v>
+      </c>
+      <c r="I2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4513574037847_66bbbb8f6ad04d79ae7f988e6fdd0294.jpg</v>
+      </c>
+      <c r="J2" t="str">
+        <v>https://product.hstatic.net/200000833669/product/4513574037847_66bbbb8f6ad04d79ae7f988e6fdd0294.jpg</v>
+      </c>
+      <c r="K2" t="str">
+        <v>KUMANOYUSHI</v>
+      </c>
+      <c r="L2" t="str">
+        <v>Dưỡng ẩm an toàn với thành phần thiên nhiên  Bổ sung collagen và ceramide chống lão hóa  Công thức dưỡng ẩm 5 trong 1 tiện lợi</v>
+      </c>
+      <c r="M2">
+        <v>18900000</v>
+      </c>
+      <c r="N2">
+        <v>18900000</v>
+      </c>
+      <c r="O2" t="str">
+        <v>0%</v>
+      </c>
+      <c r="P2" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;h2 class="section-title text-blue"&gt;Thông tin chi tiết&lt;/h2&gt;&lt;div class="section-title text-blue"&gt;Thông tin sản phẩm&lt;/div&gt; &lt;div class="article-content show-hide-content"&gt;&lt;p&gt;&lt;strong&gt;Gel dưỡng ẩm Deve Honey Manuka&lt;/strong&gt; giàu dưỡng chất dưỡng da và tính kháng khuẩn cao với thành phần chính là dưỡng chất mật ong, collagen và ceramide. Sản phẩm giúp cấp ẩm sâu, làm chậm quá trình lão hóa, đồng thời kháng khuẩn, chống viêm, giảm thiểu tình trạng mụn và thâm sau mụn hiệu quả.&lt;/p&gt;
+   &lt;h2&gt;THÀNH PHẦN&lt;/h2&gt;
+   &lt;p&gt;Water, Glycerin, Butylene Glycol, dưỡng chất mật ong, Soluble Collagen, Sodium Hyaluronate, Arginine, Ceramide NG, hương liệu và các thành phần khác.&lt;/p&gt;
+   &lt;h2&gt;QUY CÁCH ĐÓNG GÓI&lt;/h2&gt;
+   &lt;p&gt;Hũ 300g&lt;/p&gt;
+   &lt;p&gt;&lt;img src="https://product.hstatic.net/200000833669/product/ng-e1baa9m-deve-honey-manuka-dc6b0e1bba1ng-che1baa5t-me1baadt-ong-300g_0c70e959a79847cfa3a61c0f46d1d941.jpg" alt="KUMANO YUSHI- Gel dưỡng ẩm Deve Honey Manuka dưỡng chất mật ong (300g)" title="KUMANO YUSHI- Gel dưỡng ẩm Deve Honey Manuka dưỡng chất mật ong (300g)"&gt;&lt;br&gt;
+   Gel dưỡng ẩm 5 trong 1 dưỡng chất mật ong dưỡng ẩm sâu, chống viêm, kháng khuẩn, ngăn ngừa mụn và thâm mụn&lt;/p&gt;
+   &lt;h2&gt;CÔNG DỤNG&lt;/h2&gt;
+   &lt;h3&gt;Dưỡng ẩm an toàn với thành phần thiên nhiên&lt;/h3&gt;
+   &lt;p&gt;Gel dưỡng Deve Honey Manuka chứa thành phần mật ong cung cấp nước tạo độ ẩm cho da. Đồng thời, mật ong có khả năng kháng khuẩn, làm dịu vùng da bị tổn thương và hỗ trợ giảm thâm mụn hiệu quả&lt;/p&gt;
+   &lt;h3&gt;Bổ sung collagen và ceramide chống lão hóa&lt;/h3&gt;
+   &lt;p&gt;Sản phẩm được bổ sung thêm thành phần collagen giúp tăng độ săn chắc và đàn hồi, cải thiện các tình trạng lão hóa da như khô ráp, thâm nám và phục hồi làn da bị tổn thương do mụn. Bên cạnh đó, ceramide bảo vệ lớp biểu bì trước các tác hại của môi trường và chống lão hóa nhờ khả năng dưỡng ẩm hiệu quả&lt;/p&gt;
+   &lt;h3&gt;Công thức dưỡng ẩm 5 trong 1 tiện lợi khi chăm sóc da&lt;/h3&gt;
+   &lt;p&gt;Sản phẩm được nghiên cứu, sản xuất dựa trên công thức 5in1 gồm: Nước hoa hồng, sữa dưỡng, kem dưỡng, serum, mặt nạ, giúp đơn giản hóa các bước chăm sóc da chỉ trong một sản phẩm.&amp;nbsp;&lt;/p&gt;
+   &lt;h2&gt;HƯỚNG DẪN SỬ DỤNG&lt;/h2&gt;
+   &lt;ul&gt; &lt;li&gt;Sử dụng trên nền da khô.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Thoa một lượng vừa đủ lên da, đặc biệt tại các vùng da khô cần chăm sóc.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Có thể sử dụng dưỡng da toàn thân.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h2&gt;LƯU Ý&amp;nbsp;&lt;/h2&gt;
+   &lt;ul&gt; &lt;li&gt;Không sử dụng nếu dị ứng với bất kì thành phần nào của sản phẩm.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Ngưng sử dụng khi có triệu chứng bất thường.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h2&gt;BẢO QUẢN&lt;/h2&gt;
+   &lt;ul&gt; &lt;li&gt;Nơi khô thoáng, tránh ánh nắng mặt trời trực tiếp.&amp;nbsp;&lt;/li&gt; &lt;li&gt;Để xa tầm tay trẻ em.&lt;/li&gt;
+   &lt;/ul&gt;
+   &lt;h2&gt;THƯƠNG HIỆU&lt;/h2&gt;
+   &lt;p&gt;Gel dưỡng ẩm Deve Honey Manuka được sản xuất bởi Kumanoyushi Co.,Ltd. 35 Kumano-Cho, Seto-shi, Aichi, Nhật Bản. Kumanoyushi là công ty sản xuất mỹ phẩm được thành lập vào năm 1952 tại Nhật Bản. Với mục tiêu tạo ra những sản phẩm chiết xuất từ thiên nhiên tốt nhất cho làn da, thân thiện với sức khỏe, Kumanoyushi nhận được sự tin cậy của người tiêu dùng không chỉ tại Nhật Bản mà tại nhiều quốc gia khác, trong đó có Việt Nam.&lt;br&gt;
+   &lt;strong&gt;Gel dưỡng ẩm Deve Honey Manuka&lt;/strong&gt; hiện đã có sẵn trên các kệ hàng của Sakuko Japanese Store, hệ thống siêu thị hàng nội địa Nhật Bản chính hãng sẵn sàng tư vấn và giải đáp mọi thắc mắc. Mời bạn liên hệ ngay với chúng tôi.&amp;nbsp;&lt;/p&gt;&lt;/div&gt;</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:P2"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P9"/>
